--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>0.9968251505859952</v>
       </c>
       <c r="E2">
-        <v>0.9852618367249296</v>
+        <v>0.98526183672493</v>
       </c>
       <c r="F2">
-        <v>0.9527095538013987</v>
+        <v>0.9527095538013983</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.008328894030477</v>
       </c>
       <c r="L2">
-        <v>0.9969303892627956</v>
+        <v>0.9969303892627959</v>
       </c>
       <c r="M2">
-        <v>0.9648695499143167</v>
+        <v>0.9648695499143163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9842709878688929</v>
+        <v>0.9842709878688944</v>
       </c>
       <c r="D3">
-        <v>1.003480122905427</v>
+        <v>1.003480122905428</v>
       </c>
       <c r="E3">
-        <v>0.99205558120989</v>
+        <v>0.9920555812098915</v>
       </c>
       <c r="F3">
-        <v>0.9647648567905032</v>
+        <v>0.9647648567905048</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037777375798682</v>
+        <v>1.037777375798683</v>
       </c>
       <c r="J3">
-        <v>1.005199823343216</v>
+        <v>1.005199823343218</v>
       </c>
       <c r="K3">
-        <v>1.014068667732217</v>
+        <v>1.014068667732218</v>
       </c>
       <c r="L3">
-        <v>1.002791131813067</v>
+        <v>1.002791131813068</v>
       </c>
       <c r="M3">
-        <v>0.9758693536861084</v>
+        <v>0.9758693536861102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.989352870259235</v>
+        <v>0.9893528702592351</v>
       </c>
       <c r="D4">
         <v>1.00762537260123</v>
       </c>
       <c r="E4">
-        <v>0.9962967116348507</v>
+        <v>0.9962967116348509</v>
       </c>
       <c r="F4">
-        <v>0.9722403256469708</v>
+        <v>0.9722403256469712</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.009032908457769</v>
       </c>
       <c r="K4">
-        <v>1.017632629093633</v>
+        <v>1.017632629093634</v>
       </c>
       <c r="L4">
         <v>1.006440038536279</v>
       </c>
       <c r="M4">
-        <v>0.9826857485553739</v>
+        <v>0.9826857485553745</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9914462279776617</v>
+        <v>0.9914462279776615</v>
       </c>
       <c r="D5">
         <v>1.009332104582808</v>
       </c>
       <c r="E5">
-        <v>0.9980451184638519</v>
+        <v>0.9980451184638524</v>
       </c>
       <c r="F5">
         <v>0.9753115391574056</v>
@@ -562,7 +562,7 @@
         <v>1.007942000464964</v>
       </c>
       <c r="M5">
-        <v>0.9854850126721246</v>
+        <v>0.9854850126721245</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9917952730180578</v>
+        <v>0.9917952730180575</v>
       </c>
       <c r="D6">
-        <v>1.009616635568262</v>
+        <v>1.009616635568261</v>
       </c>
       <c r="E6">
         <v>0.9983367246548078</v>
       </c>
       <c r="F6">
-        <v>0.9758231880232211</v>
+        <v>0.9758231880232207</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.008192369473036</v>
       </c>
       <c r="M6">
-        <v>0.98595128473714</v>
+        <v>0.9859512847371394</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893810070597372</v>
+        <v>0.9893810070597366</v>
       </c>
       <c r="D7">
-        <v>1.00764831600113</v>
+        <v>1.007648316001129</v>
       </c>
       <c r="E7">
-        <v>0.9963202066335676</v>
+        <v>0.9963202066335669</v>
       </c>
       <c r="F7">
-        <v>0.9722816363947326</v>
+        <v>0.9722816363947318</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>1.006460230881502</v>
       </c>
       <c r="M7">
-        <v>0.9827234060913662</v>
+        <v>0.9827234060913655</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9789157921484342</v>
+        <v>0.9789157921484326</v>
       </c>
       <c r="D8">
-        <v>0.999109225068885</v>
+        <v>0.9991092250688834</v>
       </c>
       <c r="E8">
-        <v>0.9875914897804434</v>
+        <v>0.9875914897804422</v>
       </c>
       <c r="F8">
-        <v>0.9568551206813861</v>
+        <v>0.9568551206813852</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035896176863376</v>
       </c>
       <c r="J8">
-        <v>1.00115379654557</v>
+        <v>1.001153796545569</v>
       </c>
       <c r="K8">
-        <v>1.010301276001824</v>
+        <v>1.010301276001823</v>
       </c>
       <c r="L8">
-        <v>0.9989422076627387</v>
+        <v>0.9989422076627376</v>
       </c>
       <c r="M8">
-        <v>0.9686530688539786</v>
+        <v>0.9686530688539778</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9588275913200964</v>
+        <v>0.9588275913200952</v>
       </c>
       <c r="D9">
-        <v>0.9826934331193948</v>
+        <v>0.9826934331193937</v>
       </c>
       <c r="E9">
-        <v>0.9708933539754259</v>
+        <v>0.9708933539754249</v>
       </c>
       <c r="F9">
-        <v>0.9268425040543453</v>
+        <v>0.9268425040543442</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028704153420391</v>
       </c>
       <c r="J9">
-        <v>0.9859229904391903</v>
+        <v>0.9859229904391892</v>
       </c>
       <c r="K9">
-        <v>0.9960736800685625</v>
+        <v>0.9960736800685616</v>
       </c>
       <c r="L9">
-        <v>0.984477004935675</v>
+        <v>0.9844770049356741</v>
       </c>
       <c r="M9">
-        <v>0.9412456024266567</v>
+        <v>0.9412456024266556</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9440482490652945</v>
+        <v>0.9440482490652955</v>
       </c>
       <c r="D10">
-        <v>0.9706004292460632</v>
+        <v>0.970600429246064</v>
       </c>
       <c r="E10">
-        <v>0.9586566850539032</v>
+        <v>0.9586566850539036</v>
       </c>
       <c r="F10">
-        <v>0.9043465612384322</v>
+        <v>0.9043465612384335</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023298666860873</v>
       </c>
       <c r="J10">
-        <v>0.9746721854390457</v>
+        <v>0.9746721854390462</v>
       </c>
       <c r="K10">
-        <v>0.9855215960999082</v>
+        <v>0.985521596099909</v>
       </c>
       <c r="L10">
-        <v>0.973814803522189</v>
+        <v>0.9738148035221895</v>
       </c>
       <c r="M10">
-        <v>0.9206880381249736</v>
+        <v>0.9206880381249749</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9372390271602803</v>
+        <v>0.9372390271602797</v>
       </c>
       <c r="D11">
-        <v>0.965025190987195</v>
+        <v>0.9650251909871945</v>
       </c>
       <c r="E11">
-        <v>0.9530330316537815</v>
+        <v>0.9530330316537809</v>
       </c>
       <c r="F11">
-        <v>0.8938398641386031</v>
+        <v>0.8938398641386028</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.020780864146624</v>
       </c>
       <c r="J11">
-        <v>0.9694776906580929</v>
+        <v>0.9694776906580923</v>
       </c>
       <c r="K11">
-        <v>0.9806382607029507</v>
+        <v>0.98063826070295</v>
       </c>
       <c r="L11">
-        <v>0.9688985713723156</v>
+        <v>0.9688985713723152</v>
       </c>
       <c r="M11">
-        <v>0.9110859653548365</v>
+        <v>0.9110859653548362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9346395284058645</v>
+        <v>0.934639528405864</v>
       </c>
       <c r="D12">
-        <v>0.9628961891690656</v>
+        <v>0.9628961891690654</v>
       </c>
       <c r="E12">
-        <v>0.9508885073484686</v>
+        <v>0.9508885073484683</v>
       </c>
       <c r="F12">
-        <v>0.8898024778028601</v>
+        <v>0.8898024778028597</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019815510283832</v>
       </c>
       <c r="J12">
-        <v>0.9674929398926532</v>
+        <v>0.9674929398926527</v>
       </c>
       <c r="K12">
-        <v>0.9787705190577497</v>
+        <v>0.9787705190577493</v>
       </c>
       <c r="L12">
-        <v>0.967021229172448</v>
+        <v>0.9670212291724477</v>
       </c>
       <c r="M12">
-        <v>0.9073964030769853</v>
+        <v>0.9073964030769844</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9352004695870575</v>
       </c>
       <c r="D13">
-        <v>0.9633556303611833</v>
+        <v>0.9633556303611834</v>
       </c>
       <c r="E13">
-        <v>0.9513511591756562</v>
+        <v>0.9513511591756559</v>
       </c>
       <c r="F13">
-        <v>0.8906749791420996</v>
+        <v>0.8906749791420991</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020024010503306</v>
       </c>
       <c r="J13">
-        <v>0.9679213030724445</v>
+        <v>0.9679213030724443</v>
       </c>
       <c r="K13">
-        <v>0.9791737163815876</v>
+        <v>0.9791737163815875</v>
       </c>
       <c r="L13">
-        <v>0.9674263595929947</v>
+        <v>0.9674263595929946</v>
       </c>
       <c r="M13">
-        <v>0.9081937226005895</v>
+        <v>0.9081937226005892</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9370256420860102</v>
+        <v>0.9370256420860088</v>
       </c>
       <c r="D14">
-        <v>0.9648504399114795</v>
+        <v>0.9648504399114786</v>
       </c>
       <c r="E14">
-        <v>0.95285694458167</v>
+        <v>0.9528569445816691</v>
       </c>
       <c r="F14">
-        <v>0.8935090128460408</v>
+        <v>0.8935090128460397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020701705478005</v>
+        <v>1.020701705478004</v>
       </c>
       <c r="J14">
-        <v>0.969314803005119</v>
+        <v>0.969314803005118</v>
       </c>
       <c r="K14">
-        <v>0.9804850150625876</v>
+        <v>0.9804850150625865</v>
       </c>
       <c r="L14">
-        <v>0.9687444759809398</v>
+        <v>0.9687444759809388</v>
       </c>
       <c r="M14">
-        <v>0.9107836109442806</v>
+        <v>0.9107836109442796</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,13 +915,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9381405893472999</v>
+        <v>0.9381405893473002</v>
       </c>
       <c r="D15">
-        <v>0.9657634984277568</v>
+        <v>0.9657634984277569</v>
       </c>
       <c r="E15">
-        <v>0.953777105545965</v>
+        <v>0.9537771055459648</v>
       </c>
       <c r="F15">
         <v>0.895236627555959</v>
@@ -933,16 +933,16 @@
         <v>1.021115144788141</v>
       </c>
       <c r="J15">
-        <v>0.970165829921295</v>
+        <v>0.9701658299212951</v>
       </c>
       <c r="K15">
-        <v>0.9812855888522211</v>
+        <v>0.9812855888522213</v>
       </c>
       <c r="L15">
-        <v>0.9695496113852706</v>
+        <v>0.9695496113852708</v>
       </c>
       <c r="M15">
-        <v>0.912362433112005</v>
+        <v>0.9123624331120049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9444908224768862</v>
+        <v>0.9444908224768882</v>
       </c>
       <c r="D16">
-        <v>0.9709627206516441</v>
+        <v>0.9709627206516457</v>
       </c>
       <c r="E16">
-        <v>0.9590225107092716</v>
+        <v>0.9590225107092732</v>
       </c>
       <c r="F16">
-        <v>0.90502615083475</v>
+        <v>0.9050261508347521</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023461749717563</v>
+        <v>1.023461749717564</v>
       </c>
       <c r="J16">
-        <v>0.9750095795338898</v>
+        <v>0.9750095795338918</v>
       </c>
       <c r="K16">
-        <v>0.9858385325293142</v>
+        <v>0.9858385325293159</v>
       </c>
       <c r="L16">
-        <v>0.9741342659595852</v>
+        <v>0.974134265959587</v>
       </c>
       <c r="M16">
-        <v>0.9213091250091264</v>
+        <v>0.9213091250091284</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9483588916477111</v>
+        <v>0.9483588916477099</v>
       </c>
       <c r="D17">
-        <v>0.9741287183461264</v>
+        <v>0.9741287183461252</v>
       </c>
       <c r="E17">
-        <v>0.9622214092623468</v>
+        <v>0.9622214092623456</v>
       </c>
       <c r="F17">
-        <v>0.9109493921374444</v>
+        <v>0.9109493921374435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024884027844867</v>
+        <v>1.024884027844866</v>
       </c>
       <c r="J17">
-        <v>0.9779571603859165</v>
+        <v>0.9779571603859151</v>
       </c>
       <c r="K17">
-        <v>0.9886060981992065</v>
+        <v>0.9886060981992055</v>
       </c>
       <c r="L17">
-        <v>0.9769259265407441</v>
+        <v>0.9769259265407428</v>
       </c>
       <c r="M17">
-        <v>0.9267224131926717</v>
+        <v>0.926722413192671</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505762184348492</v>
+        <v>0.9505762184348477</v>
       </c>
       <c r="D18">
-        <v>0.9759432527146934</v>
+        <v>0.9759432527146922</v>
       </c>
       <c r="E18">
-        <v>0.964056433322525</v>
+        <v>0.9640564333225236</v>
       </c>
       <c r="F18">
-        <v>0.9143319805281447</v>
+        <v>0.9143319805281441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025696794977478</v>
+        <v>1.025696794977477</v>
       </c>
       <c r="J18">
-        <v>0.9796458135200383</v>
+        <v>0.9796458135200368</v>
       </c>
       <c r="K18">
-        <v>0.9901905724160198</v>
+        <v>0.9901905724160188</v>
       </c>
       <c r="L18">
-        <v>0.9785258492488662</v>
+        <v>0.9785258492488649</v>
       </c>
       <c r="M18">
-        <v>0.9298136956282972</v>
+        <v>0.9298136956282966</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9513259145009295</v>
+        <v>0.9513259145009303</v>
       </c>
       <c r="D19">
-        <v>0.9765567045598638</v>
+        <v>0.976556704559865</v>
       </c>
       <c r="E19">
-        <v>0.9646770820477304</v>
+        <v>0.9646770820477313</v>
       </c>
       <c r="F19">
-        <v>0.915473607536449</v>
+        <v>0.9154736075364505</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02597116844195</v>
       </c>
       <c r="J19">
-        <v>0.9802165896128973</v>
+        <v>0.980216589612898</v>
       </c>
       <c r="K19">
-        <v>0.9907259613620489</v>
+        <v>0.99072596136205</v>
       </c>
       <c r="L19">
-        <v>0.9790667320196245</v>
+        <v>0.9790667320196252</v>
       </c>
       <c r="M19">
-        <v>0.9308569840945056</v>
+        <v>0.930856984094507</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9479479601299589</v>
+        <v>0.9479479601299587</v>
       </c>
       <c r="D20">
-        <v>0.9737924080141025</v>
+        <v>0.9737924080141021</v>
       </c>
       <c r="E20">
-        <v>0.961881432167988</v>
+        <v>0.9618814321679879</v>
       </c>
       <c r="F20">
-        <v>0.9103214935380469</v>
+        <v>0.9103214935380464</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024733193931776</v>
+        <v>1.024733193931775</v>
       </c>
       <c r="J20">
-        <v>0.9776441244839296</v>
+        <v>0.9776441244839291</v>
       </c>
       <c r="K20">
-        <v>0.9883122903409174</v>
+        <v>0.9883122903409171</v>
       </c>
       <c r="L20">
-        <v>0.9766293868065122</v>
+        <v>0.9766293868065118</v>
       </c>
       <c r="M20">
-        <v>0.9261485797769023</v>
+        <v>0.926148579776902</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9364901930875629</v>
+        <v>0.9364901930875639</v>
       </c>
       <c r="D21">
-        <v>0.9644119258564201</v>
+        <v>0.9644119258564208</v>
       </c>
       <c r="E21">
-        <v>0.9524151267217489</v>
+        <v>0.9524151267217498</v>
       </c>
       <c r="F21">
-        <v>0.8926783631269509</v>
+        <v>0.8926783631269517</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020503005109631</v>
       </c>
       <c r="J21">
-        <v>0.968906040251577</v>
+        <v>0.9689060402515779</v>
       </c>
       <c r="K21">
-        <v>0.9801004179058198</v>
+        <v>0.9801004179058205</v>
       </c>
       <c r="L21">
-        <v>0.9683577950727473</v>
+        <v>0.9683577950727481</v>
       </c>
       <c r="M21">
-        <v>0.9100245112397657</v>
+        <v>0.9100245112397666</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9288739413552732</v>
+        <v>0.9288739413552735</v>
       </c>
       <c r="D22">
-        <v>0.958172965300813</v>
+        <v>0.9581729653008134</v>
       </c>
       <c r="E22">
-        <v>0.946136739736932</v>
+        <v>0.9461367397369324</v>
       </c>
       <c r="F22">
-        <v>0.8807920921265372</v>
+        <v>0.8807920921265375</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         <v>0.9746211974764252</v>
       </c>
       <c r="L22">
-        <v>0.9628564765369837</v>
+        <v>0.9628564765369838</v>
       </c>
       <c r="M22">
-        <v>0.8991630783479683</v>
+        <v>0.8991630783479687</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.932953986672346</v>
+        <v>0.9329539866723452</v>
       </c>
       <c r="D23">
-        <v>0.9615155470012338</v>
+        <v>0.9615155470012333</v>
       </c>
       <c r="E23">
-        <v>0.9494986789559847</v>
+        <v>0.9494986789559843</v>
       </c>
       <c r="F23">
-        <v>0.8871764208534851</v>
+        <v>0.8871764208534844</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.019188384939009</v>
       </c>
       <c r="J23">
-        <v>0.9662055209169961</v>
+        <v>0.9662055209169956</v>
       </c>
       <c r="K23">
-        <v>0.9775584432092038</v>
+        <v>0.9775584432092034</v>
       </c>
       <c r="L23">
-        <v>0.9658038043759339</v>
+        <v>0.9658038043759333</v>
       </c>
       <c r="M23">
-        <v>0.9049966876201606</v>
+        <v>0.9049966876201598</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.94813376182195</v>
+        <v>0.9481337618219504</v>
       </c>
       <c r="D24">
-        <v>0.973944470967174</v>
+        <v>0.9739444709671744</v>
       </c>
       <c r="E24">
-        <v>0.9620351479864315</v>
+        <v>0.962035147986432</v>
       </c>
       <c r="F24">
-        <v>0.9106054359979817</v>
+        <v>0.9106054359979827</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024801401017306</v>
       </c>
       <c r="J24">
-        <v>0.977785666063946</v>
+        <v>0.9777856660639466</v>
       </c>
       <c r="K24">
-        <v>0.988445141069175</v>
+        <v>0.9884451410691755</v>
       </c>
       <c r="L24">
-        <v>0.9767634676718315</v>
+        <v>0.9767634676718319</v>
       </c>
       <c r="M24">
-        <v>0.9264080736749476</v>
+        <v>0.9264080736749484</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9642419894410877</v>
+        <v>0.9642419894410865</v>
       </c>
       <c r="D25">
-        <v>0.9871206779459304</v>
+        <v>0.9871206779459296</v>
       </c>
       <c r="E25">
-        <v>0.975386604473929</v>
+        <v>0.9753866044739283</v>
       </c>
       <c r="F25">
-        <v>0.9349900902683635</v>
+        <v>0.9349900902683624</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030661783398501</v>
       </c>
       <c r="J25">
-        <v>0.9900357300104972</v>
+        <v>0.9900357300104963</v>
       </c>
       <c r="K25">
-        <v>0.9999222742029292</v>
+        <v>0.9999222742029285</v>
       </c>
       <c r="L25">
-        <v>0.9883794196764097</v>
+        <v>0.988379419676409</v>
       </c>
       <c r="M25">
-        <v>0.9486890474348508</v>
+        <v>0.9486890474348496</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>0.9968251505859952</v>
       </c>
       <c r="E2">
-        <v>0.98526183672493</v>
+        <v>0.9852618367249296</v>
       </c>
       <c r="F2">
-        <v>0.9527095538013983</v>
+        <v>0.9527095538013987</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.008328894030477</v>
       </c>
       <c r="L2">
-        <v>0.9969303892627959</v>
+        <v>0.9969303892627956</v>
       </c>
       <c r="M2">
-        <v>0.9648695499143163</v>
+        <v>0.9648695499143167</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9842709878688944</v>
+        <v>0.9842709878688929</v>
       </c>
       <c r="D3">
-        <v>1.003480122905428</v>
+        <v>1.003480122905427</v>
       </c>
       <c r="E3">
-        <v>0.9920555812098915</v>
+        <v>0.99205558120989</v>
       </c>
       <c r="F3">
-        <v>0.9647648567905048</v>
+        <v>0.9647648567905032</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037777375798683</v>
+        <v>1.037777375798682</v>
       </c>
       <c r="J3">
-        <v>1.005199823343218</v>
+        <v>1.005199823343216</v>
       </c>
       <c r="K3">
-        <v>1.014068667732218</v>
+        <v>1.014068667732217</v>
       </c>
       <c r="L3">
-        <v>1.002791131813068</v>
+        <v>1.002791131813067</v>
       </c>
       <c r="M3">
-        <v>0.9758693536861102</v>
+        <v>0.9758693536861084</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9893528702592351</v>
+        <v>0.989352870259235</v>
       </c>
       <c r="D4">
         <v>1.00762537260123</v>
       </c>
       <c r="E4">
-        <v>0.9962967116348509</v>
+        <v>0.9962967116348507</v>
       </c>
       <c r="F4">
-        <v>0.9722403256469712</v>
+        <v>0.9722403256469708</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.009032908457769</v>
       </c>
       <c r="K4">
-        <v>1.017632629093634</v>
+        <v>1.017632629093633</v>
       </c>
       <c r="L4">
         <v>1.006440038536279</v>
       </c>
       <c r="M4">
-        <v>0.9826857485553745</v>
+        <v>0.9826857485553739</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9914462279776615</v>
+        <v>0.9914462279776617</v>
       </c>
       <c r="D5">
         <v>1.009332104582808</v>
       </c>
       <c r="E5">
-        <v>0.9980451184638524</v>
+        <v>0.9980451184638519</v>
       </c>
       <c r="F5">
         <v>0.9753115391574056</v>
@@ -562,7 +562,7 @@
         <v>1.007942000464964</v>
       </c>
       <c r="M5">
-        <v>0.9854850126721245</v>
+        <v>0.9854850126721246</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9917952730180575</v>
+        <v>0.9917952730180578</v>
       </c>
       <c r="D6">
-        <v>1.009616635568261</v>
+        <v>1.009616635568262</v>
       </c>
       <c r="E6">
         <v>0.9983367246548078</v>
       </c>
       <c r="F6">
-        <v>0.9758231880232207</v>
+        <v>0.9758231880232211</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.008192369473036</v>
       </c>
       <c r="M6">
-        <v>0.9859512847371394</v>
+        <v>0.98595128473714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893810070597366</v>
+        <v>0.9893810070597372</v>
       </c>
       <c r="D7">
-        <v>1.007648316001129</v>
+        <v>1.00764831600113</v>
       </c>
       <c r="E7">
-        <v>0.9963202066335669</v>
+        <v>0.9963202066335676</v>
       </c>
       <c r="F7">
-        <v>0.9722816363947318</v>
+        <v>0.9722816363947326</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>1.006460230881502</v>
       </c>
       <c r="M7">
-        <v>0.9827234060913655</v>
+        <v>0.9827234060913662</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9789157921484326</v>
+        <v>0.9789157921484342</v>
       </c>
       <c r="D8">
-        <v>0.9991092250688834</v>
+        <v>0.999109225068885</v>
       </c>
       <c r="E8">
-        <v>0.9875914897804422</v>
+        <v>0.9875914897804434</v>
       </c>
       <c r="F8">
-        <v>0.9568551206813852</v>
+        <v>0.9568551206813861</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035896176863376</v>
       </c>
       <c r="J8">
-        <v>1.001153796545569</v>
+        <v>1.00115379654557</v>
       </c>
       <c r="K8">
-        <v>1.010301276001823</v>
+        <v>1.010301276001824</v>
       </c>
       <c r="L8">
-        <v>0.9989422076627376</v>
+        <v>0.9989422076627387</v>
       </c>
       <c r="M8">
-        <v>0.9686530688539778</v>
+        <v>0.9686530688539786</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9588275913200952</v>
+        <v>0.9588275913200964</v>
       </c>
       <c r="D9">
-        <v>0.9826934331193937</v>
+        <v>0.9826934331193948</v>
       </c>
       <c r="E9">
-        <v>0.9708933539754249</v>
+        <v>0.9708933539754259</v>
       </c>
       <c r="F9">
-        <v>0.9268425040543442</v>
+        <v>0.9268425040543453</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028704153420391</v>
       </c>
       <c r="J9">
-        <v>0.9859229904391892</v>
+        <v>0.9859229904391903</v>
       </c>
       <c r="K9">
-        <v>0.9960736800685616</v>
+        <v>0.9960736800685625</v>
       </c>
       <c r="L9">
-        <v>0.9844770049356741</v>
+        <v>0.984477004935675</v>
       </c>
       <c r="M9">
-        <v>0.9412456024266556</v>
+        <v>0.9412456024266567</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9440482490652955</v>
+        <v>0.9440482490652945</v>
       </c>
       <c r="D10">
-        <v>0.970600429246064</v>
+        <v>0.9706004292460632</v>
       </c>
       <c r="E10">
-        <v>0.9586566850539036</v>
+        <v>0.9586566850539032</v>
       </c>
       <c r="F10">
-        <v>0.9043465612384335</v>
+        <v>0.9043465612384322</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023298666860873</v>
       </c>
       <c r="J10">
-        <v>0.9746721854390462</v>
+        <v>0.9746721854390457</v>
       </c>
       <c r="K10">
-        <v>0.985521596099909</v>
+        <v>0.9855215960999082</v>
       </c>
       <c r="L10">
-        <v>0.9738148035221895</v>
+        <v>0.973814803522189</v>
       </c>
       <c r="M10">
-        <v>0.9206880381249749</v>
+        <v>0.9206880381249736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9372390271602797</v>
+        <v>0.9372390271602803</v>
       </c>
       <c r="D11">
-        <v>0.9650251909871945</v>
+        <v>0.965025190987195</v>
       </c>
       <c r="E11">
-        <v>0.9530330316537809</v>
+        <v>0.9530330316537815</v>
       </c>
       <c r="F11">
-        <v>0.8938398641386028</v>
+        <v>0.8938398641386031</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.020780864146624</v>
       </c>
       <c r="J11">
-        <v>0.9694776906580923</v>
+        <v>0.9694776906580929</v>
       </c>
       <c r="K11">
-        <v>0.98063826070295</v>
+        <v>0.9806382607029507</v>
       </c>
       <c r="L11">
-        <v>0.9688985713723152</v>
+        <v>0.9688985713723156</v>
       </c>
       <c r="M11">
-        <v>0.9110859653548362</v>
+        <v>0.9110859653548365</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.934639528405864</v>
+        <v>0.9346395284058645</v>
       </c>
       <c r="D12">
-        <v>0.9628961891690654</v>
+        <v>0.9628961891690656</v>
       </c>
       <c r="E12">
-        <v>0.9508885073484683</v>
+        <v>0.9508885073484686</v>
       </c>
       <c r="F12">
-        <v>0.8898024778028597</v>
+        <v>0.8898024778028601</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019815510283832</v>
       </c>
       <c r="J12">
-        <v>0.9674929398926527</v>
+        <v>0.9674929398926532</v>
       </c>
       <c r="K12">
-        <v>0.9787705190577493</v>
+        <v>0.9787705190577497</v>
       </c>
       <c r="L12">
-        <v>0.9670212291724477</v>
+        <v>0.967021229172448</v>
       </c>
       <c r="M12">
-        <v>0.9073964030769844</v>
+        <v>0.9073964030769853</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9352004695870575</v>
       </c>
       <c r="D13">
-        <v>0.9633556303611834</v>
+        <v>0.9633556303611833</v>
       </c>
       <c r="E13">
-        <v>0.9513511591756559</v>
+        <v>0.9513511591756562</v>
       </c>
       <c r="F13">
-        <v>0.8906749791420991</v>
+        <v>0.8906749791420996</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.020024010503306</v>
       </c>
       <c r="J13">
-        <v>0.9679213030724443</v>
+        <v>0.9679213030724445</v>
       </c>
       <c r="K13">
-        <v>0.9791737163815875</v>
+        <v>0.9791737163815876</v>
       </c>
       <c r="L13">
-        <v>0.9674263595929946</v>
+        <v>0.9674263595929947</v>
       </c>
       <c r="M13">
-        <v>0.9081937226005892</v>
+        <v>0.9081937226005895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9370256420860088</v>
+        <v>0.9370256420860102</v>
       </c>
       <c r="D14">
-        <v>0.9648504399114786</v>
+        <v>0.9648504399114795</v>
       </c>
       <c r="E14">
-        <v>0.9528569445816691</v>
+        <v>0.95285694458167</v>
       </c>
       <c r="F14">
-        <v>0.8935090128460397</v>
+        <v>0.8935090128460408</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020701705478004</v>
+        <v>1.020701705478005</v>
       </c>
       <c r="J14">
-        <v>0.969314803005118</v>
+        <v>0.969314803005119</v>
       </c>
       <c r="K14">
-        <v>0.9804850150625865</v>
+        <v>0.9804850150625876</v>
       </c>
       <c r="L14">
-        <v>0.9687444759809388</v>
+        <v>0.9687444759809398</v>
       </c>
       <c r="M14">
-        <v>0.9107836109442796</v>
+        <v>0.9107836109442806</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,13 +915,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9381405893473002</v>
+        <v>0.9381405893472999</v>
       </c>
       <c r="D15">
-        <v>0.9657634984277569</v>
+        <v>0.9657634984277568</v>
       </c>
       <c r="E15">
-        <v>0.9537771055459648</v>
+        <v>0.953777105545965</v>
       </c>
       <c r="F15">
         <v>0.895236627555959</v>
@@ -933,16 +933,16 @@
         <v>1.021115144788141</v>
       </c>
       <c r="J15">
-        <v>0.9701658299212951</v>
+        <v>0.970165829921295</v>
       </c>
       <c r="K15">
-        <v>0.9812855888522213</v>
+        <v>0.9812855888522211</v>
       </c>
       <c r="L15">
-        <v>0.9695496113852708</v>
+        <v>0.9695496113852706</v>
       </c>
       <c r="M15">
-        <v>0.9123624331120049</v>
+        <v>0.912362433112005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9444908224768882</v>
+        <v>0.9444908224768862</v>
       </c>
       <c r="D16">
-        <v>0.9709627206516457</v>
+        <v>0.9709627206516441</v>
       </c>
       <c r="E16">
-        <v>0.9590225107092732</v>
+        <v>0.9590225107092716</v>
       </c>
       <c r="F16">
-        <v>0.9050261508347521</v>
+        <v>0.90502615083475</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023461749717564</v>
+        <v>1.023461749717563</v>
       </c>
       <c r="J16">
-        <v>0.9750095795338918</v>
+        <v>0.9750095795338898</v>
       </c>
       <c r="K16">
-        <v>0.9858385325293159</v>
+        <v>0.9858385325293142</v>
       </c>
       <c r="L16">
-        <v>0.974134265959587</v>
+        <v>0.9741342659595852</v>
       </c>
       <c r="M16">
-        <v>0.9213091250091284</v>
+        <v>0.9213091250091264</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9483588916477099</v>
+        <v>0.9483588916477111</v>
       </c>
       <c r="D17">
-        <v>0.9741287183461252</v>
+        <v>0.9741287183461264</v>
       </c>
       <c r="E17">
-        <v>0.9622214092623456</v>
+        <v>0.9622214092623468</v>
       </c>
       <c r="F17">
-        <v>0.9109493921374435</v>
+        <v>0.9109493921374444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024884027844866</v>
+        <v>1.024884027844867</v>
       </c>
       <c r="J17">
-        <v>0.9779571603859151</v>
+        <v>0.9779571603859165</v>
       </c>
       <c r="K17">
-        <v>0.9886060981992055</v>
+        <v>0.9886060981992065</v>
       </c>
       <c r="L17">
-        <v>0.9769259265407428</v>
+        <v>0.9769259265407441</v>
       </c>
       <c r="M17">
-        <v>0.926722413192671</v>
+        <v>0.9267224131926717</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505762184348477</v>
+        <v>0.9505762184348492</v>
       </c>
       <c r="D18">
-        <v>0.9759432527146922</v>
+        <v>0.9759432527146934</v>
       </c>
       <c r="E18">
-        <v>0.9640564333225236</v>
+        <v>0.964056433322525</v>
       </c>
       <c r="F18">
-        <v>0.9143319805281441</v>
+        <v>0.9143319805281447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025696794977477</v>
+        <v>1.025696794977478</v>
       </c>
       <c r="J18">
-        <v>0.9796458135200368</v>
+        <v>0.9796458135200383</v>
       </c>
       <c r="K18">
-        <v>0.9901905724160188</v>
+        <v>0.9901905724160198</v>
       </c>
       <c r="L18">
-        <v>0.9785258492488649</v>
+        <v>0.9785258492488662</v>
       </c>
       <c r="M18">
-        <v>0.9298136956282966</v>
+        <v>0.9298136956282972</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9513259145009303</v>
+        <v>0.9513259145009295</v>
       </c>
       <c r="D19">
-        <v>0.976556704559865</v>
+        <v>0.9765567045598638</v>
       </c>
       <c r="E19">
-        <v>0.9646770820477313</v>
+        <v>0.9646770820477304</v>
       </c>
       <c r="F19">
-        <v>0.9154736075364505</v>
+        <v>0.915473607536449</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02597116844195</v>
       </c>
       <c r="J19">
-        <v>0.980216589612898</v>
+        <v>0.9802165896128973</v>
       </c>
       <c r="K19">
-        <v>0.99072596136205</v>
+        <v>0.9907259613620489</v>
       </c>
       <c r="L19">
-        <v>0.9790667320196252</v>
+        <v>0.9790667320196245</v>
       </c>
       <c r="M19">
-        <v>0.930856984094507</v>
+        <v>0.9308569840945056</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9479479601299587</v>
+        <v>0.9479479601299589</v>
       </c>
       <c r="D20">
-        <v>0.9737924080141021</v>
+        <v>0.9737924080141025</v>
       </c>
       <c r="E20">
-        <v>0.9618814321679879</v>
+        <v>0.961881432167988</v>
       </c>
       <c r="F20">
-        <v>0.9103214935380464</v>
+        <v>0.9103214935380469</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024733193931775</v>
+        <v>1.024733193931776</v>
       </c>
       <c r="J20">
-        <v>0.9776441244839291</v>
+        <v>0.9776441244839296</v>
       </c>
       <c r="K20">
-        <v>0.9883122903409171</v>
+        <v>0.9883122903409174</v>
       </c>
       <c r="L20">
-        <v>0.9766293868065118</v>
+        <v>0.9766293868065122</v>
       </c>
       <c r="M20">
-        <v>0.926148579776902</v>
+        <v>0.9261485797769023</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9364901930875639</v>
+        <v>0.9364901930875629</v>
       </c>
       <c r="D21">
-        <v>0.9644119258564208</v>
+        <v>0.9644119258564201</v>
       </c>
       <c r="E21">
-        <v>0.9524151267217498</v>
+        <v>0.9524151267217489</v>
       </c>
       <c r="F21">
-        <v>0.8926783631269517</v>
+        <v>0.8926783631269509</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020503005109631</v>
       </c>
       <c r="J21">
-        <v>0.9689060402515779</v>
+        <v>0.968906040251577</v>
       </c>
       <c r="K21">
-        <v>0.9801004179058205</v>
+        <v>0.9801004179058198</v>
       </c>
       <c r="L21">
-        <v>0.9683577950727481</v>
+        <v>0.9683577950727473</v>
       </c>
       <c r="M21">
-        <v>0.9100245112397666</v>
+        <v>0.9100245112397657</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9288739413552735</v>
+        <v>0.9288739413552732</v>
       </c>
       <c r="D22">
-        <v>0.9581729653008134</v>
+        <v>0.958172965300813</v>
       </c>
       <c r="E22">
-        <v>0.9461367397369324</v>
+        <v>0.946136739736932</v>
       </c>
       <c r="F22">
-        <v>0.8807920921265375</v>
+        <v>0.8807920921265372</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         <v>0.9746211974764252</v>
       </c>
       <c r="L22">
-        <v>0.9628564765369838</v>
+        <v>0.9628564765369837</v>
       </c>
       <c r="M22">
-        <v>0.8991630783479687</v>
+        <v>0.8991630783479683</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9329539866723452</v>
+        <v>0.932953986672346</v>
       </c>
       <c r="D23">
-        <v>0.9615155470012333</v>
+        <v>0.9615155470012338</v>
       </c>
       <c r="E23">
-        <v>0.9494986789559843</v>
+        <v>0.9494986789559847</v>
       </c>
       <c r="F23">
-        <v>0.8871764208534844</v>
+        <v>0.8871764208534851</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.019188384939009</v>
       </c>
       <c r="J23">
-        <v>0.9662055209169956</v>
+        <v>0.9662055209169961</v>
       </c>
       <c r="K23">
-        <v>0.9775584432092034</v>
+        <v>0.9775584432092038</v>
       </c>
       <c r="L23">
-        <v>0.9658038043759333</v>
+        <v>0.9658038043759339</v>
       </c>
       <c r="M23">
-        <v>0.9049966876201598</v>
+        <v>0.9049966876201606</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9481337618219504</v>
+        <v>0.94813376182195</v>
       </c>
       <c r="D24">
-        <v>0.9739444709671744</v>
+        <v>0.973944470967174</v>
       </c>
       <c r="E24">
-        <v>0.962035147986432</v>
+        <v>0.9620351479864315</v>
       </c>
       <c r="F24">
-        <v>0.9106054359979827</v>
+        <v>0.9106054359979817</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024801401017306</v>
       </c>
       <c r="J24">
-        <v>0.9777856660639466</v>
+        <v>0.977785666063946</v>
       </c>
       <c r="K24">
-        <v>0.9884451410691755</v>
+        <v>0.988445141069175</v>
       </c>
       <c r="L24">
-        <v>0.9767634676718319</v>
+        <v>0.9767634676718315</v>
       </c>
       <c r="M24">
-        <v>0.9264080736749484</v>
+        <v>0.9264080736749476</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9642419894410865</v>
+        <v>0.9642419894410877</v>
       </c>
       <c r="D25">
-        <v>0.9871206779459296</v>
+        <v>0.9871206779459304</v>
       </c>
       <c r="E25">
-        <v>0.9753866044739283</v>
+        <v>0.975386604473929</v>
       </c>
       <c r="F25">
-        <v>0.9349900902683624</v>
+        <v>0.9349900902683635</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030661783398501</v>
       </c>
       <c r="J25">
-        <v>0.9900357300104963</v>
+        <v>0.9900357300104972</v>
       </c>
       <c r="K25">
-        <v>0.9999222742029285</v>
+        <v>0.9999222742029292</v>
       </c>
       <c r="L25">
-        <v>0.988379419676409</v>
+        <v>0.9883794196764097</v>
       </c>
       <c r="M25">
-        <v>0.9486890474348496</v>
+        <v>0.9486890474348508</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9761185811163171</v>
+        <v>0.9761406315139852</v>
       </c>
       <c r="D2">
-        <v>0.9968251505859952</v>
+        <v>0.9968428606190886</v>
       </c>
       <c r="E2">
-        <v>0.9852618367249296</v>
+        <v>0.9852825486056769</v>
       </c>
       <c r="F2">
-        <v>0.9527095538013987</v>
+        <v>0.9527291260359119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034907025215593</v>
+        <v>1.03491600813221</v>
       </c>
       <c r="J2">
-        <v>0.9990378233836911</v>
+        <v>0.9990591687700445</v>
       </c>
       <c r="K2">
-        <v>1.008328894030477</v>
+        <v>1.008346355351202</v>
       </c>
       <c r="L2">
-        <v>0.9969303892627956</v>
+        <v>0.996950801559596</v>
       </c>
       <c r="M2">
-        <v>0.9648695499143167</v>
+        <v>0.9648888137542312</v>
+      </c>
+      <c r="N2">
+        <v>1.000732625283437</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9842709878688929</v>
+        <v>0.9842875398547801</v>
       </c>
       <c r="D3">
-        <v>1.003480122905427</v>
+        <v>1.003493425281581</v>
       </c>
       <c r="E3">
-        <v>0.99205558120989</v>
+        <v>0.9920713521680229</v>
       </c>
       <c r="F3">
-        <v>0.9647648567905032</v>
+        <v>0.9647793903035767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037777375798682</v>
+        <v>1.037784131572952</v>
       </c>
       <c r="J3">
-        <v>1.005199823343216</v>
+        <v>1.005215904158614</v>
       </c>
       <c r="K3">
-        <v>1.014068667732217</v>
+        <v>1.014081801375643</v>
       </c>
       <c r="L3">
-        <v>1.002791131813067</v>
+        <v>1.002806696914894</v>
       </c>
       <c r="M3">
-        <v>0.9758693536861084</v>
+        <v>0.9758836837068834</v>
+      </c>
+      <c r="N3">
+        <v>1.00503354926298</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.989352870259235</v>
+        <v>0.9893660755637146</v>
       </c>
       <c r="D4">
-        <v>1.00762537260123</v>
+        <v>1.007635989610603</v>
       </c>
       <c r="E4">
-        <v>0.9962967116348507</v>
+        <v>0.9963094694360296</v>
       </c>
       <c r="F4">
-        <v>0.9722403256469708</v>
+        <v>0.9722518471556773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039546336931288</v>
+        <v>1.039551733267519</v>
       </c>
       <c r="J4">
-        <v>1.009032908457769</v>
+        <v>1.009045766037491</v>
       </c>
       <c r="K4">
-        <v>1.017632629093633</v>
+        <v>1.017643120358464</v>
       </c>
       <c r="L4">
-        <v>1.006440038536279</v>
+        <v>1.006452640938738</v>
       </c>
       <c r="M4">
-        <v>0.9826857485553739</v>
+        <v>0.9826971209023255</v>
+      </c>
+      <c r="N4">
+        <v>1.007706563717787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9914462279776617</v>
+        <v>0.9914580715826018</v>
       </c>
       <c r="D5">
-        <v>1.009332104582808</v>
+        <v>1.009341628380211</v>
       </c>
       <c r="E5">
-        <v>0.9980451184638519</v>
+        <v>0.9980566491751228</v>
       </c>
       <c r="F5">
-        <v>0.9753115391574056</v>
+        <v>0.9753218464564948</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040270122531028</v>
+        <v>1.040274964854842</v>
       </c>
       <c r="J5">
-        <v>1.010609905098953</v>
+        <v>1.01062144710811</v>
       </c>
       <c r="K5">
-        <v>1.019097380563625</v>
+        <v>1.01910679484858</v>
       </c>
       <c r="L5">
-        <v>1.007942000464964</v>
+        <v>1.007953394847325</v>
       </c>
       <c r="M5">
-        <v>0.9854850126721246</v>
+        <v>0.9854951909245366</v>
+      </c>
+      <c r="N5">
+        <v>1.008805686549029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9917952730180578</v>
+        <v>0.9918068905013148</v>
       </c>
       <c r="D6">
-        <v>1.009616635568262</v>
+        <v>1.009625977794917</v>
       </c>
       <c r="E6">
-        <v>0.9983367246548078</v>
+        <v>0.9983480515409663</v>
       </c>
       <c r="F6">
-        <v>0.9758231880232211</v>
+        <v>0.9758332943108914</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04039051729023</v>
+        <v>1.040395267564769</v>
       </c>
       <c r="J6">
-        <v>1.010872737232936</v>
+        <v>1.010884060550967</v>
       </c>
       <c r="K6">
-        <v>1.019341416366918</v>
+        <v>1.019350651705415</v>
       </c>
       <c r="L6">
-        <v>1.008192369473036</v>
+        <v>1.008203563114352</v>
       </c>
       <c r="M6">
-        <v>0.98595128473714</v>
+        <v>0.985961265208788</v>
+      </c>
+      <c r="N6">
+        <v>1.008988837086256</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9893810070597372</v>
+        <v>0.989394193997757</v>
       </c>
       <c r="D7">
-        <v>1.00764831600113</v>
+        <v>1.007658918267674</v>
       </c>
       <c r="E7">
-        <v>0.9963202066335676</v>
+        <v>0.9963329478878779</v>
       </c>
       <c r="F7">
-        <v>0.9722816363947326</v>
+        <v>0.9722931414834823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039556084762788</v>
+        <v>1.039561473630021</v>
       </c>
       <c r="J7">
-        <v>1.009054112604314</v>
+        <v>1.009066952455535</v>
       </c>
       <c r="K7">
-        <v>1.017652330006264</v>
+        <v>1.01766280675208</v>
       </c>
       <c r="L7">
-        <v>1.006460230881502</v>
+        <v>1.006472816999965</v>
       </c>
       <c r="M7">
-        <v>0.9827234060913662</v>
+        <v>0.9827347622972449</v>
+      </c>
+      <c r="N7">
+        <v>1.007721344838198</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9789157921484342</v>
+        <v>0.9789359371456846</v>
       </c>
       <c r="D8">
-        <v>0.999109225068885</v>
+        <v>0.9991254082654871</v>
       </c>
       <c r="E8">
-        <v>0.9875914897804434</v>
+        <v>0.9876104908996967</v>
       </c>
       <c r="F8">
-        <v>0.9568551206813861</v>
+        <v>0.9568729337073164</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035896176863376</v>
+        <v>1.035904388852735</v>
       </c>
       <c r="J8">
-        <v>1.00115379654557</v>
+        <v>1.001173321922966</v>
       </c>
       <c r="K8">
-        <v>1.010301276001824</v>
+        <v>1.010317239499139</v>
       </c>
       <c r="L8">
-        <v>0.9989422076627387</v>
+        <v>0.9989609431778218</v>
       </c>
       <c r="M8">
-        <v>0.9686530688539786</v>
+        <v>0.9686706120919311</v>
+      </c>
+      <c r="N8">
+        <v>1.00221001011507</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9588275913200964</v>
+        <v>0.9588619068329834</v>
       </c>
       <c r="D9">
-        <v>0.9826934331193948</v>
+        <v>0.9827209582720391</v>
       </c>
       <c r="E9">
-        <v>0.9708933539754259</v>
+        <v>0.970925035649004</v>
       </c>
       <c r="F9">
-        <v>0.9268425040543453</v>
+        <v>0.9268737605090914</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028704153420391</v>
+        <v>1.028718079034139</v>
       </c>
       <c r="J9">
-        <v>0.9859229904391903</v>
+        <v>0.9859559419640175</v>
       </c>
       <c r="K9">
-        <v>0.9960736800685625</v>
+        <v>0.9961007381275232</v>
       </c>
       <c r="L9">
-        <v>0.984477004935675</v>
+        <v>0.9845081319208503</v>
       </c>
       <c r="M9">
-        <v>0.9412456024266567</v>
+        <v>0.9412762411603793</v>
+      </c>
+      <c r="N9">
+        <v>0.991566653483937</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9440482490652945</v>
+        <v>0.9440938213261595</v>
       </c>
       <c r="D10">
-        <v>0.9706004292460632</v>
+        <v>0.9706369462612177</v>
       </c>
       <c r="E10">
-        <v>0.9586566850539032</v>
+        <v>0.9586983609551107</v>
       </c>
       <c r="F10">
-        <v>0.9043465612384322</v>
+        <v>0.9043891515360721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023298666860873</v>
+        <v>1.02331710283832</v>
       </c>
       <c r="J10">
-        <v>0.9746721854390457</v>
+        <v>0.97471562680625</v>
       </c>
       <c r="K10">
-        <v>0.9855215960999082</v>
+        <v>0.9855574003833546</v>
       </c>
       <c r="L10">
-        <v>0.973814803522189</v>
+        <v>0.9738556391011944</v>
       </c>
       <c r="M10">
-        <v>0.9206880381249736</v>
+        <v>0.9207296257705943</v>
+      </c>
+      <c r="N10">
+        <v>0.9836946117508242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9372390271602803</v>
+        <v>0.9372900697705718</v>
       </c>
       <c r="D11">
-        <v>0.965025190987195</v>
+        <v>0.9650660737781517</v>
       </c>
       <c r="E11">
-        <v>0.9530330316537815</v>
+        <v>0.9530795364525895</v>
       </c>
       <c r="F11">
-        <v>0.8938398641386031</v>
+        <v>0.8938881984121556</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020780864146624</v>
+        <v>1.020801484619915</v>
       </c>
       <c r="J11">
-        <v>0.9694776906580929</v>
+        <v>0.969526175961737</v>
       </c>
       <c r="K11">
-        <v>0.9806382607029507</v>
+        <v>0.9806782969624191</v>
       </c>
       <c r="L11">
-        <v>0.9688985713723156</v>
+        <v>0.9689440808415575</v>
       </c>
       <c r="M11">
-        <v>0.9110859653548365</v>
+        <v>0.9111330714432954</v>
+      </c>
+      <c r="N11">
+        <v>0.9800584536108113</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9346395284058645</v>
+        <v>0.9346927120975902</v>
       </c>
       <c r="D12">
-        <v>0.9628961891690656</v>
+        <v>0.9629387802428301</v>
       </c>
       <c r="E12">
-        <v>0.9508885073484686</v>
+        <v>0.9509368970194282</v>
       </c>
       <c r="F12">
-        <v>0.8898024778028601</v>
+        <v>0.8898531053846958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019815510283832</v>
+        <v>1.019836984638949</v>
       </c>
       <c r="J12">
-        <v>0.9674929398926532</v>
+        <v>0.9675433901322813</v>
       </c>
       <c r="K12">
-        <v>0.9787705190577497</v>
+        <v>0.978812208800945</v>
       </c>
       <c r="L12">
-        <v>0.967021229172448</v>
+        <v>0.9670685601477425</v>
       </c>
       <c r="M12">
-        <v>0.9073964030769853</v>
+        <v>0.9074457069060633</v>
+      </c>
+      <c r="N12">
+        <v>0.978668954014121</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9352004695870575</v>
+        <v>0.9352531886904102</v>
       </c>
       <c r="D13">
-        <v>0.9633556303611833</v>
+        <v>0.9633978507766247</v>
       </c>
       <c r="E13">
-        <v>0.9513511591756562</v>
+        <v>0.9513991401006655</v>
       </c>
       <c r="F13">
-        <v>0.8906749791420996</v>
+        <v>0.8907251068900104</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020024010503306</v>
+        <v>1.020045299626843</v>
       </c>
       <c r="J13">
-        <v>0.9679213030724445</v>
+        <v>0.9679713273808301</v>
       </c>
       <c r="K13">
-        <v>0.9791737163815876</v>
+        <v>0.9792150474708108</v>
       </c>
       <c r="L13">
-        <v>0.9674263595929947</v>
+        <v>0.9674732956974588</v>
       </c>
       <c r="M13">
-        <v>0.9081937226005895</v>
+        <v>0.9082425476897483</v>
+      </c>
+      <c r="N13">
+        <v>0.9789688520566734</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9370256420860102</v>
+        <v>0.9370768593175818</v>
       </c>
       <c r="D14">
-        <v>0.9648504399114795</v>
+        <v>0.964891462034122</v>
       </c>
       <c r="E14">
-        <v>0.95285694458167</v>
+        <v>0.952903603215194</v>
       </c>
       <c r="F14">
-        <v>0.8935090128460408</v>
+        <v>0.8935575331853002</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020701705478005</v>
+        <v>1.020722395614268</v>
       </c>
       <c r="J14">
-        <v>0.969314803005119</v>
+        <v>0.9693634487567543</v>
       </c>
       <c r="K14">
-        <v>0.9804850150625876</v>
+        <v>0.9805251862347921</v>
       </c>
       <c r="L14">
-        <v>0.9687444759809398</v>
+        <v>0.9687901341725424</v>
       </c>
       <c r="M14">
-        <v>0.9107836109442806</v>
+        <v>0.9108308954607894</v>
+      </c>
+      <c r="N14">
+        <v>0.97994442090301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9381405893472999</v>
+        <v>0.9381908963756632</v>
       </c>
       <c r="D15">
-        <v>0.9657634984277568</v>
+        <v>0.9658037942742207</v>
       </c>
       <c r="E15">
-        <v>0.953777105545965</v>
+        <v>0.9538229621127569</v>
       </c>
       <c r="F15">
-        <v>0.895236627555959</v>
+        <v>0.8952841799115753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021115144788141</v>
+        <v>1.021135471765178</v>
       </c>
       <c r="J15">
-        <v>0.970165829921295</v>
+        <v>0.9702136389692403</v>
       </c>
       <c r="K15">
-        <v>0.9812855888522211</v>
+        <v>0.9813250566827667</v>
       </c>
       <c r="L15">
-        <v>0.9695496113852706</v>
+        <v>0.9695944940483473</v>
       </c>
       <c r="M15">
-        <v>0.912362433112005</v>
+        <v>0.9124087891532798</v>
+      </c>
+      <c r="N15">
+        <v>0.9805401926761854</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9444908224768862</v>
+        <v>0.9445360457929771</v>
       </c>
       <c r="D16">
-        <v>0.9709627206516441</v>
+        <v>0.9709989591097355</v>
       </c>
       <c r="E16">
-        <v>0.9590225107092716</v>
+        <v>0.9590638779490339</v>
       </c>
       <c r="F16">
-        <v>0.90502615083475</v>
+        <v>0.9050683801925644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023461749717563</v>
+        <v>1.023480046199464</v>
       </c>
       <c r="J16">
-        <v>0.9750095795338898</v>
+        <v>0.9750526979864258</v>
       </c>
       <c r="K16">
-        <v>0.9858385325293142</v>
+        <v>0.9858740664804242</v>
       </c>
       <c r="L16">
-        <v>0.9741342659595852</v>
+        <v>0.9741748024188662</v>
       </c>
       <c r="M16">
-        <v>0.9213091250091264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9213503652162539</v>
+      </c>
+      <c r="N16">
+        <v>0.9839307608239279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9483588916477111</v>
+        <v>0.9484010978232619</v>
       </c>
       <c r="D17">
-        <v>0.9741287183461264</v>
+        <v>0.9741625478460141</v>
       </c>
       <c r="E17">
-        <v>0.9622214092623468</v>
+        <v>0.962260104550721</v>
       </c>
       <c r="F17">
-        <v>0.9109493921374444</v>
+        <v>0.9109885270478895</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024884027844867</v>
+        <v>1.024901117377393</v>
       </c>
       <c r="J17">
-        <v>0.9779571603859165</v>
+        <v>0.9779974808206915</v>
       </c>
       <c r="K17">
-        <v>0.9886060981992065</v>
+        <v>0.9886392927149963</v>
       </c>
       <c r="L17">
-        <v>0.9769259265407441</v>
+        <v>0.9769638717654783</v>
       </c>
       <c r="M17">
-        <v>0.9267224131926717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.926760671393932</v>
+      </c>
+      <c r="N17">
+        <v>0.9859936580935743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505762184348492</v>
+        <v>0.9506167207025538</v>
       </c>
       <c r="D18">
-        <v>0.9759432527146934</v>
+        <v>0.9759757214094004</v>
       </c>
       <c r="E18">
-        <v>0.964056433322525</v>
+        <v>0.9640936172026975</v>
       </c>
       <c r="F18">
-        <v>0.9143319805281447</v>
+        <v>0.9143693883891485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025696794977478</v>
+        <v>1.025713202231697</v>
       </c>
       <c r="J18">
-        <v>0.9796458135200383</v>
+        <v>0.9796845490451305</v>
       </c>
       <c r="K18">
-        <v>0.9901905724160198</v>
+        <v>0.9902224441096807</v>
       </c>
       <c r="L18">
-        <v>0.9785258492488662</v>
+        <v>0.9785623272105373</v>
       </c>
       <c r="M18">
-        <v>0.9298136956282972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9298502869340982</v>
+      </c>
+      <c r="N18">
+        <v>0.987175323278657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9513259145009295</v>
+        <v>0.9513658447617416</v>
       </c>
       <c r="D19">
-        <v>0.9765567045598638</v>
+        <v>0.976588716364624</v>
       </c>
       <c r="E19">
-        <v>0.9646770820477304</v>
+        <v>0.9647137581533425</v>
       </c>
       <c r="F19">
-        <v>0.915473607536449</v>
+        <v>0.9155104388751868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02597116844195</v>
+        <v>1.025987346541944</v>
       </c>
       <c r="J19">
-        <v>0.9802165896128973</v>
+        <v>0.9802547923038379</v>
       </c>
       <c r="K19">
-        <v>0.9907259613620489</v>
+        <v>0.9907573887065915</v>
       </c>
       <c r="L19">
-        <v>0.9790667320196245</v>
+        <v>0.9791027167892836</v>
       </c>
       <c r="M19">
-        <v>0.9308569840945056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9308930185398779</v>
+      </c>
+      <c r="N19">
+        <v>0.9875747053191599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9479479601299589</v>
+        <v>0.9479904841063849</v>
       </c>
       <c r="D20">
-        <v>0.9737924080141025</v>
+        <v>0.9738264912915069</v>
       </c>
       <c r="E20">
-        <v>0.961881432167988</v>
+        <v>0.9619204091596293</v>
       </c>
       <c r="F20">
-        <v>0.9103214935380469</v>
+        <v>0.9103609521873414</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024733193931776</v>
+        <v>1.024750410664072</v>
       </c>
       <c r="J20">
-        <v>0.9776441244839296</v>
+        <v>0.9776847401438218</v>
       </c>
       <c r="K20">
-        <v>0.9883122903409174</v>
+        <v>0.9883457314469114</v>
       </c>
       <c r="L20">
-        <v>0.9766293868065122</v>
+        <v>0.9766676053848706</v>
       </c>
       <c r="M20">
-        <v>0.9261485797769023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9261871502326441</v>
+      </c>
+      <c r="N20">
+        <v>0.9857745923481824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9364901930875629</v>
+        <v>0.936541849382771</v>
       </c>
       <c r="D21">
-        <v>0.9644119258564201</v>
+        <v>0.9644532983044584</v>
       </c>
       <c r="E21">
-        <v>0.9524151267217489</v>
+        <v>0.952462172068098</v>
       </c>
       <c r="F21">
-        <v>0.8926783631269509</v>
+        <v>0.8927273520629413</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020503005109631</v>
+        <v>1.020523870386926</v>
       </c>
       <c r="J21">
-        <v>0.968906040251577</v>
+        <v>0.9689550892781884</v>
       </c>
       <c r="K21">
-        <v>0.9801004179058198</v>
+        <v>0.9801409282528397</v>
       </c>
       <c r="L21">
-        <v>0.9683577950727473</v>
+        <v>0.9684038270788881</v>
       </c>
       <c r="M21">
-        <v>0.9100245112397657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9100722450268042</v>
+      </c>
+      <c r="N21">
+        <v>0.9796582560584896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9288739413552732</v>
+        <v>0.9289319855721704</v>
       </c>
       <c r="D22">
-        <v>0.958172965300813</v>
+        <v>0.9582194337553172</v>
       </c>
       <c r="E22">
-        <v>0.946136739736932</v>
+        <v>0.9461893974113799</v>
       </c>
       <c r="F22">
-        <v>0.8807920921265372</v>
+        <v>0.8808480244546456</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017666618490987</v>
+        <v>1.017690029182603</v>
       </c>
       <c r="J22">
-        <v>0.9630876214345894</v>
+        <v>0.9631425135028193</v>
       </c>
       <c r="K22">
-        <v>0.9746211974764252</v>
+        <v>0.9746666353168127</v>
       </c>
       <c r="L22">
-        <v>0.9628564765369837</v>
+        <v>0.962907926296653</v>
       </c>
       <c r="M22">
-        <v>0.8991630783479683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8992174540946143</v>
+      </c>
+      <c r="N22">
+        <v>0.9755846303381639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.932953986672346</v>
+        <v>0.9330085750602348</v>
       </c>
       <c r="D23">
-        <v>0.9615155470012338</v>
+        <v>0.9615592587178046</v>
       </c>
       <c r="E23">
-        <v>0.9494986789559847</v>
+        <v>0.9495483036424536</v>
       </c>
       <c r="F23">
-        <v>0.8871764208534851</v>
+        <v>0.88722856725907</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019188384939009</v>
+        <v>1.019210419183382</v>
       </c>
       <c r="J23">
-        <v>0.9662055209169961</v>
+        <v>0.9662572575137848</v>
       </c>
       <c r="K23">
-        <v>0.9775584432092038</v>
+        <v>0.9776012169208693</v>
       </c>
       <c r="L23">
-        <v>0.9658038043759339</v>
+        <v>0.9658523279977114</v>
       </c>
       <c r="M23">
-        <v>0.9049966876201606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9050474452768908</v>
+      </c>
+      <c r="N23">
+        <v>0.9777676109824902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.94813376182195</v>
+        <v>0.9481761420263911</v>
       </c>
       <c r="D24">
-        <v>0.973944470967174</v>
+        <v>0.9739784394376797</v>
       </c>
       <c r="E24">
-        <v>0.9620351479864315</v>
+        <v>0.9620739975441045</v>
       </c>
       <c r="F24">
-        <v>0.9106054359979817</v>
+        <v>0.9106447481253617</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024801401017306</v>
+        <v>1.024818560206953</v>
       </c>
       <c r="J24">
-        <v>0.977785666063946</v>
+        <v>0.9778261481798406</v>
       </c>
       <c r="K24">
-        <v>0.988445141069175</v>
+        <v>0.988478470623774</v>
       </c>
       <c r="L24">
-        <v>0.9767634676718315</v>
+        <v>0.9768015625980592</v>
       </c>
       <c r="M24">
-        <v>0.9264080736749476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9264465028146415</v>
+      </c>
+      <c r="N24">
+        <v>0.9858736450982423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9642419894410877</v>
+        <v>0.9642723684321045</v>
       </c>
       <c r="D25">
-        <v>0.9871206779459304</v>
+        <v>0.9871450552205571</v>
       </c>
       <c r="E25">
-        <v>0.975386604473929</v>
+        <v>0.9754147738955216</v>
       </c>
       <c r="F25">
-        <v>0.9349900902683635</v>
+        <v>0.9350175256909149</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030661783398501</v>
+        <v>1.030674126160159</v>
       </c>
       <c r="J25">
-        <v>0.9900357300104972</v>
+        <v>0.990064976951493</v>
       </c>
       <c r="K25">
-        <v>0.9999222742029292</v>
+        <v>0.9999462602938219</v>
       </c>
       <c r="L25">
-        <v>0.9883794196764097</v>
+        <v>0.9884071229574323</v>
       </c>
       <c r="M25">
-        <v>0.9486890474348508</v>
+        <v>0.9487159762903968</v>
+      </c>
+      <c r="N25">
+        <v>0.994442518925773</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9761406315139852</v>
+        <v>0.9922027389740363</v>
       </c>
       <c r="D2">
-        <v>0.9968428606190886</v>
+        <v>1.010305095916865</v>
       </c>
       <c r="E2">
-        <v>0.9852825486056769</v>
+        <v>1.004285827578363</v>
       </c>
       <c r="F2">
-        <v>0.9527291260359119</v>
+        <v>1.005234715300567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03491600813221</v>
+        <v>1.038320292200656</v>
       </c>
       <c r="J2">
-        <v>0.9990591687700445</v>
+        <v>1.014619192470629</v>
       </c>
       <c r="K2">
-        <v>1.008346355351202</v>
+        <v>1.021622707256155</v>
       </c>
       <c r="L2">
-        <v>0.996950801559596</v>
+        <v>1.015685775199043</v>
       </c>
       <c r="M2">
-        <v>0.9648888137542312</v>
+        <v>1.01662160079866</v>
       </c>
       <c r="N2">
-        <v>1.000732625283437</v>
+        <v>1.016060068102385</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9842875398547801</v>
+        <v>1.001420233970037</v>
       </c>
       <c r="D3">
-        <v>1.003493425281581</v>
+        <v>1.017260972194692</v>
       </c>
       <c r="E3">
-        <v>0.9920713521680229</v>
+        <v>1.01260364546554</v>
       </c>
       <c r="F3">
-        <v>0.9647793903035767</v>
+        <v>1.014694513022828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037784131572952</v>
+        <v>1.04082574804305</v>
       </c>
       <c r="J3">
-        <v>1.005215904158614</v>
+        <v>1.021872256710767</v>
       </c>
       <c r="K3">
-        <v>1.014081801375643</v>
+        <v>1.027677658461803</v>
       </c>
       <c r="L3">
-        <v>1.002806696914894</v>
+        <v>1.023077760717899</v>
       </c>
       <c r="M3">
-        <v>0.9758836837068834</v>
+        <v>1.02514276485549</v>
       </c>
       <c r="N3">
-        <v>1.00503354926298</v>
+        <v>1.023323432525683</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9893660755637146</v>
+        <v>1.007167330919154</v>
       </c>
       <c r="D4">
-        <v>1.007635989610603</v>
+        <v>1.021599700083728</v>
       </c>
       <c r="E4">
-        <v>0.9963094694360296</v>
+        <v>1.017796448470714</v>
       </c>
       <c r="F4">
-        <v>0.9722518471556773</v>
+        <v>1.020603508330583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039551733267519</v>
+        <v>1.042373211199844</v>
       </c>
       <c r="J4">
-        <v>1.009045766037491</v>
+        <v>1.026389455757499</v>
       </c>
       <c r="K4">
-        <v>1.017643120358464</v>
+        <v>1.031444241960069</v>
       </c>
       <c r="L4">
-        <v>1.006452640938738</v>
+        <v>1.027684727973524</v>
       </c>
       <c r="M4">
-        <v>0.9826971209023255</v>
+        <v>1.03045946757536</v>
       </c>
       <c r="N4">
-        <v>1.007706563717787</v>
+        <v>1.02784704651319</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9914580715826018</v>
+        <v>1.009534992133361</v>
       </c>
       <c r="D5">
-        <v>1.009341628380211</v>
+        <v>1.023387392135402</v>
       </c>
       <c r="E5">
-        <v>0.9980566491751228</v>
+        <v>1.019937245524489</v>
       </c>
       <c r="F5">
-        <v>0.9753218464564948</v>
+        <v>1.023040407541243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040274964854842</v>
+        <v>1.043007114583946</v>
       </c>
       <c r="J5">
-        <v>1.01062144710811</v>
+        <v>1.028249122863926</v>
       </c>
       <c r="K5">
-        <v>1.01910679484858</v>
+        <v>1.032993778433869</v>
       </c>
       <c r="L5">
-        <v>1.007953394847325</v>
+        <v>1.02958213506993</v>
       </c>
       <c r="M5">
-        <v>0.9854951909245366</v>
+        <v>1.03265065169897</v>
       </c>
       <c r="N5">
-        <v>1.008805686549029</v>
+        <v>1.029709354560215</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9918068905013148</v>
+        <v>1.009929790810852</v>
       </c>
       <c r="D6">
-        <v>1.009625977794917</v>
+        <v>1.02368549265215</v>
       </c>
       <c r="E6">
-        <v>0.9983480515409663</v>
+        <v>1.02029430030873</v>
       </c>
       <c r="F6">
-        <v>0.9758332943108914</v>
+        <v>1.023446899284978</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040395267564769</v>
+        <v>1.043112600555139</v>
       </c>
       <c r="J6">
-        <v>1.010884060550967</v>
+        <v>1.02855913611083</v>
       </c>
       <c r="K6">
-        <v>1.019350651705415</v>
+        <v>1.033252024928949</v>
       </c>
       <c r="L6">
-        <v>1.008203563114352</v>
+        <v>1.029898485954021</v>
       </c>
       <c r="M6">
-        <v>0.985961265208788</v>
+        <v>1.033016070698369</v>
       </c>
       <c r="N6">
-        <v>1.008988837086256</v>
+        <v>1.030019808061489</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.989394193997757</v>
+        <v>1.007199153517609</v>
       </c>
       <c r="D7">
-        <v>1.007658918267674</v>
+        <v>1.021623726849036</v>
       </c>
       <c r="E7">
-        <v>0.9963329478878779</v>
+        <v>1.017825216118394</v>
       </c>
       <c r="F7">
-        <v>0.9722931414834823</v>
+        <v>1.020636251527761</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039561473630021</v>
+        <v>1.042381745625102</v>
       </c>
       <c r="J7">
-        <v>1.009066952455535</v>
+        <v>1.026414455941407</v>
       </c>
       <c r="K7">
-        <v>1.01766280675208</v>
+        <v>1.031465077419483</v>
       </c>
       <c r="L7">
-        <v>1.006472816999965</v>
+        <v>1.027710232396847</v>
       </c>
       <c r="M7">
-        <v>0.9827347622972449</v>
+        <v>1.030488915008428</v>
       </c>
       <c r="N7">
-        <v>1.007721344838198</v>
+        <v>1.027872082200228</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9789359371456846</v>
+        <v>0.9953651039891925</v>
       </c>
       <c r="D8">
-        <v>0.9991254082654871</v>
+        <v>1.012691053847727</v>
       </c>
       <c r="E8">
-        <v>0.9876104908996967</v>
+        <v>1.007138049063582</v>
       </c>
       <c r="F8">
-        <v>0.9568729337073164</v>
+        <v>1.008477877724054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035904388852735</v>
+        <v>1.039182928246008</v>
       </c>
       <c r="J8">
-        <v>1.001173321922966</v>
+        <v>1.01710861437698</v>
       </c>
       <c r="K8">
-        <v>1.010317239499139</v>
+        <v>1.023701817646966</v>
       </c>
       <c r="L8">
-        <v>0.9989609431778218</v>
+        <v>1.018222191324212</v>
       </c>
       <c r="M8">
-        <v>0.9686706120919311</v>
+        <v>1.019544222419712</v>
       </c>
       <c r="N8">
-        <v>1.00221001011507</v>
+        <v>1.018553025273384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9588619068329834</v>
+        <v>0.9726628432245442</v>
       </c>
       <c r="D9">
-        <v>0.9827209582720391</v>
+        <v>0.9955786621571476</v>
       </c>
       <c r="E9">
-        <v>0.970925035649004</v>
+        <v>0.9866966341153182</v>
       </c>
       <c r="F9">
-        <v>0.9268737605090914</v>
+        <v>0.9852459160554142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028718079034139</v>
+        <v>1.032929880732143</v>
       </c>
       <c r="J9">
-        <v>0.9859559419640175</v>
+        <v>0.9992193045977225</v>
       </c>
       <c r="K9">
-        <v>0.9961007381275232</v>
+        <v>1.008743882110076</v>
       </c>
       <c r="L9">
-        <v>0.9845081319208503</v>
+        <v>1.000009300846403</v>
       </c>
       <c r="M9">
-        <v>0.9412762411603793</v>
+        <v>0.9985829913100444</v>
       </c>
       <c r="N9">
-        <v>0.991566653483937</v>
+        <v>1.000638310622308</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9440938213261595</v>
+        <v>0.9559783297819502</v>
       </c>
       <c r="D10">
-        <v>0.9706369462612177</v>
+        <v>0.9830344650767479</v>
       </c>
       <c r="E10">
-        <v>0.9586983609551107</v>
+        <v>0.9717251121544379</v>
       </c>
       <c r="F10">
-        <v>0.9043891515360721</v>
+        <v>0.9682410719897742</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02331710283832</v>
+        <v>1.02826182270387</v>
       </c>
       <c r="J10">
-        <v>0.97471562680625</v>
+        <v>0.9860543583412773</v>
       </c>
       <c r="K10">
-        <v>0.9855574003833546</v>
+        <v>0.9977169460364881</v>
       </c>
       <c r="L10">
-        <v>0.9738556391011944</v>
+        <v>0.9866243599077302</v>
       </c>
       <c r="M10">
-        <v>0.9207296257705943</v>
+        <v>0.9832084378802776</v>
       </c>
       <c r="N10">
-        <v>0.9836946117508242</v>
+        <v>0.9874546686321376</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9372900697705718</v>
+        <v>0.9482999127698506</v>
       </c>
       <c r="D11">
-        <v>0.9650660737781517</v>
+        <v>0.9772734461031833</v>
       </c>
       <c r="E11">
-        <v>0.9530795364525895</v>
+        <v>0.9648499921184552</v>
       </c>
       <c r="F11">
-        <v>0.8938881984121556</v>
+        <v>0.9604331709015279</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020801484619915</v>
+        <v>1.026098262692734</v>
       </c>
       <c r="J11">
-        <v>0.969526175961737</v>
+        <v>0.9799936787828232</v>
       </c>
       <c r="K11">
-        <v>0.9806782969624191</v>
+        <v>0.9926370669132013</v>
       </c>
       <c r="L11">
-        <v>0.9689440808415575</v>
+        <v>0.9804666906281644</v>
       </c>
       <c r="M11">
-        <v>0.9111330714432954</v>
+        <v>0.976141930991637</v>
       </c>
       <c r="N11">
-        <v>0.9800584536108113</v>
+        <v>0.9813853822135407</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9346927120975902</v>
+        <v>0.945370516687743</v>
       </c>
       <c r="D12">
-        <v>0.9629387802428301</v>
+        <v>0.9750777966522844</v>
       </c>
       <c r="E12">
-        <v>0.9509368970194282</v>
+        <v>0.9622295890885634</v>
       </c>
       <c r="F12">
-        <v>0.8898531053846958</v>
+        <v>0.9574572263777741</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019836984638949</v>
+        <v>1.025270750428395</v>
       </c>
       <c r="J12">
-        <v>0.9675433901322813</v>
+        <v>0.977681388682663</v>
       </c>
       <c r="K12">
-        <v>0.978812208800945</v>
+        <v>0.9906985661010143</v>
       </c>
       <c r="L12">
-        <v>0.9670685601477425</v>
+        <v>0.9781180396214151</v>
       </c>
       <c r="M12">
-        <v>0.9074457069060633</v>
+        <v>0.9734475318791597</v>
       </c>
       <c r="N12">
-        <v>0.978668954014121</v>
+        <v>0.979069808396215</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9352531886904102</v>
+        <v>0.9460025451269889</v>
       </c>
       <c r="D13">
-        <v>0.9633978507766247</v>
+        <v>0.9755514076781373</v>
       </c>
       <c r="E13">
-        <v>0.9513991401006655</v>
+        <v>0.9627948321975011</v>
       </c>
       <c r="F13">
-        <v>0.8907251068900104</v>
+        <v>0.9580991665242509</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020045299626843</v>
+        <v>1.025449380083464</v>
       </c>
       <c r="J13">
-        <v>0.9679713273808301</v>
+        <v>0.9781802736320918</v>
       </c>
       <c r="K13">
-        <v>0.9792150474708108</v>
+        <v>0.9911168211163273</v>
       </c>
       <c r="L13">
-        <v>0.9674732956974588</v>
+        <v>0.9786247406002336</v>
       </c>
       <c r="M13">
-        <v>0.9082425476897483</v>
+        <v>0.9740287857443203</v>
       </c>
       <c r="N13">
-        <v>0.9789688520566734</v>
+        <v>0.979569401819495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9370768593175818</v>
+        <v>0.9480594036055091</v>
       </c>
       <c r="D14">
-        <v>0.964891462034122</v>
+        <v>0.9770931309103872</v>
       </c>
       <c r="E14">
-        <v>0.952903603215194</v>
+        <v>0.964634799014039</v>
       </c>
       <c r="F14">
-        <v>0.8935575331853002</v>
+        <v>0.960188781370822</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020722395614268</v>
+        <v>1.026030363344894</v>
       </c>
       <c r="J14">
-        <v>0.9693634487567543</v>
+        <v>0.9798038353782841</v>
       </c>
       <c r="K14">
-        <v>0.9805251862347921</v>
+        <v>0.9924779198862314</v>
       </c>
       <c r="L14">
-        <v>0.9687901341725424</v>
+        <v>0.9802738489265372</v>
       </c>
       <c r="M14">
-        <v>0.9108308954607894</v>
+        <v>0.9759206830667078</v>
       </c>
       <c r="N14">
-        <v>0.97994442090301</v>
+        <v>0.981195269209592</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9381908963756632</v>
+        <v>0.9493161582203348</v>
       </c>
       <c r="D15">
-        <v>0.9658037942742207</v>
+        <v>0.9780354419372692</v>
       </c>
       <c r="E15">
-        <v>0.9538229621127569</v>
+        <v>0.9657593714296326</v>
       </c>
       <c r="F15">
-        <v>0.8952841799115753</v>
+        <v>0.9614659288982527</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021135471765178</v>
+        <v>1.026385080593871</v>
       </c>
       <c r="J15">
-        <v>0.9702136389692403</v>
+        <v>0.9807958398279019</v>
       </c>
       <c r="K15">
-        <v>0.9813250566827667</v>
+        <v>0.9933095081580129</v>
       </c>
       <c r="L15">
-        <v>0.9695944940483473</v>
+        <v>0.9812815466625286</v>
       </c>
       <c r="M15">
-        <v>0.9124087891532798</v>
+        <v>0.9770768540093083</v>
       </c>
       <c r="N15">
-        <v>0.9805401926761854</v>
+        <v>0.9821886824193127</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9445360457929771</v>
+        <v>0.9564776201395617</v>
       </c>
       <c r="D16">
-        <v>0.9709989591097355</v>
+        <v>0.9834093574489488</v>
       </c>
       <c r="E16">
-        <v>0.9590638779490339</v>
+        <v>0.972172497560889</v>
       </c>
       <c r="F16">
-        <v>0.9050683801925644</v>
+        <v>0.9687491630264466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023480046199464</v>
+        <v>1.028402211105437</v>
       </c>
       <c r="J16">
-        <v>0.9750526979864258</v>
+        <v>0.9864484316091241</v>
       </c>
       <c r="K16">
-        <v>0.9858740664804242</v>
+        <v>0.9980471841436548</v>
       </c>
       <c r="L16">
-        <v>0.9741748024188662</v>
+        <v>0.9870248275382656</v>
       </c>
       <c r="M16">
-        <v>0.9213503652162539</v>
+        <v>0.9836681395059182</v>
       </c>
       <c r="N16">
-        <v>0.9839307608239279</v>
+        <v>0.9878493015292259</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9484010978232619</v>
+        <v>0.9608423916468783</v>
       </c>
       <c r="D17">
-        <v>0.9741625478460141</v>
+        <v>0.9866880313892512</v>
       </c>
       <c r="E17">
-        <v>0.962260104550721</v>
+        <v>0.9760852188684532</v>
       </c>
       <c r="F17">
-        <v>0.9109885270478895</v>
+        <v>0.973192890508232</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024901117377393</v>
+        <v>1.029627794126339</v>
       </c>
       <c r="J17">
-        <v>0.9779974808206915</v>
+        <v>0.9898931984687545</v>
       </c>
       <c r="K17">
-        <v>0.9886392927149963</v>
+        <v>1.000933564211672</v>
       </c>
       <c r="L17">
-        <v>0.9769638717654783</v>
+        <v>0.9905259693598703</v>
       </c>
       <c r="M17">
-        <v>0.926760671393932</v>
+        <v>0.9876878588330238</v>
       </c>
       <c r="N17">
-        <v>0.9859936580935743</v>
+        <v>0.9912989603529168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9506167207025538</v>
+        <v>0.9633451900092248</v>
       </c>
       <c r="D18">
-        <v>0.9759757214094004</v>
+        <v>0.988569133821073</v>
       </c>
       <c r="E18">
-        <v>0.9640936172026975</v>
+        <v>0.9783301783903096</v>
       </c>
       <c r="F18">
-        <v>0.9143693883891485</v>
+        <v>0.9757426194426165</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025713202231697</v>
+        <v>1.03032912080591</v>
       </c>
       <c r="J18">
-        <v>0.9796845490451305</v>
+        <v>0.9918682550889358</v>
       </c>
       <c r="K18">
-        <v>0.9902224441096807</v>
+        <v>1.002588139860529</v>
       </c>
       <c r="L18">
-        <v>0.9785623272105373</v>
+        <v>0.9925337472541993</v>
       </c>
       <c r="M18">
-        <v>0.9298502869340982</v>
+        <v>0.9899936293309324</v>
       </c>
       <c r="N18">
-        <v>0.987175323278657</v>
+        <v>0.9932768217800413</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9513658447617416</v>
+        <v>0.9641915181308695</v>
       </c>
       <c r="D19">
-        <v>0.976588716364624</v>
+        <v>0.9892054055315981</v>
       </c>
       <c r="E19">
-        <v>0.9647137581533425</v>
+        <v>0.9790895426833658</v>
       </c>
       <c r="F19">
-        <v>0.9155104388751868</v>
+        <v>0.9766050941046062</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025987346541944</v>
+        <v>1.03056602777518</v>
       </c>
       <c r="J19">
-        <v>0.9802547923038379</v>
+        <v>0.9925360854920329</v>
       </c>
       <c r="K19">
-        <v>0.9907573887065915</v>
+        <v>1.003147546325242</v>
       </c>
       <c r="L19">
-        <v>0.9791027167892836</v>
+        <v>0.9932127094611533</v>
       </c>
       <c r="M19">
-        <v>0.9308930185398779</v>
+        <v>0.9907734674468716</v>
       </c>
       <c r="N19">
-        <v>0.9875747053191599</v>
+        <v>0.9939456005789122</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9479904841063849</v>
+        <v>0.9603786111590691</v>
       </c>
       <c r="D20">
-        <v>0.9738264912915069</v>
+        <v>0.9863395391089984</v>
       </c>
       <c r="E20">
-        <v>0.9619204091596293</v>
+        <v>0.9756693266281338</v>
       </c>
       <c r="F20">
-        <v>0.9103609521873414</v>
+        <v>0.9727205470430018</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024750410664072</v>
+        <v>1.029497717247421</v>
       </c>
       <c r="J20">
-        <v>0.9776847401438218</v>
+        <v>0.9895271931114556</v>
       </c>
       <c r="K20">
-        <v>0.9883457314469114</v>
+        <v>1.000626920896471</v>
       </c>
       <c r="L20">
-        <v>0.9766676053848706</v>
+        <v>0.9901539326817281</v>
       </c>
       <c r="M20">
-        <v>0.9261871502326441</v>
+        <v>0.9872606545734081</v>
       </c>
       <c r="N20">
-        <v>0.9857745923481824</v>
+        <v>0.9909324352260294</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.936541849382771</v>
+        <v>0.9474559255778061</v>
       </c>
       <c r="D21">
-        <v>0.9644532983044584</v>
+        <v>0.9766407272573709</v>
       </c>
       <c r="E21">
-        <v>0.952462172068098</v>
+        <v>0.9640948848290705</v>
       </c>
       <c r="F21">
-        <v>0.8927273520629413</v>
+        <v>0.9595756131763545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020523870386926</v>
+        <v>1.025859959615815</v>
       </c>
       <c r="J21">
-        <v>0.9689550892781884</v>
+        <v>0.9793274858644756</v>
       </c>
       <c r="K21">
-        <v>0.9801409282528397</v>
+        <v>0.9920785866732096</v>
       </c>
       <c r="L21">
-        <v>0.9684038270788881</v>
+        <v>0.9797899864870566</v>
       </c>
       <c r="M21">
-        <v>0.9100722450268042</v>
+        <v>0.9753655602503268</v>
       </c>
       <c r="N21">
-        <v>0.9796582560584896</v>
+        <v>0.9807182432248356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9289319855721704</v>
+        <v>0.9388778403773987</v>
       </c>
       <c r="D22">
-        <v>0.9582194337553172</v>
+        <v>0.9702160912746318</v>
       </c>
       <c r="E22">
-        <v>0.9461893974113799</v>
+        <v>0.9564267967576485</v>
       </c>
       <c r="F22">
-        <v>0.8808480244546456</v>
+        <v>0.9508668591722687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017690029182603</v>
+        <v>1.023433042825773</v>
       </c>
       <c r="J22">
-        <v>0.9631425135028193</v>
+        <v>0.9725566001951793</v>
       </c>
       <c r="K22">
-        <v>0.9746666353168127</v>
+        <v>0.9864015995834332</v>
       </c>
       <c r="L22">
-        <v>0.962907926296653</v>
+        <v>0.9729138535032501</v>
       </c>
       <c r="M22">
-        <v>0.8992174540946143</v>
+        <v>0.9674788036456379</v>
       </c>
       <c r="N22">
-        <v>0.9755846303381639</v>
+        <v>0.9739377421212577</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9330085750602348</v>
+        <v>0.9434717207702251</v>
       </c>
       <c r="D23">
-        <v>0.9615592587178046</v>
+        <v>0.9736552988649112</v>
       </c>
       <c r="E23">
-        <v>0.9495483036424536</v>
+        <v>0.9605318304631772</v>
       </c>
       <c r="F23">
-        <v>0.88722856725907</v>
+        <v>0.9555290844714351</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019210419183382</v>
+        <v>1.0247338060275</v>
       </c>
       <c r="J23">
-        <v>0.9662572575137848</v>
+        <v>0.9761826024024657</v>
       </c>
       <c r="K23">
-        <v>0.9776012169208693</v>
+        <v>0.989441963754023</v>
       </c>
       <c r="L23">
-        <v>0.9658523279977114</v>
+        <v>0.9765958660849352</v>
       </c>
       <c r="M23">
-        <v>0.9050474452768908</v>
+        <v>0.9717015206098497</v>
       </c>
       <c r="N23">
-        <v>0.9777676109824902</v>
+        <v>0.9775688936675867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9481761420263911</v>
+        <v>0.960588306116182</v>
       </c>
       <c r="D24">
-        <v>0.9739784394376797</v>
+        <v>0.9864971040101337</v>
       </c>
       <c r="E24">
-        <v>0.9620739975441045</v>
+        <v>0.9758573650181274</v>
       </c>
       <c r="F24">
-        <v>0.9106447481253617</v>
+        <v>0.9729341085432334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024818560206953</v>
+        <v>1.029556535033228</v>
       </c>
       <c r="J24">
-        <v>0.9778261481798406</v>
+        <v>0.9896926804060391</v>
       </c>
       <c r="K24">
-        <v>0.988478470623774</v>
+        <v>1.000765569007751</v>
       </c>
       <c r="L24">
-        <v>0.9768015625980592</v>
+        <v>0.9903221457635307</v>
       </c>
       <c r="M24">
-        <v>0.9264465028146415</v>
+        <v>0.9874538092924391</v>
       </c>
       <c r="N24">
-        <v>0.9858736450982423</v>
+        <v>0.9910981575315528</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9642723684321045</v>
+        <v>0.9787796774866704</v>
       </c>
       <c r="D25">
-        <v>0.9871450552205571</v>
+        <v>1.000185192704085</v>
       </c>
       <c r="E25">
-        <v>0.9754147738955216</v>
+        <v>0.9921964339549521</v>
       </c>
       <c r="F25">
-        <v>0.9350175256909149</v>
+        <v>0.9914943146233303</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030674126160159</v>
+        <v>1.034627436112888</v>
       </c>
       <c r="J25">
-        <v>0.990064976951493</v>
+        <v>1.004042919499184</v>
       </c>
       <c r="K25">
-        <v>0.9999462602938219</v>
+        <v>1.012780634474432</v>
       </c>
       <c r="L25">
-        <v>0.9884071229574323</v>
+        <v>1.004917110300922</v>
       </c>
       <c r="M25">
-        <v>0.9487159762903968</v>
+        <v>1.004226121213057</v>
       </c>
       <c r="N25">
-        <v>0.994442518925773</v>
+        <v>1.005468775610206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922027389740363</v>
+        <v>0.9951785337545507</v>
       </c>
       <c r="D2">
-        <v>1.010305095916865</v>
+        <v>1.014571458121701</v>
       </c>
       <c r="E2">
-        <v>1.004285827578363</v>
+        <v>1.007788620260172</v>
       </c>
       <c r="F2">
-        <v>1.005234715300567</v>
+        <v>1.008838867979537</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038320292200656</v>
+        <v>1.043911135564512</v>
       </c>
       <c r="J2">
-        <v>1.014619192470629</v>
+        <v>1.017504416638111</v>
       </c>
       <c r="K2">
-        <v>1.021622707256155</v>
+        <v>1.02583145442071</v>
       </c>
       <c r="L2">
-        <v>1.015685775199043</v>
+        <v>1.019140503283889</v>
       </c>
       <c r="M2">
-        <v>1.01662160079866</v>
+        <v>1.020176421595005</v>
       </c>
       <c r="N2">
-        <v>1.016060068102385</v>
+        <v>1.01894938961912</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001420233970037</v>
+        <v>1.00028875868569</v>
       </c>
       <c r="D3">
-        <v>1.017260972194692</v>
+        <v>1.018402778654368</v>
       </c>
       <c r="E3">
-        <v>1.01260364546554</v>
+        <v>1.012383676872009</v>
       </c>
       <c r="F3">
-        <v>1.014694513022828</v>
+        <v>1.014468553941095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04082574804305</v>
+        <v>1.045357814541427</v>
       </c>
       <c r="J3">
-        <v>1.021872256710767</v>
+        <v>1.020771554942265</v>
       </c>
       <c r="K3">
-        <v>1.027677658461803</v>
+        <v>1.02880548512129</v>
       </c>
       <c r="L3">
-        <v>1.023077760717899</v>
+        <v>1.022860520806138</v>
       </c>
       <c r="M3">
-        <v>1.02514276485549</v>
+        <v>1.024919594425962</v>
       </c>
       <c r="N3">
-        <v>1.023323432525683</v>
+        <v>1.022221167634417</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007167330919154</v>
+        <v>1.003517268662825</v>
       </c>
       <c r="D4">
-        <v>1.021599700083728</v>
+        <v>1.02082203417308</v>
       </c>
       <c r="E4">
-        <v>1.017796448470714</v>
+        <v>1.015292949321441</v>
       </c>
       <c r="F4">
-        <v>1.020603508330583</v>
+        <v>1.018034433400092</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042373211199844</v>
+        <v>1.046255143419993</v>
       </c>
       <c r="J4">
-        <v>1.026389455757499</v>
+        <v>1.022831428279692</v>
       </c>
       <c r="K4">
-        <v>1.031444241960069</v>
+        <v>1.030675486534808</v>
       </c>
       <c r="L4">
-        <v>1.027684727973524</v>
+        <v>1.025210240279668</v>
       </c>
       <c r="M4">
-        <v>1.03045946757536</v>
+        <v>1.027919964222001</v>
       </c>
       <c r="N4">
-        <v>1.02784704651319</v>
+        <v>1.024283966228253</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009534992133361</v>
+        <v>1.00485657588996</v>
       </c>
       <c r="D5">
-        <v>1.023387392135402</v>
+        <v>1.021825250291436</v>
       </c>
       <c r="E5">
-        <v>1.019937245524489</v>
+        <v>1.01650128680283</v>
       </c>
       <c r="F5">
-        <v>1.023040407541243</v>
+        <v>1.019515903018402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043007114583946</v>
+        <v>1.046623329291686</v>
       </c>
       <c r="J5">
-        <v>1.028249122863926</v>
+        <v>1.023684887252534</v>
       </c>
       <c r="K5">
-        <v>1.032993778433869</v>
+        <v>1.031449030278856</v>
       </c>
       <c r="L5">
-        <v>1.02958213506993</v>
+        <v>1.02618484132273</v>
       </c>
       <c r="M5">
-        <v>1.03265065169897</v>
+        <v>1.029165516683534</v>
       </c>
       <c r="N5">
-        <v>1.029709354560215</v>
+        <v>1.025138637210731</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009929790810852</v>
+        <v>1.005080419364032</v>
       </c>
       <c r="D6">
-        <v>1.02368549265215</v>
+        <v>1.021992896971172</v>
       </c>
       <c r="E6">
-        <v>1.02029430030873</v>
+        <v>1.016703325829526</v>
       </c>
       <c r="F6">
-        <v>1.023446899284978</v>
+        <v>1.019763636645056</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043112600555139</v>
+        <v>1.046684624983713</v>
       </c>
       <c r="J6">
-        <v>1.02855913611083</v>
+        <v>1.023827465938962</v>
       </c>
       <c r="K6">
-        <v>1.033252024928949</v>
+        <v>1.031578184200286</v>
       </c>
       <c r="L6">
-        <v>1.029898485954021</v>
+        <v>1.026347720279716</v>
       </c>
       <c r="M6">
-        <v>1.033016070698369</v>
+        <v>1.029373742284058</v>
       </c>
       <c r="N6">
-        <v>1.030019808061489</v>
+        <v>1.025281418375247</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007199153517609</v>
+        <v>1.003535234155287</v>
       </c>
       <c r="D7">
-        <v>1.021623726849036</v>
+        <v>1.020835492941351</v>
       </c>
       <c r="E7">
-        <v>1.017825216118394</v>
+        <v>1.015309152246695</v>
       </c>
       <c r="F7">
-        <v>1.020636251527761</v>
+        <v>1.018054297123279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042381745625102</v>
+        <v>1.046260098407611</v>
       </c>
       <c r="J7">
-        <v>1.026414455941407</v>
+        <v>1.022842880813837</v>
       </c>
       <c r="K7">
-        <v>1.031465077419483</v>
+        <v>1.030685871657619</v>
       </c>
       <c r="L7">
-        <v>1.027710232396847</v>
+        <v>1.025223314235014</v>
       </c>
       <c r="M7">
-        <v>1.030488915008428</v>
+        <v>1.027936668600669</v>
       </c>
       <c r="N7">
-        <v>1.027872082200228</v>
+        <v>1.024295435026311</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9953651039891925</v>
+        <v>0.9969222053058491</v>
       </c>
       <c r="D8">
-        <v>1.012691053847727</v>
+        <v>1.015878972368853</v>
       </c>
       <c r="E8">
-        <v>1.007138049063582</v>
+        <v>1.009355178961222</v>
       </c>
       <c r="F8">
-        <v>1.008477877724054</v>
+        <v>1.010757857660392</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039182928246008</v>
+        <v>1.044408218119648</v>
       </c>
       <c r="J8">
-        <v>1.01710861437698</v>
+        <v>1.018620066116989</v>
       </c>
       <c r="K8">
-        <v>1.023701817646966</v>
+        <v>1.026848064353733</v>
       </c>
       <c r="L8">
-        <v>1.018222191324212</v>
+        <v>1.020409902172996</v>
       </c>
       <c r="M8">
-        <v>1.019544222419712</v>
+        <v>1.021794052351885</v>
       </c>
       <c r="N8">
-        <v>1.018553025273384</v>
+        <v>1.02006662344823</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9726628432245442</v>
+        <v>0.9846345146766647</v>
       </c>
       <c r="D9">
-        <v>0.9955786621571476</v>
+        <v>1.006662734542032</v>
       </c>
       <c r="E9">
-        <v>0.9866966341153182</v>
+        <v>0.9983437289218596</v>
       </c>
       <c r="F9">
-        <v>0.9852459160554142</v>
+        <v>0.9972737982108719</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032929880732143</v>
+        <v>1.040836918793745</v>
       </c>
       <c r="J9">
-        <v>0.9992193045977225</v>
+        <v>1.010741784772176</v>
       </c>
       <c r="K9">
-        <v>1.008743882110076</v>
+        <v>1.019648630580699</v>
       </c>
       <c r="L9">
-        <v>1.000009300846403</v>
+        <v>1.011463735247178</v>
       </c>
       <c r="M9">
-        <v>0.9985829913100444</v>
+        <v>1.010411261534731</v>
       </c>
       <c r="N9">
-        <v>1.000638310622308</v>
+        <v>1.012177154040256</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9559783297819502</v>
+        <v>0.975961254531107</v>
       </c>
       <c r="D10">
-        <v>0.9830344650767479</v>
+        <v>1.000158562509618</v>
       </c>
       <c r="E10">
-        <v>0.9717251121544379</v>
+        <v>0.9906089787951659</v>
       </c>
       <c r="F10">
-        <v>0.9682410719897742</v>
+        <v>0.9878058327216633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02826182270387</v>
+        <v>1.038232083742152</v>
       </c>
       <c r="J10">
-        <v>0.9860543583412773</v>
+        <v>1.005162187515706</v>
       </c>
       <c r="K10">
-        <v>0.9977169460364881</v>
+        <v>1.014524954651425</v>
       </c>
       <c r="L10">
-        <v>0.9866243599077302</v>
+        <v>1.005149886735682</v>
       </c>
       <c r="M10">
-        <v>0.9832084378802776</v>
+        <v>1.002398803227814</v>
       </c>
       <c r="N10">
-        <v>0.9874546686321376</v>
+        <v>1.006589633115693</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9482999127698506</v>
+        <v>0.9720778704420272</v>
       </c>
       <c r="D11">
-        <v>0.9772734461031833</v>
+        <v>0.9972479546327392</v>
       </c>
       <c r="E11">
-        <v>0.9648499921184552</v>
+        <v>0.9871553952449437</v>
       </c>
       <c r="F11">
-        <v>0.9604331709015279</v>
+        <v>0.9835784238830689</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026098262692734</v>
+        <v>1.037046860363521</v>
       </c>
       <c r="J11">
-        <v>0.9799936787828232</v>
+        <v>1.002660212195736</v>
       </c>
       <c r="K11">
-        <v>0.9926370669132013</v>
+        <v>1.012221957787758</v>
       </c>
       <c r="L11">
-        <v>0.9804666906281644</v>
+        <v>1.002323676440764</v>
       </c>
       <c r="M11">
-        <v>0.976141930991637</v>
+        <v>0.998816817064153</v>
       </c>
       <c r="N11">
-        <v>0.9813853822135407</v>
+        <v>1.004084104703788</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.945370516687743</v>
+        <v>0.9706149329452599</v>
       </c>
       <c r="D12">
-        <v>0.9750777966522844</v>
+        <v>0.9961518367203649</v>
       </c>
       <c r="E12">
-        <v>0.9622295890885634</v>
+        <v>0.9858558716983471</v>
       </c>
       <c r="F12">
-        <v>0.9574572263777741</v>
+        <v>0.9819876588189232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025270750428395</v>
+        <v>1.036597612810919</v>
       </c>
       <c r="J12">
-        <v>0.977681388682663</v>
+        <v>1.001717173182979</v>
       </c>
       <c r="K12">
-        <v>0.9906985661010143</v>
+        <v>1.011353134690177</v>
       </c>
       <c r="L12">
-        <v>0.9781180396214151</v>
+        <v>1.0012591620756</v>
       </c>
       <c r="M12">
-        <v>0.9734475318791597</v>
+        <v>0.99746827885239</v>
       </c>
       <c r="N12">
-        <v>0.979069808396215</v>
+        <v>1.003139726467465</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9460025451269889</v>
+        <v>0.9709296862700671</v>
       </c>
       <c r="D13">
-        <v>0.9755514076781373</v>
+        <v>0.9963876500495534</v>
       </c>
       <c r="E13">
-        <v>0.9627948321975011</v>
+        <v>0.9861353974652632</v>
       </c>
       <c r="F13">
-        <v>0.9580991665242509</v>
+        <v>0.9823298343928486</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025449380083464</v>
+        <v>1.036694392001398</v>
       </c>
       <c r="J13">
-        <v>0.9781802736320918</v>
+        <v>1.0019200911564</v>
       </c>
       <c r="K13">
-        <v>0.9911168211163273</v>
+        <v>1.011540118003226</v>
       </c>
       <c r="L13">
-        <v>0.9786247406002336</v>
+        <v>1.001488185581335</v>
       </c>
       <c r="M13">
-        <v>0.9740287857443203</v>
+        <v>0.9977583798083099</v>
       </c>
       <c r="N13">
-        <v>0.979569401819495</v>
+        <v>1.003342932607683</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9480594036055091</v>
+        <v>0.9719573690382178</v>
       </c>
       <c r="D14">
-        <v>0.9770931309103872</v>
+        <v>0.9971576599778095</v>
       </c>
       <c r="E14">
-        <v>0.964634799014039</v>
+        <v>0.9870483233244304</v>
       </c>
       <c r="F14">
-        <v>0.960188781370822</v>
+        <v>0.9834473573900112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026030363344894</v>
+        <v>1.037009911463157</v>
       </c>
       <c r="J14">
-        <v>0.9798038353782841</v>
+        <v>1.002582544383921</v>
       </c>
       <c r="K14">
-        <v>0.9924779198862314</v>
+        <v>1.012150417995878</v>
       </c>
       <c r="L14">
-        <v>0.9802738489265372</v>
+        <v>1.00223598922526</v>
       </c>
       <c r="M14">
-        <v>0.9759206830667078</v>
+        <v>0.9987057210929589</v>
       </c>
       <c r="N14">
-        <v>0.981195269209592</v>
+        <v>1.004006326594771</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9493161582203348</v>
+        <v>0.9725878050593818</v>
       </c>
       <c r="D15">
-        <v>0.9780354419372692</v>
+        <v>0.9976300764519869</v>
       </c>
       <c r="E15">
-        <v>0.9657593714296326</v>
+        <v>0.9876085608110108</v>
       </c>
       <c r="F15">
-        <v>0.9614659288982527</v>
+        <v>0.9841331397388058</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026385080593871</v>
+        <v>1.037203108153478</v>
       </c>
       <c r="J15">
-        <v>0.9807958398279019</v>
+        <v>1.002988864704047</v>
       </c>
       <c r="K15">
-        <v>0.9933095081580129</v>
+        <v>1.012524647857069</v>
       </c>
       <c r="L15">
-        <v>0.9812815466625286</v>
+        <v>1.002694755999799</v>
       </c>
       <c r="M15">
-        <v>0.9770768540093083</v>
+        <v>0.999286985106297</v>
       </c>
       <c r="N15">
-        <v>0.9821886824193127</v>
+        <v>1.004413223936357</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564776201395617</v>
+        <v>0.9762161829636115</v>
       </c>
       <c r="D16">
-        <v>0.9834093574489488</v>
+        <v>1.000349675005439</v>
       </c>
       <c r="E16">
-        <v>0.972172497560889</v>
+        <v>0.9908358968679872</v>
       </c>
       <c r="F16">
-        <v>0.9687491630264466</v>
+        <v>0.988083590227732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028402211105437</v>
+        <v>1.038309502879436</v>
       </c>
       <c r="J16">
-        <v>0.9864484316091241</v>
+        <v>1.005326359166101</v>
       </c>
       <c r="K16">
-        <v>0.9980471841436548</v>
+        <v>1.014675959641149</v>
       </c>
       <c r="L16">
-        <v>0.9870248275382656</v>
+        <v>1.005335436262058</v>
       </c>
       <c r="M16">
-        <v>0.9836681395059182</v>
+        <v>1.002634063259655</v>
       </c>
       <c r="N16">
-        <v>0.9878493015292259</v>
+        <v>1.006754037908661</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9608423916468783</v>
+        <v>0.9784570860223032</v>
       </c>
       <c r="D17">
-        <v>0.9866880313892512</v>
+        <v>1.002029809032505</v>
       </c>
       <c r="E17">
-        <v>0.9760852188684532</v>
+        <v>0.9928316750758822</v>
       </c>
       <c r="F17">
-        <v>0.973192890508232</v>
+        <v>0.9905265071862476</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029627794126339</v>
+        <v>1.038987904264974</v>
       </c>
       <c r="J17">
-        <v>0.9898931984687545</v>
+        <v>1.006769061935606</v>
       </c>
       <c r="K17">
-        <v>1.000933564211672</v>
+        <v>1.016002341701591</v>
       </c>
       <c r="L17">
-        <v>0.9905259693598703</v>
+        <v>1.006966569326366</v>
       </c>
       <c r="M17">
-        <v>0.9876878588330238</v>
+        <v>1.00470270530702</v>
       </c>
       <c r="N17">
-        <v>0.9912989603529168</v>
+        <v>1.008198789481581</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9633451900092248</v>
+        <v>0.9797519272854253</v>
       </c>
       <c r="D18">
-        <v>0.988569133821073</v>
+        <v>1.003000767646894</v>
       </c>
       <c r="E18">
-        <v>0.9783301783903096</v>
+        <v>0.9939857808125092</v>
       </c>
       <c r="F18">
-        <v>0.9757426194426165</v>
+        <v>0.9919391921310776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03032912080591</v>
+        <v>1.039378102696765</v>
       </c>
       <c r="J18">
-        <v>0.9918682550889358</v>
+        <v>1.007602326846379</v>
       </c>
       <c r="K18">
-        <v>1.002588139860529</v>
+        <v>1.016767904187124</v>
       </c>
       <c r="L18">
-        <v>0.9925337472541993</v>
+        <v>1.007909141379108</v>
       </c>
       <c r="M18">
-        <v>0.9899936293309324</v>
+        <v>1.005898531545757</v>
       </c>
       <c r="N18">
-        <v>0.9932768217800413</v>
+        <v>1.009033237724103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9641915181308695</v>
+        <v>0.9801913955591217</v>
       </c>
       <c r="D19">
-        <v>0.9892054055315981</v>
+        <v>1.003330330928379</v>
       </c>
       <c r="E19">
-        <v>0.9790895426833658</v>
+        <v>0.9943776349710298</v>
       </c>
       <c r="F19">
-        <v>0.9766050941046062</v>
+        <v>0.9924188457470737</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03056602777518</v>
+        <v>1.039510228478969</v>
       </c>
       <c r="J19">
-        <v>0.9925360854920329</v>
+        <v>1.007885073671825</v>
       </c>
       <c r="K19">
-        <v>1.003147546325242</v>
+        <v>1.017027588834062</v>
       </c>
       <c r="L19">
-        <v>0.9932127094611533</v>
+        <v>1.008229059879259</v>
       </c>
       <c r="M19">
-        <v>0.9907734674468716</v>
+        <v>1.006304481802412</v>
       </c>
       <c r="N19">
-        <v>0.9939456005789122</v>
+        <v>1.009316386082473</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9603786111590691</v>
+        <v>0.9782179331853833</v>
       </c>
       <c r="D20">
-        <v>0.9863395391089984</v>
+        <v>1.00185048685688</v>
       </c>
       <c r="E20">
-        <v>0.9756693266281338</v>
+        <v>0.9926185882316787</v>
       </c>
       <c r="F20">
-        <v>0.9727205470430018</v>
+        <v>0.9902656792692116</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029497717247421</v>
+        <v>1.038915690003361</v>
       </c>
       <c r="J20">
-        <v>0.9895271931114556</v>
+        <v>1.00661513120909</v>
       </c>
       <c r="K20">
-        <v>1.000626920896471</v>
+        <v>1.015860875540741</v>
       </c>
       <c r="L20">
-        <v>0.9901539326817281</v>
+        <v>1.00679248463423</v>
       </c>
       <c r="M20">
-        <v>0.9872606545734081</v>
+        <v>1.004481882173629</v>
       </c>
       <c r="N20">
-        <v>0.9909324352260294</v>
+        <v>1.008044640155777</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9474559255778061</v>
+        <v>0.9716553181067363</v>
       </c>
       <c r="D21">
-        <v>0.9766407272573709</v>
+        <v>0.9969313319990704</v>
       </c>
       <c r="E21">
-        <v>0.9640948848290705</v>
+        <v>0.9867799593426148</v>
       </c>
       <c r="F21">
-        <v>0.9595756131763545</v>
+        <v>0.9831188523557727</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025859959615815</v>
+        <v>1.036917250687389</v>
       </c>
       <c r="J21">
-        <v>0.9793274858644756</v>
+        <v>1.002387853022457</v>
       </c>
       <c r="K21">
-        <v>0.9920785866732096</v>
+        <v>1.011971075391976</v>
       </c>
       <c r="L21">
-        <v>0.9797899864870566</v>
+        <v>1.00201619379659</v>
       </c>
       <c r="M21">
-        <v>0.9753655602503268</v>
+        <v>0.9984272598836231</v>
       </c>
       <c r="N21">
-        <v>0.9807182432248356</v>
+        <v>1.003811358749242</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9388778403773987</v>
+        <v>0.9674099597407245</v>
       </c>
       <c r="D22">
-        <v>0.9702160912746318</v>
+        <v>0.9937512827286623</v>
       </c>
       <c r="E22">
-        <v>0.9564267967576485</v>
+        <v>0.9830117349815087</v>
       </c>
       <c r="F22">
-        <v>0.9508668591722687</v>
+        <v>0.9785059065806631</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023433042825773</v>
+        <v>1.035608445480102</v>
       </c>
       <c r="J22">
-        <v>0.9725566001951793</v>
+        <v>0.9996503307837115</v>
       </c>
       <c r="K22">
-        <v>0.9864015995834332</v>
+        <v>1.009447552668567</v>
       </c>
       <c r="L22">
-        <v>0.9729138535032501</v>
+        <v>0.9989274156535177</v>
       </c>
       <c r="M22">
-        <v>0.9674788036456379</v>
+        <v>0.9945155391640899</v>
       </c>
       <c r="N22">
-        <v>0.9739377421212577</v>
+        <v>1.00106994891492</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9434717207702251</v>
+        <v>0.9696722572025497</v>
       </c>
       <c r="D23">
-        <v>0.9736552988649112</v>
+        <v>0.9954456457721585</v>
       </c>
       <c r="E23">
-        <v>0.9605318304631772</v>
+        <v>0.9850189261109027</v>
       </c>
       <c r="F23">
-        <v>0.9555290844714351</v>
+        <v>0.9809631141291507</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0247338060275</v>
+        <v>1.036307365994314</v>
       </c>
       <c r="J23">
-        <v>0.9761826024024657</v>
+        <v>1.001109372023306</v>
       </c>
       <c r="K23">
-        <v>0.989441963754023</v>
+        <v>1.010792951017488</v>
       </c>
       <c r="L23">
-        <v>0.9765958660849352</v>
+        <v>1.000573273087583</v>
       </c>
       <c r="M23">
-        <v>0.9717015206098497</v>
+        <v>0.9965995639838767</v>
       </c>
       <c r="N23">
-        <v>0.9775688936675867</v>
+        <v>1.002531062160429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.960588306116182</v>
+        <v>0.9783260337881867</v>
       </c>
       <c r="D24">
-        <v>0.9864971040101337</v>
+        <v>1.001931542689769</v>
       </c>
       <c r="E24">
-        <v>0.9758573650181274</v>
+        <v>0.9927149038255492</v>
       </c>
       <c r="F24">
-        <v>0.9729341085432334</v>
+        <v>0.9903835738655657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029556535033228</v>
+        <v>1.038948337492422</v>
       </c>
       <c r="J24">
-        <v>0.9896926804060391</v>
+        <v>1.006684711282903</v>
       </c>
       <c r="K24">
-        <v>1.000765569007751</v>
+        <v>1.015924822969588</v>
       </c>
       <c r="L24">
-        <v>0.9903221457635307</v>
+        <v>1.006871173268184</v>
       </c>
       <c r="M24">
-        <v>0.9874538092924391</v>
+        <v>1.004581695866076</v>
       </c>
       <c r="N24">
-        <v>0.9910981575315528</v>
+        <v>1.008114319041275</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9787796774866704</v>
+        <v>0.9878917607443631</v>
       </c>
       <c r="D25">
-        <v>1.000185192704085</v>
+        <v>1.009106015128454</v>
       </c>
       <c r="E25">
-        <v>0.9921964339549521</v>
+        <v>1.001256401829661</v>
       </c>
       <c r="F25">
-        <v>0.9914943146233303</v>
+        <v>1.000839639916708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034627436112888</v>
+        <v>1.041798343728701</v>
       </c>
       <c r="J25">
-        <v>1.004042919499184</v>
+        <v>1.012833601255045</v>
       </c>
       <c r="K25">
-        <v>1.012780634474432</v>
+        <v>1.021564597635964</v>
       </c>
       <c r="L25">
-        <v>1.004917110300922</v>
+        <v>1.01383524503771</v>
       </c>
       <c r="M25">
-        <v>1.004226121213057</v>
+        <v>1.0134249355253</v>
       </c>
       <c r="N25">
-        <v>1.005468775610206</v>
+        <v>1.014271941142464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9951785337545507</v>
+        <v>1.029099138306892</v>
       </c>
       <c r="D2">
-        <v>1.014571458121701</v>
+        <v>1.032522228300139</v>
       </c>
       <c r="E2">
-        <v>1.007788620260172</v>
+        <v>1.038514979376432</v>
       </c>
       <c r="F2">
-        <v>1.008838867979537</v>
+        <v>1.048498029826579</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043911135564512</v>
+        <v>1.031302813553547</v>
       </c>
       <c r="J2">
-        <v>1.017504416638111</v>
+        <v>1.034247791365725</v>
       </c>
       <c r="K2">
-        <v>1.02583145442071</v>
+        <v>1.035327216388917</v>
       </c>
       <c r="L2">
-        <v>1.019140503283889</v>
+        <v>1.041302793615934</v>
       </c>
       <c r="M2">
-        <v>1.020176421595005</v>
+        <v>1.051257707807088</v>
       </c>
       <c r="N2">
-        <v>1.01894938961912</v>
+        <v>1.035716541859344</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00028875868569</v>
+        <v>1.030149717142103</v>
       </c>
       <c r="D3">
-        <v>1.018402778654368</v>
+        <v>1.033305970828889</v>
       </c>
       <c r="E3">
-        <v>1.012383676872009</v>
+        <v>1.039520946324919</v>
       </c>
       <c r="F3">
-        <v>1.014468553941095</v>
+        <v>1.049757326959964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045357814541427</v>
+        <v>1.03149687763318</v>
       </c>
       <c r="J3">
-        <v>1.020771554942265</v>
+        <v>1.034938741569504</v>
       </c>
       <c r="K3">
-        <v>1.02880548512129</v>
+        <v>1.035919815668164</v>
       </c>
       <c r="L3">
-        <v>1.022860520806138</v>
+        <v>1.042118272161966</v>
       </c>
       <c r="M3">
-        <v>1.024919594425962</v>
+        <v>1.052327905474503</v>
       </c>
       <c r="N3">
-        <v>1.022221167634417</v>
+        <v>1.036408473291665</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003517268662825</v>
+        <v>1.030829211760513</v>
       </c>
       <c r="D4">
-        <v>1.02082203417308</v>
+        <v>1.033812274495261</v>
       </c>
       <c r="E4">
-        <v>1.015292949321441</v>
+        <v>1.040172052641252</v>
       </c>
       <c r="F4">
-        <v>1.018034433400092</v>
+        <v>1.050572819888601</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046255143419993</v>
+        <v>1.031620303395728</v>
       </c>
       <c r="J4">
-        <v>1.022831428279692</v>
+        <v>1.035384979229168</v>
       </c>
       <c r="K4">
-        <v>1.030675486534808</v>
+        <v>1.036301784345589</v>
       </c>
       <c r="L4">
-        <v>1.025210240279668</v>
+        <v>1.042645512230005</v>
       </c>
       <c r="M4">
-        <v>1.027919964222001</v>
+        <v>1.05302048156009</v>
       </c>
       <c r="N4">
-        <v>1.024283966228253</v>
+        <v>1.03685534465999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00485657588996</v>
+        <v>1.03111479987688</v>
       </c>
       <c r="D5">
-        <v>1.021825250291436</v>
+        <v>1.034024925280724</v>
       </c>
       <c r="E5">
-        <v>1.01650128680283</v>
+        <v>1.040445820552991</v>
       </c>
       <c r="F5">
-        <v>1.019515903018402</v>
+        <v>1.050915807873124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046623329291686</v>
+        <v>1.03167167729201</v>
       </c>
       <c r="J5">
-        <v>1.023684887252534</v>
+        <v>1.035572373202085</v>
       </c>
       <c r="K5">
-        <v>1.031449030278856</v>
+        <v>1.036462008671425</v>
       </c>
       <c r="L5">
-        <v>1.02618484132273</v>
+        <v>1.042867061354044</v>
       </c>
       <c r="M5">
-        <v>1.029165516683534</v>
+        <v>1.053311661772127</v>
       </c>
       <c r="N5">
-        <v>1.025138637210731</v>
+        <v>1.037043004753843</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005080419364032</v>
+        <v>1.031162747202559</v>
       </c>
       <c r="D6">
-        <v>1.021992896971172</v>
+        <v>1.034060618581891</v>
       </c>
       <c r="E6">
-        <v>1.016703325829526</v>
+        <v>1.040491789903556</v>
       </c>
       <c r="F6">
-        <v>1.019763636645056</v>
+        <v>1.050973406160519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046684624983713</v>
+        <v>1.031680273025672</v>
       </c>
       <c r="J6">
-        <v>1.023827465938962</v>
+        <v>1.035603825490516</v>
       </c>
       <c r="K6">
-        <v>1.031578184200286</v>
+        <v>1.03648889019506</v>
       </c>
       <c r="L6">
-        <v>1.026347720279716</v>
+        <v>1.042904254413734</v>
       </c>
       <c r="M6">
-        <v>1.029373742284058</v>
+        <v>1.053360553469714</v>
       </c>
       <c r="N6">
-        <v>1.025281418375247</v>
+        <v>1.037074501708132</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003535234155287</v>
+        <v>1.030833028083013</v>
       </c>
       <c r="D7">
-        <v>1.020835492941351</v>
+        <v>1.033815116729188</v>
       </c>
       <c r="E7">
-        <v>1.015309152246695</v>
+        <v>1.040175710573142</v>
       </c>
       <c r="F7">
-        <v>1.018054297123279</v>
+        <v>1.050577402301871</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046260098407611</v>
+        <v>1.031620991877565</v>
       </c>
       <c r="J7">
-        <v>1.022842880813837</v>
+        <v>1.035387483999607</v>
       </c>
       <c r="K7">
-        <v>1.030685871657619</v>
+        <v>1.036303926667454</v>
       </c>
       <c r="L7">
-        <v>1.025223314235014</v>
+        <v>1.042648472983259</v>
       </c>
       <c r="M7">
-        <v>1.027936668600669</v>
+        <v>1.053024372240339</v>
       </c>
       <c r="N7">
-        <v>1.024295435026311</v>
+        <v>1.036857852987491</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9969222053058491</v>
+        <v>1.029454248751214</v>
       </c>
       <c r="D8">
-        <v>1.015878972368853</v>
+        <v>1.032787269329502</v>
       </c>
       <c r="E8">
-        <v>1.009355178961222</v>
+        <v>1.038854913732572</v>
       </c>
       <c r="F8">
-        <v>1.010757857660392</v>
+        <v>1.048923482380027</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044408218119648</v>
+        <v>1.03136884267751</v>
       </c>
       <c r="J8">
-        <v>1.018620066116989</v>
+        <v>1.034481477880416</v>
       </c>
       <c r="K8">
-        <v>1.026848064353733</v>
+        <v>1.035527794883016</v>
       </c>
       <c r="L8">
-        <v>1.020409902172996</v>
+        <v>1.041578477328381</v>
       </c>
       <c r="M8">
-        <v>1.021794052351885</v>
+        <v>1.051619368475482</v>
       </c>
       <c r="N8">
-        <v>1.02006662344823</v>
+        <v>1.03595056023569</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9846345146766647</v>
+        <v>1.027022344475387</v>
       </c>
       <c r="D9">
-        <v>1.006662734542032</v>
+        <v>1.030969735411825</v>
       </c>
       <c r="E9">
-        <v>0.9983437289218596</v>
+        <v>1.036528862216826</v>
       </c>
       <c r="F9">
-        <v>0.9972737982108719</v>
+        <v>1.046013960063345</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040836918793745</v>
+        <v>1.030908098557654</v>
       </c>
       <c r="J9">
-        <v>1.010741784772176</v>
+        <v>1.032878445270181</v>
       </c>
       <c r="K9">
-        <v>1.019648630580699</v>
+        <v>1.034148810351929</v>
       </c>
       <c r="L9">
-        <v>1.011463735247178</v>
+        <v>1.039689715742605</v>
       </c>
       <c r="M9">
-        <v>1.010411261534731</v>
+        <v>1.049144213364866</v>
       </c>
       <c r="N9">
-        <v>1.012177154040256</v>
+        <v>1.034345251135279</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.975961254531107</v>
+        <v>1.025399483986994</v>
       </c>
       <c r="D10">
-        <v>1.000158562509618</v>
+        <v>1.029753813660194</v>
       </c>
       <c r="E10">
-        <v>0.9906089787951659</v>
+        <v>1.034979065487839</v>
       </c>
       <c r="F10">
-        <v>0.9878058327216633</v>
+        <v>1.044077521638729</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038232083742152</v>
+        <v>1.030589912279041</v>
       </c>
       <c r="J10">
-        <v>1.005162187515706</v>
+        <v>1.0318053624192</v>
       </c>
       <c r="K10">
-        <v>1.014524954651425</v>
+        <v>1.033221878577286</v>
       </c>
       <c r="L10">
-        <v>1.005149886735682</v>
+        <v>1.03842831571102</v>
       </c>
       <c r="M10">
-        <v>1.002398803227814</v>
+        <v>1.047494506271031</v>
       </c>
       <c r="N10">
-        <v>1.006589633115693</v>
+        <v>1.033270644383565</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9720778704420272</v>
+        <v>1.024696381929572</v>
       </c>
       <c r="D11">
-        <v>0.9972479546327392</v>
+        <v>1.029226306926854</v>
       </c>
       <c r="E11">
-        <v>0.9871553952449437</v>
+        <v>1.03430819735018</v>
       </c>
       <c r="F11">
-        <v>0.9835784238830689</v>
+        <v>1.043239779791099</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037046860363521</v>
+        <v>1.030449523055504</v>
       </c>
       <c r="J11">
-        <v>1.002660212195736</v>
+        <v>1.031339662103492</v>
       </c>
       <c r="K11">
-        <v>1.012221957787758</v>
+        <v>1.032818704681343</v>
       </c>
       <c r="L11">
-        <v>1.002323676440764</v>
+        <v>1.037881584051371</v>
       </c>
       <c r="M11">
-        <v>0.998816817064153</v>
+        <v>1.046780250155465</v>
       </c>
       <c r="N11">
-        <v>1.004084104703788</v>
+        <v>1.032804282719992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9706149329452599</v>
+        <v>1.024435158680935</v>
       </c>
       <c r="D12">
-        <v>0.9961518367203649</v>
+        <v>1.029030216769983</v>
       </c>
       <c r="E12">
-        <v>0.9858558716983471</v>
+        <v>1.034059037292202</v>
       </c>
       <c r="F12">
-        <v>0.9819876588189232</v>
+        <v>1.042928716527456</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036597612810919</v>
+        <v>1.03039698395995</v>
       </c>
       <c r="J12">
-        <v>1.001717173182979</v>
+        <v>1.031166522540828</v>
       </c>
       <c r="K12">
-        <v>1.011353134690177</v>
+        <v>1.032668676647089</v>
       </c>
       <c r="L12">
-        <v>1.0012591620756</v>
+        <v>1.037678422450307</v>
       </c>
       <c r="M12">
-        <v>0.99746827885239</v>
+        <v>1.046514954475752</v>
       </c>
       <c r="N12">
-        <v>1.003139726467465</v>
+        <v>1.03263089727929</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9709296862700671</v>
+        <v>1.024491194675779</v>
       </c>
       <c r="D13">
-        <v>0.9963876500495534</v>
+        <v>1.02907228558833</v>
       </c>
       <c r="E13">
-        <v>0.9861353974652632</v>
+        <v>1.0341124816089</v>
       </c>
       <c r="F13">
-        <v>0.9823298343928486</v>
+        <v>1.042995435632488</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036694392001398</v>
+        <v>1.030408271522891</v>
       </c>
       <c r="J13">
-        <v>1.0019200911564</v>
+        <v>1.031203668706089</v>
       </c>
       <c r="K13">
-        <v>1.011540118003226</v>
+        <v>1.032700870445341</v>
       </c>
       <c r="L13">
-        <v>1.001488185581335</v>
+        <v>1.037722004981071</v>
       </c>
       <c r="M13">
-        <v>0.9977583798083099</v>
+        <v>1.046571860822879</v>
       </c>
       <c r="N13">
-        <v>1.003342932607683</v>
+        <v>1.032668096196366</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9719573690382178</v>
+        <v>1.024674790359881</v>
       </c>
       <c r="D14">
-        <v>0.9971576599778095</v>
+        <v>1.029210101125461</v>
       </c>
       <c r="E14">
-        <v>0.9870483233244304</v>
+        <v>1.034287601087658</v>
       </c>
       <c r="F14">
-        <v>0.9834473573900112</v>
+        <v>1.04321406493958</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037009911463157</v>
+        <v>1.030445188158852</v>
       </c>
       <c r="J14">
-        <v>1.002582544383921</v>
+        <v>1.031325353552213</v>
       </c>
       <c r="K14">
-        <v>1.012150417995878</v>
+        <v>1.032806308851197</v>
       </c>
       <c r="L14">
-        <v>1.00223598922526</v>
+        <v>1.037864792307331</v>
       </c>
       <c r="M14">
-        <v>0.9987057210929589</v>
+        <v>1.046758320515638</v>
       </c>
       <c r="N14">
-        <v>1.004006326594771</v>
+        <v>1.032789953848928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9725878050593818</v>
+        <v>1.024787901766047</v>
       </c>
       <c r="D15">
-        <v>0.9976300764519869</v>
+        <v>1.029294993868827</v>
       </c>
       <c r="E15">
-        <v>0.9876085608110108</v>
+        <v>1.034395501972414</v>
       </c>
       <c r="F15">
-        <v>0.9841331397388058</v>
+        <v>1.043348784393473</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037203108153478</v>
+        <v>1.030467881740845</v>
       </c>
       <c r="J15">
-        <v>1.002988864704047</v>
+        <v>1.031400306694351</v>
       </c>
       <c r="K15">
-        <v>1.012524647857069</v>
+        <v>1.032871236985571</v>
       </c>
       <c r="L15">
-        <v>1.002694755999799</v>
+        <v>1.037952757529742</v>
       </c>
       <c r="M15">
-        <v>0.999286985106297</v>
+        <v>1.04687320589721</v>
       </c>
       <c r="N15">
-        <v>1.004413223936357</v>
+        <v>1.032865013433126</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9762161829636115</v>
+        <v>1.025446138209183</v>
       </c>
       <c r="D16">
-        <v>1.000349675005439</v>
+        <v>1.029788801401664</v>
       </c>
       <c r="E16">
-        <v>0.9908358968679872</v>
+        <v>1.035023593060503</v>
       </c>
       <c r="F16">
-        <v>0.988083590227732</v>
+        <v>1.044133135485055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038309502879436</v>
+        <v>1.03059917442561</v>
       </c>
       <c r="J16">
-        <v>1.005326359166101</v>
+        <v>1.031836247308576</v>
       </c>
       <c r="K16">
-        <v>1.014675959641149</v>
+        <v>1.033248597851042</v>
       </c>
       <c r="L16">
-        <v>1.005335436262058</v>
+        <v>1.038464589138162</v>
       </c>
       <c r="M16">
-        <v>1.002634063259655</v>
+        <v>1.047541910665432</v>
       </c>
       <c r="N16">
-        <v>1.006754037908661</v>
+        <v>1.033301573133027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9784570860223032</v>
+        <v>1.025858926803113</v>
       </c>
       <c r="D17">
-        <v>1.002029809032505</v>
+        <v>1.03009828505093</v>
       </c>
       <c r="E17">
-        <v>0.9928316750758822</v>
+        <v>1.035417632347701</v>
       </c>
       <c r="F17">
-        <v>0.9905265071862476</v>
+        <v>1.044625337870054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038987904264974</v>
+        <v>1.030680831575416</v>
       </c>
       <c r="J17">
-        <v>1.006769061935606</v>
+        <v>1.032109420506196</v>
       </c>
       <c r="K17">
-        <v>1.016002341701591</v>
+        <v>1.033484822810185</v>
       </c>
       <c r="L17">
-        <v>1.006966569326366</v>
+        <v>1.038785503484753</v>
       </c>
       <c r="M17">
-        <v>1.00470270530702</v>
+        <v>1.047961391757775</v>
       </c>
       <c r="N17">
-        <v>1.008198789481581</v>
+        <v>1.03357513426792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9797519272854253</v>
+        <v>1.026099661567016</v>
       </c>
       <c r="D18">
-        <v>1.003000767646894</v>
+        <v>1.030278704682378</v>
       </c>
       <c r="E18">
-        <v>0.9939857808125092</v>
+        <v>1.035647488516051</v>
       </c>
       <c r="F18">
-        <v>0.9919391921310776</v>
+        <v>1.044912503515593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039378102696765</v>
+        <v>1.030728208731011</v>
       </c>
       <c r="J18">
-        <v>1.007602326846379</v>
+        <v>1.032268656674731</v>
       </c>
       <c r="K18">
-        <v>1.016767904187124</v>
+        <v>1.033622434543695</v>
       </c>
       <c r="L18">
-        <v>1.007909141379108</v>
+        <v>1.038972635597947</v>
       </c>
       <c r="M18">
-        <v>1.005898531545757</v>
+        <v>1.048206075560622</v>
       </c>
       <c r="N18">
-        <v>1.009033237724103</v>
+        <v>1.033734596570079</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9801913955591217</v>
+        <v>1.026181739507376</v>
       </c>
       <c r="D19">
-        <v>1.003330330928379</v>
+        <v>1.030340206662568</v>
       </c>
       <c r="E19">
-        <v>0.9943776349710298</v>
+        <v>1.035725866886777</v>
       </c>
       <c r="F19">
-        <v>0.9924188457470737</v>
+        <v>1.045010431881166</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039510228478969</v>
+        <v>1.030744320353468</v>
       </c>
       <c r="J19">
-        <v>1.007885073671825</v>
+        <v>1.03232293494551</v>
       </c>
       <c r="K19">
-        <v>1.017027588834062</v>
+        <v>1.033669327023607</v>
       </c>
       <c r="L19">
-        <v>1.008229059879259</v>
+        <v>1.039036434039928</v>
       </c>
       <c r="M19">
-        <v>1.006304481802412</v>
+        <v>1.048289507725942</v>
       </c>
       <c r="N19">
-        <v>1.009316386082473</v>
+        <v>1.033788951922228</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9782179331853833</v>
+        <v>1.025814642413244</v>
       </c>
       <c r="D20">
-        <v>1.00185048685688</v>
+        <v>1.030065090409742</v>
       </c>
       <c r="E20">
-        <v>0.9926185882316787</v>
+        <v>1.035375353624594</v>
       </c>
       <c r="F20">
-        <v>0.9902656792692116</v>
+        <v>1.044572521739683</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038915690003361</v>
+        <v>1.030672096608104</v>
       </c>
       <c r="J20">
-        <v>1.00661513120909</v>
+        <v>1.032080122069816</v>
       </c>
       <c r="K20">
-        <v>1.015860875540741</v>
+        <v>1.033459496134423</v>
       </c>
       <c r="L20">
-        <v>1.00679248463423</v>
+        <v>1.038751077772832</v>
       </c>
       <c r="M20">
-        <v>1.004481882173629</v>
+        <v>1.047916384628638</v>
       </c>
       <c r="N20">
-        <v>1.008044640155777</v>
+        <v>1.0335457942244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9716553181067363</v>
+        <v>1.024620727665476</v>
       </c>
       <c r="D21">
-        <v>0.9969313319990704</v>
+        <v>1.029169522041916</v>
       </c>
       <c r="E21">
-        <v>0.9867799593426148</v>
+        <v>1.034236031934579</v>
       </c>
       <c r="F21">
-        <v>0.9831188523557727</v>
+        <v>1.043149680992921</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036917250687389</v>
+        <v>1.030434327957114</v>
       </c>
       <c r="J21">
-        <v>1.002387853022457</v>
+        <v>1.031289524753922</v>
       </c>
       <c r="K21">
-        <v>1.011971075391976</v>
+        <v>1.032775267357212</v>
       </c>
       <c r="L21">
-        <v>1.00201619379659</v>
+        <v>1.037822747241351</v>
       </c>
       <c r="M21">
-        <v>0.9984272598836231</v>
+        <v>1.046703412491145</v>
       </c>
       <c r="N21">
-        <v>1.003811358749242</v>
+        <v>1.032754074169634</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9674099597407245</v>
+        <v>1.023869719450958</v>
       </c>
       <c r="D22">
-        <v>0.9937512827286623</v>
+        <v>1.028605571059504</v>
       </c>
       <c r="E22">
-        <v>0.9830117349815087</v>
+        <v>1.033519869907224</v>
       </c>
       <c r="F22">
-        <v>0.9785059065806631</v>
+        <v>1.042255728266409</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035608445480102</v>
+        <v>1.03028256381301</v>
       </c>
       <c r="J22">
-        <v>0.9996503307837115</v>
+        <v>1.030791532147268</v>
       </c>
       <c r="K22">
-        <v>1.009447552668567</v>
+        <v>1.032343495953494</v>
       </c>
       <c r="L22">
-        <v>0.9989274156535177</v>
+        <v>1.037238599444697</v>
       </c>
       <c r="M22">
-        <v>0.9945155391640899</v>
+        <v>1.045940831072057</v>
       </c>
       <c r="N22">
-        <v>1.00106994891492</v>
+        <v>1.032255374356359</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9696722572025497</v>
+        <v>1.024267876250916</v>
       </c>
       <c r="D23">
-        <v>0.9954456457721585</v>
+        <v>1.028904614680475</v>
       </c>
       <c r="E23">
-        <v>0.9850189261109027</v>
+        <v>1.033899504527447</v>
       </c>
       <c r="F23">
-        <v>0.9809631141291507</v>
+        <v>1.042729568883861</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036307365994314</v>
+        <v>1.03036323191839</v>
       </c>
       <c r="J23">
-        <v>1.001109372023306</v>
+        <v>1.031055614041033</v>
       </c>
       <c r="K23">
-        <v>1.010792951017488</v>
+        <v>1.032572534901284</v>
       </c>
       <c r="L23">
-        <v>1.000573273087583</v>
+        <v>1.037548311894756</v>
       </c>
       <c r="M23">
-        <v>0.9965995639838767</v>
+        <v>1.046345084295711</v>
       </c>
       <c r="N23">
-        <v>1.002531062160429</v>
+        <v>1.032519831276704</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9783260337881867</v>
+        <v>1.025834652739414</v>
       </c>
       <c r="D24">
-        <v>1.001931542689769</v>
+        <v>1.030080089938668</v>
       </c>
       <c r="E24">
-        <v>0.9927149038255492</v>
+        <v>1.035394457498533</v>
       </c>
       <c r="F24">
-        <v>0.9903835738655657</v>
+        <v>1.0445963868517</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038948337492422</v>
+        <v>1.030676044342654</v>
       </c>
       <c r="J24">
-        <v>1.006684711282903</v>
+        <v>1.032093361084384</v>
       </c>
       <c r="K24">
-        <v>1.015924822969588</v>
+        <v>1.033470940707405</v>
       </c>
       <c r="L24">
-        <v>1.006871173268184</v>
+        <v>1.038766633430023</v>
       </c>
       <c r="M24">
-        <v>1.004581695866076</v>
+        <v>1.047936721389237</v>
       </c>
       <c r="N24">
-        <v>1.008114319041275</v>
+        <v>1.033559052039887</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9878917607443631</v>
+        <v>1.027651328077738</v>
       </c>
       <c r="D25">
-        <v>1.009106015128454</v>
+        <v>1.031440359431726</v>
       </c>
       <c r="E25">
-        <v>1.001256401829661</v>
+        <v>1.03713004207031</v>
       </c>
       <c r="F25">
-        <v>1.000839639916708</v>
+        <v>1.046765566118119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041798343728701</v>
+        <v>1.03102915633779</v>
       </c>
       <c r="J25">
-        <v>1.012833601255045</v>
+        <v>1.033293642044724</v>
       </c>
       <c r="K25">
-        <v>1.021564597635964</v>
+        <v>1.034506653155251</v>
       </c>
       <c r="L25">
-        <v>1.01383524503771</v>
+        <v>1.040178397268065</v>
       </c>
       <c r="M25">
-        <v>1.0134249355253</v>
+        <v>1.049784027872263</v>
       </c>
       <c r="N25">
-        <v>1.014271941142464</v>
+        <v>1.034761037536865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029099138306892</v>
+        <v>0.9951785337545498</v>
       </c>
       <c r="D2">
-        <v>1.032522228300139</v>
+        <v>1.0145714581217</v>
       </c>
       <c r="E2">
-        <v>1.038514979376432</v>
+        <v>1.007788620260171</v>
       </c>
       <c r="F2">
-        <v>1.048498029826579</v>
+        <v>1.008838867979536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031302813553547</v>
+        <v>1.043911135564511</v>
       </c>
       <c r="J2">
-        <v>1.034247791365725</v>
+        <v>1.01750441663811</v>
       </c>
       <c r="K2">
-        <v>1.035327216388917</v>
+        <v>1.025831454420709</v>
       </c>
       <c r="L2">
-        <v>1.041302793615934</v>
+        <v>1.019140503283888</v>
       </c>
       <c r="M2">
-        <v>1.051257707807088</v>
+        <v>1.020176421595005</v>
       </c>
       <c r="N2">
-        <v>1.035716541859344</v>
+        <v>1.018949389619119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030149717142103</v>
+        <v>1.000288758685691</v>
       </c>
       <c r="D3">
-        <v>1.033305970828889</v>
+        <v>1.018402778654368</v>
       </c>
       <c r="E3">
-        <v>1.039520946324919</v>
+        <v>1.01238367687201</v>
       </c>
       <c r="F3">
-        <v>1.049757326959964</v>
+        <v>1.014468553941096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03149687763318</v>
+        <v>1.045357814541428</v>
       </c>
       <c r="J3">
-        <v>1.034938741569504</v>
+        <v>1.020771554942266</v>
       </c>
       <c r="K3">
-        <v>1.035919815668164</v>
+        <v>1.02880548512129</v>
       </c>
       <c r="L3">
-        <v>1.042118272161966</v>
+        <v>1.022860520806138</v>
       </c>
       <c r="M3">
-        <v>1.052327905474503</v>
+        <v>1.024919594425963</v>
       </c>
       <c r="N3">
-        <v>1.036408473291665</v>
+        <v>1.022221167634418</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030829211760513</v>
+        <v>1.003517268662824</v>
       </c>
       <c r="D4">
-        <v>1.033812274495261</v>
+        <v>1.02082203417308</v>
       </c>
       <c r="E4">
-        <v>1.040172052641252</v>
+        <v>1.01529294932144</v>
       </c>
       <c r="F4">
-        <v>1.050572819888601</v>
+        <v>1.018034433400091</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031620303395728</v>
+        <v>1.046255143419993</v>
       </c>
       <c r="J4">
-        <v>1.035384979229168</v>
+        <v>1.022831428279691</v>
       </c>
       <c r="K4">
-        <v>1.036301784345589</v>
+        <v>1.030675486534808</v>
       </c>
       <c r="L4">
-        <v>1.042645512230005</v>
+        <v>1.025210240279668</v>
       </c>
       <c r="M4">
-        <v>1.05302048156009</v>
+        <v>1.027919964222</v>
       </c>
       <c r="N4">
-        <v>1.03685534465999</v>
+        <v>1.024283966228253</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03111479987688</v>
+        <v>1.004856575889961</v>
       </c>
       <c r="D5">
-        <v>1.034024925280724</v>
+        <v>1.021825250291436</v>
       </c>
       <c r="E5">
-        <v>1.040445820552991</v>
+        <v>1.01650128680283</v>
       </c>
       <c r="F5">
-        <v>1.050915807873124</v>
+        <v>1.019515903018402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03167167729201</v>
+        <v>1.046623329291686</v>
       </c>
       <c r="J5">
-        <v>1.035572373202085</v>
+        <v>1.023684887252534</v>
       </c>
       <c r="K5">
-        <v>1.036462008671425</v>
+        <v>1.031449030278856</v>
       </c>
       <c r="L5">
-        <v>1.042867061354044</v>
+        <v>1.02618484132273</v>
       </c>
       <c r="M5">
-        <v>1.053311661772127</v>
+        <v>1.029165516683533</v>
       </c>
       <c r="N5">
-        <v>1.037043004753843</v>
+        <v>1.025138637210731</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031162747202559</v>
+        <v>1.005080419364033</v>
       </c>
       <c r="D6">
-        <v>1.034060618581891</v>
+        <v>1.021992896971172</v>
       </c>
       <c r="E6">
-        <v>1.040491789903556</v>
+        <v>1.016703325829526</v>
       </c>
       <c r="F6">
-        <v>1.050973406160519</v>
+        <v>1.019763636645056</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031680273025672</v>
+        <v>1.046684624983713</v>
       </c>
       <c r="J6">
-        <v>1.035603825490516</v>
+        <v>1.023827465938962</v>
       </c>
       <c r="K6">
-        <v>1.03648889019506</v>
+        <v>1.031578184200286</v>
       </c>
       <c r="L6">
-        <v>1.042904254413734</v>
+        <v>1.026347720279717</v>
       </c>
       <c r="M6">
-        <v>1.053360553469714</v>
+        <v>1.029373742284059</v>
       </c>
       <c r="N6">
-        <v>1.037074501708132</v>
+        <v>1.025281418375247</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030833028083013</v>
+        <v>1.003535234155287</v>
       </c>
       <c r="D7">
-        <v>1.033815116729188</v>
+        <v>1.02083549294135</v>
       </c>
       <c r="E7">
-        <v>1.040175710573142</v>
+        <v>1.015309152246695</v>
       </c>
       <c r="F7">
-        <v>1.050577402301871</v>
+        <v>1.018054297123279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031620991877565</v>
+        <v>1.046260098407611</v>
       </c>
       <c r="J7">
-        <v>1.035387483999607</v>
+        <v>1.022842880813837</v>
       </c>
       <c r="K7">
-        <v>1.036303926667454</v>
+        <v>1.030685871657619</v>
       </c>
       <c r="L7">
-        <v>1.042648472983259</v>
+        <v>1.025223314235014</v>
       </c>
       <c r="M7">
-        <v>1.053024372240339</v>
+        <v>1.027936668600669</v>
       </c>
       <c r="N7">
-        <v>1.036857852987491</v>
+        <v>1.02429543502631</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029454248751214</v>
+        <v>0.9969222053058495</v>
       </c>
       <c r="D8">
-        <v>1.032787269329502</v>
+        <v>1.015878972368853</v>
       </c>
       <c r="E8">
-        <v>1.038854913732572</v>
+        <v>1.009355178961222</v>
       </c>
       <c r="F8">
-        <v>1.048923482380027</v>
+        <v>1.010757857660393</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03136884267751</v>
+        <v>1.044408218119649</v>
       </c>
       <c r="J8">
-        <v>1.034481477880416</v>
+        <v>1.01862006611699</v>
       </c>
       <c r="K8">
-        <v>1.035527794883016</v>
+        <v>1.026848064353733</v>
       </c>
       <c r="L8">
-        <v>1.041578477328381</v>
+        <v>1.020409902172997</v>
       </c>
       <c r="M8">
-        <v>1.051619368475482</v>
+        <v>1.021794052351886</v>
       </c>
       <c r="N8">
-        <v>1.03595056023569</v>
+        <v>1.020066623448231</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027022344475387</v>
+        <v>0.9846345146766643</v>
       </c>
       <c r="D9">
-        <v>1.030969735411825</v>
+        <v>1.006662734542032</v>
       </c>
       <c r="E9">
-        <v>1.036528862216826</v>
+        <v>0.9983437289218595</v>
       </c>
       <c r="F9">
-        <v>1.046013960063345</v>
+        <v>0.9972737982108721</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030908098557654</v>
+        <v>1.040836918793745</v>
       </c>
       <c r="J9">
-        <v>1.032878445270181</v>
+        <v>1.010741784772176</v>
       </c>
       <c r="K9">
-        <v>1.034148810351929</v>
+        <v>1.019648630580699</v>
       </c>
       <c r="L9">
-        <v>1.039689715742605</v>
+        <v>1.011463735247178</v>
       </c>
       <c r="M9">
-        <v>1.049144213364866</v>
+        <v>1.010411261534731</v>
       </c>
       <c r="N9">
-        <v>1.034345251135279</v>
+        <v>1.012177154040256</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025399483986994</v>
+        <v>0.9759612545311068</v>
       </c>
       <c r="D10">
-        <v>1.029753813660194</v>
+        <v>1.000158562509618</v>
       </c>
       <c r="E10">
-        <v>1.034979065487839</v>
+        <v>0.9906089787951655</v>
       </c>
       <c r="F10">
-        <v>1.044077521638729</v>
+        <v>0.987805832721663</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030589912279041</v>
+        <v>1.038232083742152</v>
       </c>
       <c r="J10">
-        <v>1.0318053624192</v>
+        <v>1.005162187515706</v>
       </c>
       <c r="K10">
-        <v>1.033221878577286</v>
+        <v>1.014524954651425</v>
       </c>
       <c r="L10">
-        <v>1.03842831571102</v>
+        <v>1.005149886735681</v>
       </c>
       <c r="M10">
-        <v>1.047494506271031</v>
+        <v>1.002398803227814</v>
       </c>
       <c r="N10">
-        <v>1.033270644383565</v>
+        <v>1.006589633115693</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024696381929572</v>
+        <v>0.9720778704420269</v>
       </c>
       <c r="D11">
-        <v>1.029226306926854</v>
+        <v>0.9972479546327391</v>
       </c>
       <c r="E11">
-        <v>1.03430819735018</v>
+        <v>0.9871553952449436</v>
       </c>
       <c r="F11">
-        <v>1.043239779791099</v>
+        <v>0.9835784238830686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030449523055504</v>
+        <v>1.037046860363521</v>
       </c>
       <c r="J11">
-        <v>1.031339662103492</v>
+        <v>1.002660212195736</v>
       </c>
       <c r="K11">
-        <v>1.032818704681343</v>
+        <v>1.012221957787758</v>
       </c>
       <c r="L11">
-        <v>1.037881584051371</v>
+        <v>1.002323676440764</v>
       </c>
       <c r="M11">
-        <v>1.046780250155465</v>
+        <v>0.9988168170641529</v>
       </c>
       <c r="N11">
-        <v>1.032804282719992</v>
+        <v>1.004084104703788</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024435158680935</v>
+        <v>0.970614932945261</v>
       </c>
       <c r="D12">
-        <v>1.029030216769983</v>
+        <v>0.9961518367203657</v>
       </c>
       <c r="E12">
-        <v>1.034059037292202</v>
+        <v>0.9858558716983481</v>
       </c>
       <c r="F12">
-        <v>1.042928716527456</v>
+        <v>0.9819876588189244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03039698395995</v>
+        <v>1.036597612810919</v>
       </c>
       <c r="J12">
-        <v>1.031166522540828</v>
+        <v>1.001717173182979</v>
       </c>
       <c r="K12">
-        <v>1.032668676647089</v>
+        <v>1.011353134690177</v>
       </c>
       <c r="L12">
-        <v>1.037678422450307</v>
+        <v>1.001259162075601</v>
       </c>
       <c r="M12">
-        <v>1.046514954475752</v>
+        <v>0.9974682788523913</v>
       </c>
       <c r="N12">
-        <v>1.03263089727929</v>
+        <v>1.003139726467466</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024491194675779</v>
+        <v>0.9709296862700678</v>
       </c>
       <c r="D13">
-        <v>1.02907228558833</v>
+        <v>0.996387650049554</v>
       </c>
       <c r="E13">
-        <v>1.0341124816089</v>
+        <v>0.9861353974652634</v>
       </c>
       <c r="F13">
-        <v>1.042995435632488</v>
+        <v>0.9823298343928487</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030408271522891</v>
+        <v>1.036694392001399</v>
       </c>
       <c r="J13">
-        <v>1.031203668706089</v>
+        <v>1.0019200911564</v>
       </c>
       <c r="K13">
-        <v>1.032700870445341</v>
+        <v>1.011540118003226</v>
       </c>
       <c r="L13">
-        <v>1.037722004981071</v>
+        <v>1.001488185581335</v>
       </c>
       <c r="M13">
-        <v>1.046571860822879</v>
+        <v>0.9977583798083099</v>
       </c>
       <c r="N13">
-        <v>1.032668096196366</v>
+        <v>1.003342932607683</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024674790359881</v>
+        <v>0.9719573690382175</v>
       </c>
       <c r="D14">
-        <v>1.029210101125461</v>
+        <v>0.9971576599778094</v>
       </c>
       <c r="E14">
-        <v>1.034287601087658</v>
+        <v>0.9870483233244299</v>
       </c>
       <c r="F14">
-        <v>1.04321406493958</v>
+        <v>0.9834473573900108</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030445188158852</v>
+        <v>1.037009911463157</v>
       </c>
       <c r="J14">
-        <v>1.031325353552213</v>
+        <v>1.00258254438392</v>
       </c>
       <c r="K14">
-        <v>1.032806308851197</v>
+        <v>1.012150417995877</v>
       </c>
       <c r="L14">
-        <v>1.037864792307331</v>
+        <v>1.00223598922526</v>
       </c>
       <c r="M14">
-        <v>1.046758320515638</v>
+        <v>0.9987057210929584</v>
       </c>
       <c r="N14">
-        <v>1.032789953848928</v>
+        <v>1.004006326594771</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024787901766047</v>
+        <v>0.9725878050593819</v>
       </c>
       <c r="D15">
-        <v>1.029294993868827</v>
+        <v>0.9976300764519872</v>
       </c>
       <c r="E15">
-        <v>1.034395501972414</v>
+        <v>0.9876085608110111</v>
       </c>
       <c r="F15">
-        <v>1.043348784393473</v>
+        <v>0.9841331397388065</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030467881740845</v>
+        <v>1.037203108153478</v>
       </c>
       <c r="J15">
-        <v>1.031400306694351</v>
+        <v>1.002988864704047</v>
       </c>
       <c r="K15">
-        <v>1.032871236985571</v>
+        <v>1.012524647857069</v>
       </c>
       <c r="L15">
-        <v>1.037952757529742</v>
+        <v>1.0026947559998</v>
       </c>
       <c r="M15">
-        <v>1.04687320589721</v>
+        <v>0.9992869851062975</v>
       </c>
       <c r="N15">
-        <v>1.032865013433126</v>
+        <v>1.004413223936357</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025446138209183</v>
+        <v>0.9762161829636118</v>
       </c>
       <c r="D16">
-        <v>1.029788801401664</v>
+        <v>1.00034967500544</v>
       </c>
       <c r="E16">
-        <v>1.035023593060503</v>
+        <v>0.9908358968679878</v>
       </c>
       <c r="F16">
-        <v>1.044133135485055</v>
+        <v>0.9880835902277324</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03059917442561</v>
+        <v>1.038309502879436</v>
       </c>
       <c r="J16">
-        <v>1.031836247308576</v>
+        <v>1.005326359166101</v>
       </c>
       <c r="K16">
-        <v>1.033248597851042</v>
+        <v>1.014675959641149</v>
       </c>
       <c r="L16">
-        <v>1.038464589138162</v>
+        <v>1.005335436262059</v>
       </c>
       <c r="M16">
-        <v>1.047541910665432</v>
+        <v>1.002634063259656</v>
       </c>
       <c r="N16">
-        <v>1.033301573133027</v>
+        <v>1.006754037908662</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025858926803113</v>
+        <v>0.9784570860223039</v>
       </c>
       <c r="D17">
-        <v>1.03009828505093</v>
+        <v>1.002029809032506</v>
       </c>
       <c r="E17">
-        <v>1.035417632347701</v>
+        <v>0.9928316750758825</v>
       </c>
       <c r="F17">
-        <v>1.044625337870054</v>
+        <v>0.9905265071862481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030680831575416</v>
+        <v>1.038987904264974</v>
       </c>
       <c r="J17">
-        <v>1.032109420506196</v>
+        <v>1.006769061935607</v>
       </c>
       <c r="K17">
-        <v>1.033484822810185</v>
+        <v>1.016002341701591</v>
       </c>
       <c r="L17">
-        <v>1.038785503484753</v>
+        <v>1.006966569326367</v>
       </c>
       <c r="M17">
-        <v>1.047961391757775</v>
+        <v>1.004702705307021</v>
       </c>
       <c r="N17">
-        <v>1.03357513426792</v>
+        <v>1.008198789481581</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026099661567016</v>
+        <v>0.9797519272854257</v>
       </c>
       <c r="D18">
-        <v>1.030278704682378</v>
+        <v>1.003000767646894</v>
       </c>
       <c r="E18">
-        <v>1.035647488516051</v>
+        <v>0.9939857808125097</v>
       </c>
       <c r="F18">
-        <v>1.044912503515593</v>
+        <v>0.9919391921310778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030728208731011</v>
+        <v>1.039378102696766</v>
       </c>
       <c r="J18">
-        <v>1.032268656674731</v>
+        <v>1.00760232684638</v>
       </c>
       <c r="K18">
-        <v>1.033622434543695</v>
+        <v>1.016767904187124</v>
       </c>
       <c r="L18">
-        <v>1.038972635597947</v>
+        <v>1.007909141379109</v>
       </c>
       <c r="M18">
-        <v>1.048206075560622</v>
+        <v>1.005898531545758</v>
       </c>
       <c r="N18">
-        <v>1.033734596570079</v>
+        <v>1.009033237724103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026181739507376</v>
+        <v>0.9801913955591225</v>
       </c>
       <c r="D19">
-        <v>1.030340206662568</v>
+        <v>1.003330330928379</v>
       </c>
       <c r="E19">
-        <v>1.035725866886777</v>
+        <v>0.9943776349710306</v>
       </c>
       <c r="F19">
-        <v>1.045010431881166</v>
+        <v>0.9924188457470742</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030744320353468</v>
+        <v>1.039510228478969</v>
       </c>
       <c r="J19">
-        <v>1.03232293494551</v>
+        <v>1.007885073671826</v>
       </c>
       <c r="K19">
-        <v>1.033669327023607</v>
+        <v>1.017027588834063</v>
       </c>
       <c r="L19">
-        <v>1.039036434039928</v>
+        <v>1.00822905987926</v>
       </c>
       <c r="M19">
-        <v>1.048289507725942</v>
+        <v>1.006304481802412</v>
       </c>
       <c r="N19">
-        <v>1.033788951922228</v>
+        <v>1.009316386082474</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025814642413244</v>
+        <v>0.9782179331853824</v>
       </c>
       <c r="D20">
-        <v>1.030065090409742</v>
+        <v>1.00185048685688</v>
       </c>
       <c r="E20">
-        <v>1.035375353624594</v>
+        <v>0.9926185882316783</v>
       </c>
       <c r="F20">
-        <v>1.044572521739683</v>
+        <v>0.9902656792692115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030672096608104</v>
+        <v>1.03891569000336</v>
       </c>
       <c r="J20">
-        <v>1.032080122069816</v>
+        <v>1.006615131209089</v>
       </c>
       <c r="K20">
-        <v>1.033459496134423</v>
+        <v>1.01586087554074</v>
       </c>
       <c r="L20">
-        <v>1.038751077772832</v>
+        <v>1.006792484634229</v>
       </c>
       <c r="M20">
-        <v>1.047916384628638</v>
+        <v>1.004481882173629</v>
       </c>
       <c r="N20">
-        <v>1.0335457942244</v>
+        <v>1.008044640155775</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024620727665476</v>
+        <v>0.9716553181067366</v>
       </c>
       <c r="D21">
-        <v>1.029169522041916</v>
+        <v>0.9969313319990704</v>
       </c>
       <c r="E21">
-        <v>1.034236031934579</v>
+        <v>0.9867799593426145</v>
       </c>
       <c r="F21">
-        <v>1.043149680992921</v>
+        <v>0.9831188523557723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030434327957114</v>
+        <v>1.036917250687389</v>
       </c>
       <c r="J21">
-        <v>1.031289524753922</v>
+        <v>1.002387853022457</v>
       </c>
       <c r="K21">
-        <v>1.032775267357212</v>
+        <v>1.011971075391976</v>
       </c>
       <c r="L21">
-        <v>1.037822747241351</v>
+        <v>1.00201619379659</v>
       </c>
       <c r="M21">
-        <v>1.046703412491145</v>
+        <v>0.9984272598836228</v>
       </c>
       <c r="N21">
-        <v>1.032754074169634</v>
+        <v>1.003811358749242</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023869719450958</v>
+        <v>0.9674099597407245</v>
       </c>
       <c r="D22">
-        <v>1.028605571059504</v>
+        <v>0.9937512827286625</v>
       </c>
       <c r="E22">
-        <v>1.033519869907224</v>
+        <v>0.9830117349815086</v>
       </c>
       <c r="F22">
-        <v>1.042255728266409</v>
+        <v>0.9785059065806629</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03028256381301</v>
+        <v>1.035608445480102</v>
       </c>
       <c r="J22">
-        <v>1.030791532147268</v>
+        <v>0.9996503307837116</v>
       </c>
       <c r="K22">
-        <v>1.032343495953494</v>
+        <v>1.009447552668567</v>
       </c>
       <c r="L22">
-        <v>1.037238599444697</v>
+        <v>0.9989274156535177</v>
       </c>
       <c r="M22">
-        <v>1.045940831072057</v>
+        <v>0.9945155391640899</v>
       </c>
       <c r="N22">
-        <v>1.032255374356359</v>
+        <v>1.00106994891492</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024267876250916</v>
+        <v>0.9696722572025495</v>
       </c>
       <c r="D23">
-        <v>1.028904614680475</v>
+        <v>0.9954456457721587</v>
       </c>
       <c r="E23">
-        <v>1.033899504527447</v>
+        <v>0.9850189261109026</v>
       </c>
       <c r="F23">
-        <v>1.042729568883861</v>
+        <v>0.9809631141291507</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03036323191839</v>
+        <v>1.036307365994314</v>
       </c>
       <c r="J23">
-        <v>1.031055614041033</v>
+        <v>1.001109372023306</v>
       </c>
       <c r="K23">
-        <v>1.032572534901284</v>
+        <v>1.010792951017488</v>
       </c>
       <c r="L23">
-        <v>1.037548311894756</v>
+        <v>1.000573273087583</v>
       </c>
       <c r="M23">
-        <v>1.046345084295711</v>
+        <v>0.9965995639838768</v>
       </c>
       <c r="N23">
-        <v>1.032519831276704</v>
+        <v>1.002531062160429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025834652739414</v>
+        <v>0.9783260337881863</v>
       </c>
       <c r="D24">
-        <v>1.030080089938668</v>
+        <v>1.001931542689769</v>
       </c>
       <c r="E24">
-        <v>1.035394457498533</v>
+        <v>0.9927149038255488</v>
       </c>
       <c r="F24">
-        <v>1.0445963868517</v>
+        <v>0.9903835738655655</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030676044342654</v>
+        <v>1.038948337492422</v>
       </c>
       <c r="J24">
-        <v>1.032093361084384</v>
+        <v>1.006684711282902</v>
       </c>
       <c r="K24">
-        <v>1.033470940707405</v>
+        <v>1.015924822969587</v>
       </c>
       <c r="L24">
-        <v>1.038766633430023</v>
+        <v>1.006871173268184</v>
       </c>
       <c r="M24">
-        <v>1.047936721389237</v>
+        <v>1.004581695866076</v>
       </c>
       <c r="N24">
-        <v>1.033559052039887</v>
+        <v>1.008114319041274</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027651328077738</v>
+        <v>0.9878917607443621</v>
       </c>
       <c r="D25">
-        <v>1.031440359431726</v>
+        <v>1.009106015128453</v>
       </c>
       <c r="E25">
-        <v>1.03713004207031</v>
+        <v>1.00125640182966</v>
       </c>
       <c r="F25">
-        <v>1.046765566118119</v>
+        <v>1.000839639916707</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03102915633779</v>
+        <v>1.0417983437287</v>
       </c>
       <c r="J25">
-        <v>1.033293642044724</v>
+        <v>1.012833601255043</v>
       </c>
       <c r="K25">
-        <v>1.034506653155251</v>
+        <v>1.021564597635964</v>
       </c>
       <c r="L25">
-        <v>1.040178397268065</v>
+        <v>1.013835245037709</v>
       </c>
       <c r="M25">
-        <v>1.049784027872263</v>
+        <v>1.013424935525299</v>
       </c>
       <c r="N25">
-        <v>1.034761037536865</v>
+        <v>1.014271941142463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9951785337545498</v>
+        <v>1.001387994090044</v>
       </c>
       <c r="D2">
-        <v>1.0145714581217</v>
+        <v>1.020335636941561</v>
       </c>
       <c r="E2">
-        <v>1.007788620260171</v>
+        <v>1.016519401342418</v>
       </c>
       <c r="F2">
-        <v>1.008838867979536</v>
+        <v>1.026090801253684</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043911135564511</v>
+        <v>1.04302654707571</v>
       </c>
       <c r="J2">
-        <v>1.01750441663811</v>
+        <v>1.023527269599922</v>
       </c>
       <c r="K2">
-        <v>1.025831454420709</v>
+        <v>1.031518751223245</v>
       </c>
       <c r="L2">
-        <v>1.019140503283888</v>
+        <v>1.027753293668384</v>
       </c>
       <c r="M2">
-        <v>1.020176421595005</v>
+        <v>1.037198233430897</v>
       </c>
       <c r="N2">
-        <v>1.018949389619119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011299140033729</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03801229270757</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033356688034635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000288758685691</v>
+        <v>1.005896687882796</v>
       </c>
       <c r="D3">
-        <v>1.018402778654368</v>
+        <v>1.023250131048171</v>
       </c>
       <c r="E3">
-        <v>1.01238367687201</v>
+        <v>1.020116464041323</v>
       </c>
       <c r="F3">
-        <v>1.014468553941096</v>
+        <v>1.029501546827674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045357814541428</v>
+        <v>1.043804470526546</v>
       </c>
       <c r="J3">
-        <v>1.020771554942266</v>
+        <v>1.02622788389005</v>
       </c>
       <c r="K3">
-        <v>1.02880548512129</v>
+        <v>1.033593919942797</v>
       </c>
       <c r="L3">
-        <v>1.022860520806138</v>
+        <v>1.030498261853739</v>
       </c>
       <c r="M3">
-        <v>1.024919594425963</v>
+        <v>1.039770367945741</v>
       </c>
       <c r="N3">
-        <v>1.022221167634418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012252311290424</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040047968883562</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034821352189877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003517268662824</v>
+        <v>1.00875505048321</v>
       </c>
       <c r="D4">
-        <v>1.02082203417308</v>
+        <v>1.025100577733822</v>
       </c>
       <c r="E4">
-        <v>1.01529294932144</v>
+        <v>1.022403135635575</v>
       </c>
       <c r="F4">
-        <v>1.018034433400091</v>
+        <v>1.031674094717935</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046255143419993</v>
+        <v>1.044286818310134</v>
       </c>
       <c r="J4">
-        <v>1.022831428279691</v>
+        <v>1.027937421970771</v>
       </c>
       <c r="K4">
-        <v>1.030675486534808</v>
+        <v>1.034905213049079</v>
       </c>
       <c r="L4">
-        <v>1.025210240279668</v>
+        <v>1.032238489324414</v>
       </c>
       <c r="M4">
-        <v>1.027919964222</v>
+        <v>1.04140469920009</v>
       </c>
       <c r="N4">
-        <v>1.024283966228253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012855135160534</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041341432143838</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035749463120157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004856575889961</v>
+        <v>1.009947282456832</v>
       </c>
       <c r="D5">
-        <v>1.021825250291436</v>
+        <v>1.025875322040791</v>
       </c>
       <c r="E5">
-        <v>1.01650128680283</v>
+        <v>1.023358538283031</v>
       </c>
       <c r="F5">
-        <v>1.019515903018402</v>
+        <v>1.032581986148761</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046623329291686</v>
+        <v>1.044487064634621</v>
       </c>
       <c r="J5">
-        <v>1.023684887252534</v>
+        <v>1.028651419068106</v>
       </c>
       <c r="K5">
-        <v>1.031449030278856</v>
+        <v>1.035454140896821</v>
       </c>
       <c r="L5">
-        <v>1.02618484132273</v>
+        <v>1.032965245262989</v>
       </c>
       <c r="M5">
-        <v>1.029165516683533</v>
+        <v>1.042087304122774</v>
       </c>
       <c r="N5">
-        <v>1.025138637210731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013107367323346</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041881667341427</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036144814348723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005080419364033</v>
+        <v>1.010151823653087</v>
       </c>
       <c r="D6">
-        <v>1.021992896971172</v>
+        <v>1.026011084332193</v>
       </c>
       <c r="E6">
-        <v>1.016703325829526</v>
+        <v>1.023522737231631</v>
       </c>
       <c r="F6">
-        <v>1.019763636645056</v>
+        <v>1.032737035620893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046684624983713</v>
+        <v>1.044523340615618</v>
       </c>
       <c r="J6">
-        <v>1.023827465938962</v>
+        <v>1.02877581623624</v>
       </c>
       <c r="K6">
-        <v>1.031578184200286</v>
+        <v>1.035551971689322</v>
       </c>
       <c r="L6">
-        <v>1.026347720279717</v>
+        <v>1.03309106961993</v>
       </c>
       <c r="M6">
-        <v>1.029373742284059</v>
+        <v>1.042204551534194</v>
       </c>
       <c r="N6">
-        <v>1.025281418375247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013152034531331</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041974460622989</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036222779150407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003535234155287</v>
+        <v>1.008784916801287</v>
       </c>
       <c r="D7">
-        <v>1.02083549294135</v>
+        <v>1.025127523504624</v>
       </c>
       <c r="E7">
-        <v>1.015309152246695</v>
+        <v>1.022427628448444</v>
       </c>
       <c r="F7">
-        <v>1.018054297123279</v>
+        <v>1.031694550240061</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046260098407611</v>
+        <v>1.044297441741609</v>
       </c>
       <c r="J7">
-        <v>1.022842880813837</v>
+        <v>1.027960532636699</v>
       </c>
       <c r="K7">
-        <v>1.030685871657619</v>
+        <v>1.034928950033996</v>
       </c>
       <c r="L7">
-        <v>1.025223314235014</v>
+        <v>1.032259789112014</v>
       </c>
       <c r="M7">
-        <v>1.027936668600669</v>
+        <v>1.041422047900047</v>
       </c>
       <c r="N7">
-        <v>1.02429543502631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012865296332914</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041355162460524</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035786467557849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9969222053058495</v>
+        <v>1.002941792002648</v>
       </c>
       <c r="D8">
-        <v>1.015878972368853</v>
+        <v>1.021348817040681</v>
       </c>
       <c r="E8">
-        <v>1.009355178961222</v>
+        <v>1.017758520647887</v>
       </c>
       <c r="F8">
-        <v>1.010757857660393</v>
+        <v>1.027261304584379</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044408218119649</v>
+        <v>1.043303837986108</v>
       </c>
       <c r="J8">
-        <v>1.01862006611699</v>
+        <v>1.024465001929175</v>
       </c>
       <c r="K8">
-        <v>1.026848064353733</v>
+        <v>1.032247166277273</v>
       </c>
       <c r="L8">
-        <v>1.020409902172997</v>
+        <v>1.028703196682557</v>
       </c>
       <c r="M8">
-        <v>1.021794052351886</v>
+        <v>1.038084244118301</v>
       </c>
       <c r="N8">
-        <v>1.020066623448231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011632866299892</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038713512848588</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033894804651856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9846345146766643</v>
+        <v>0.9921472192686558</v>
       </c>
       <c r="D9">
-        <v>1.006662734542032</v>
+        <v>1.014380815191586</v>
       </c>
       <c r="E9">
-        <v>0.9983437289218595</v>
+        <v>1.009183883930606</v>
       </c>
       <c r="F9">
-        <v>0.9972737982108721</v>
+        <v>1.01915906665602</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040836918793745</v>
+        <v>1.041375100955294</v>
       </c>
       <c r="J9">
-        <v>1.010741784772176</v>
+        <v>1.017980359894857</v>
       </c>
       <c r="K9">
-        <v>1.019648630580699</v>
+        <v>1.027244804247541</v>
       </c>
       <c r="L9">
-        <v>1.011463735247178</v>
+        <v>1.022129695812004</v>
       </c>
       <c r="M9">
-        <v>1.010411261534731</v>
+        <v>1.031948765179892</v>
       </c>
       <c r="N9">
-        <v>1.012177154040256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00933902490882</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033857664005249</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03035454232279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9759612545311068</v>
+        <v>0.9847177930118015</v>
       </c>
       <c r="D10">
-        <v>1.000158562509618</v>
+        <v>1.009619027224621</v>
       </c>
       <c r="E10">
-        <v>0.9906089787951655</v>
+        <v>1.003383711877987</v>
       </c>
       <c r="F10">
-        <v>0.987805832721663</v>
+        <v>1.013768204887778</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038232083742152</v>
+        <v>1.040013608727638</v>
       </c>
       <c r="J10">
-        <v>1.005162187515706</v>
+        <v>1.013551140331697</v>
       </c>
       <c r="K10">
-        <v>1.014524954651425</v>
+        <v>1.023816752226774</v>
       </c>
       <c r="L10">
-        <v>1.005149886735681</v>
+        <v>1.017692139942599</v>
       </c>
       <c r="M10">
-        <v>1.002398803227814</v>
+        <v>1.027893241584558</v>
       </c>
       <c r="N10">
-        <v>1.006589633115693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007780027563304</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.030699880213576</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027947614339615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9720778704420269</v>
+        <v>0.9823896831113537</v>
       </c>
       <c r="D11">
-        <v>0.9972479546327391</v>
+        <v>1.008231277933473</v>
       </c>
       <c r="E11">
-        <v>0.9871553952449436</v>
+        <v>1.00208637642159</v>
       </c>
       <c r="F11">
-        <v>0.9835784238830686</v>
+        <v>1.013101701769313</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037046860363521</v>
+        <v>1.039725698278182</v>
       </c>
       <c r="J11">
-        <v>1.002660212195736</v>
+        <v>1.012513876953474</v>
       </c>
       <c r="K11">
-        <v>1.012221957787758</v>
+        <v>1.02299961613965</v>
       </c>
       <c r="L11">
-        <v>1.002323676440764</v>
+        <v>1.016969053706013</v>
       </c>
       <c r="M11">
-        <v>0.9988168170641529</v>
+        <v>1.027780697698668</v>
       </c>
       <c r="N11">
-        <v>1.004084104703788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007497737367118</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031050793897917</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027403031462329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.970614932945261</v>
+        <v>0.981886399039857</v>
       </c>
       <c r="D12">
-        <v>0.9961518367203657</v>
+        <v>1.0079838367614</v>
       </c>
       <c r="E12">
-        <v>0.9858558716983481</v>
+        <v>1.002074010177443</v>
       </c>
       <c r="F12">
-        <v>0.9819876588189244</v>
+        <v>1.013478374564886</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036597612810919</v>
+        <v>1.039740268841072</v>
       </c>
       <c r="J12">
-        <v>1.001717173182979</v>
+        <v>1.012477646955867</v>
       </c>
       <c r="K12">
-        <v>1.011353134690177</v>
+        <v>1.022959661023126</v>
       </c>
       <c r="L12">
-        <v>1.001259162075601</v>
+        <v>1.017161583004409</v>
       </c>
       <c r="M12">
-        <v>0.9974682788523913</v>
+        <v>1.028351827053317</v>
       </c>
       <c r="N12">
-        <v>1.003139726467466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00755195593156</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031831309681487</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027374781359338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9709296862700678</v>
+        <v>0.9827686373459131</v>
       </c>
       <c r="D13">
-        <v>0.996387650049554</v>
+        <v>1.008614019813451</v>
       </c>
       <c r="E13">
-        <v>0.9861353974652634</v>
+        <v>1.003062842608881</v>
       </c>
       <c r="F13">
-        <v>0.9823298343928487</v>
+        <v>1.014706530962725</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036694392001399</v>
+        <v>1.040001305527539</v>
       </c>
       <c r="J13">
-        <v>1.0019200911564</v>
+        <v>1.013225234163589</v>
       </c>
       <c r="K13">
-        <v>1.011540118003226</v>
+        <v>1.023534542763392</v>
       </c>
       <c r="L13">
-        <v>1.001488185581335</v>
+        <v>1.018087760144886</v>
       </c>
       <c r="M13">
-        <v>0.9977583798083099</v>
+        <v>1.029514191783041</v>
       </c>
       <c r="N13">
-        <v>1.003342932607683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007876799050585</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033028663563217</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027778731832238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9719573690382175</v>
+        <v>0.9840083693725448</v>
       </c>
       <c r="D14">
-        <v>0.9971576599778094</v>
+        <v>1.009450615971025</v>
       </c>
       <c r="E14">
-        <v>0.9870483233244299</v>
+        <v>1.004200021511972</v>
       </c>
       <c r="F14">
-        <v>0.9834473573900108</v>
+        <v>1.015942965085482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037009911463157</v>
+        <v>1.040294636311555</v>
       </c>
       <c r="J14">
-        <v>1.00258254438392</v>
+        <v>1.01409851984275</v>
       </c>
       <c r="K14">
-        <v>1.012150417995877</v>
+        <v>1.024213219493074</v>
       </c>
       <c r="L14">
-        <v>1.00223598922526</v>
+        <v>1.01906002937813</v>
       </c>
       <c r="M14">
-        <v>0.9987057210929584</v>
+        <v>1.030586938919263</v>
       </c>
       <c r="N14">
-        <v>1.004006326594771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008225178398143</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034050772121251</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028260025894116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9725878050593819</v>
+        <v>0.984620275325115</v>
       </c>
       <c r="D15">
-        <v>0.9976300764519872</v>
+        <v>1.009853475209403</v>
       </c>
       <c r="E15">
-        <v>0.9876085608110111</v>
+        <v>1.004710096995045</v>
       </c>
       <c r="F15">
-        <v>0.9841331397388065</v>
+        <v>1.016454640160736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037203108153478</v>
+        <v>1.040423565201865</v>
       </c>
       <c r="J15">
-        <v>1.002988864704047</v>
+        <v>1.014492110352553</v>
       </c>
       <c r="K15">
-        <v>1.012524647857069</v>
+        <v>1.024521022599285</v>
       </c>
       <c r="L15">
-        <v>1.0026947559998</v>
+        <v>1.019472294113947</v>
       </c>
       <c r="M15">
-        <v>0.9992869851062975</v>
+        <v>1.031002535053348</v>
       </c>
       <c r="N15">
-        <v>1.004413223936357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008373115324408</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034416943331845</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028483582404085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9762161829636118</v>
+        <v>0.9875863268774998</v>
       </c>
       <c r="D16">
-        <v>1.00034967500544</v>
+        <v>1.011740220441676</v>
       </c>
       <c r="E16">
-        <v>0.9908358968679878</v>
+        <v>1.006969885681016</v>
       </c>
       <c r="F16">
-        <v>0.9880835902277324</v>
+        <v>1.018533358184897</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038309502879436</v>
+        <v>1.040960465965928</v>
       </c>
       <c r="J16">
-        <v>1.005326359166101</v>
+        <v>1.016222876759571</v>
       </c>
       <c r="K16">
-        <v>1.014675959641149</v>
+        <v>1.025864623463193</v>
       </c>
       <c r="L16">
-        <v>1.005335436262059</v>
+        <v>1.021178115360268</v>
       </c>
       <c r="M16">
-        <v>1.002634063259656</v>
+        <v>1.032540140622766</v>
       </c>
       <c r="N16">
-        <v>1.006754037908662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008970212063426</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035593394552859</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029436764234865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784570860223039</v>
+        <v>0.9892167818793199</v>
       </c>
       <c r="D17">
-        <v>1.002029809032506</v>
+        <v>1.01275351273176</v>
       </c>
       <c r="E17">
-        <v>0.9928316750758825</v>
+        <v>1.008112562331027</v>
       </c>
       <c r="F17">
-        <v>0.9905265071862481</v>
+        <v>1.019477724473366</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038987904264974</v>
+        <v>1.041217375635076</v>
       </c>
       <c r="J17">
-        <v>1.006769061935607</v>
+        <v>1.017095744390917</v>
       </c>
       <c r="K17">
-        <v>1.016002341701591</v>
+        <v>1.026541561770481</v>
       </c>
       <c r="L17">
-        <v>1.006966569326367</v>
+        <v>1.021979828568529</v>
       </c>
       <c r="M17">
-        <v>1.004702705307021</v>
+        <v>1.033152645263231</v>
       </c>
       <c r="N17">
-        <v>1.008198789481581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009246577534823</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035947992723144</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029918001302243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9797519272854257</v>
+        <v>0.9898249810612149</v>
       </c>
       <c r="D18">
-        <v>1.003000767646894</v>
+        <v>1.013084983980488</v>
       </c>
       <c r="E18">
-        <v>0.9939857808125097</v>
+        <v>1.008347588062496</v>
       </c>
       <c r="F18">
-        <v>0.9919391921310778</v>
+        <v>1.019448714948822</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039378102696766</v>
+        <v>1.041247410347752</v>
       </c>
       <c r="J18">
-        <v>1.00760232684638</v>
+        <v>1.017277977154039</v>
       </c>
       <c r="K18">
-        <v>1.016767904187124</v>
+        <v>1.026681612363642</v>
       </c>
       <c r="L18">
-        <v>1.007909141379109</v>
+        <v>1.022023770317669</v>
       </c>
       <c r="M18">
-        <v>1.005898531545758</v>
+        <v>1.032939975428222</v>
       </c>
       <c r="N18">
-        <v>1.009033237724103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009258525284967</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035541093855633</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030005287729032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9801913955591225</v>
+        <v>0.9895313098935183</v>
       </c>
       <c r="D19">
-        <v>1.003330330928379</v>
+        <v>1.012830196502112</v>
       </c>
       <c r="E19">
-        <v>0.9943776349710306</v>
+        <v>1.007769919780107</v>
       </c>
       <c r="F19">
-        <v>0.9924188457470742</v>
+        <v>1.018531177131053</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039510228478969</v>
+        <v>1.041089842443313</v>
       </c>
       <c r="J19">
-        <v>1.007885073671826</v>
+        <v>1.016858751938026</v>
       </c>
       <c r="K19">
-        <v>1.017027588834063</v>
+        <v>1.026367703168637</v>
       </c>
       <c r="L19">
-        <v>1.00822905987926</v>
+        <v>1.021392037418597</v>
       </c>
       <c r="M19">
-        <v>1.006304481802412</v>
+        <v>1.031974654673397</v>
       </c>
       <c r="N19">
-        <v>1.009316386082474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009048033133487</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034450448956907</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029789791518182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9782179331853824</v>
+        <v>0.9866873687960278</v>
       </c>
       <c r="D20">
-        <v>1.00185048685688</v>
+        <v>1.010899261203947</v>
       </c>
       <c r="E20">
-        <v>0.9926185882316783</v>
+        <v>1.004923805751472</v>
       </c>
       <c r="F20">
-        <v>0.9902656792692115</v>
+        <v>1.015194522993604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03891569000336</v>
+        <v>1.040393214724057</v>
       </c>
       <c r="J20">
-        <v>1.006615131209089</v>
+        <v>1.01474129430967</v>
       </c>
       <c r="K20">
-        <v>1.01586087554074</v>
+        <v>1.024753129934608</v>
       </c>
       <c r="L20">
-        <v>1.006792484634229</v>
+        <v>1.018880625007049</v>
       </c>
       <c r="M20">
-        <v>1.004481882173629</v>
+        <v>1.028975355170586</v>
       </c>
       <c r="N20">
-        <v>1.008044640155775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008205671532766</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031545618649206</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028652172143424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9716553181067366</v>
+        <v>0.9809044466338872</v>
       </c>
       <c r="D21">
-        <v>0.9969313319990704</v>
+        <v>1.007180464921333</v>
       </c>
       <c r="E21">
-        <v>0.9867799593426145</v>
+        <v>1.000325034221065</v>
       </c>
       <c r="F21">
-        <v>0.9831188523557723</v>
+        <v>1.010823902309503</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036917250687389</v>
+        <v>1.039285887040477</v>
       </c>
       <c r="J21">
-        <v>1.002387853022457</v>
+        <v>1.011222823945616</v>
       </c>
       <c r="K21">
-        <v>1.011971075391976</v>
+        <v>1.022027066278666</v>
       </c>
       <c r="L21">
-        <v>1.00201619379659</v>
+        <v>1.015300251345185</v>
       </c>
       <c r="M21">
-        <v>0.9984272598836228</v>
+        <v>1.025603073695976</v>
       </c>
       <c r="N21">
-        <v>1.003811358749242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006951136974969</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.028835409776823</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026727979180958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9674099597407245</v>
+        <v>0.9772250834872576</v>
       </c>
       <c r="D22">
-        <v>0.9937512827286625</v>
+        <v>1.004818047276636</v>
       </c>
       <c r="E22">
-        <v>0.9830117349815086</v>
+        <v>0.9974388566474846</v>
       </c>
       <c r="F22">
-        <v>0.9785059065806629</v>
+        <v>1.008122734981099</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035608445480102</v>
+        <v>1.038573812975714</v>
       </c>
       <c r="J22">
-        <v>0.9996503307837116</v>
+        <v>1.008998489598934</v>
       </c>
       <c r="K22">
-        <v>1.009447552668567</v>
+        <v>1.020294658159509</v>
       </c>
       <c r="L22">
-        <v>0.9989274156535177</v>
+        <v>1.013061221601083</v>
       </c>
       <c r="M22">
-        <v>0.9945155391640899</v>
+        <v>1.023534978225735</v>
       </c>
       <c r="N22">
-        <v>1.00106994891492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006159567898451</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027198621868739</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025489415242907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9696722572025495</v>
+        <v>0.9791702722184178</v>
       </c>
       <c r="D23">
-        <v>0.9954456457721587</v>
+        <v>1.006059533188155</v>
       </c>
       <c r="E23">
-        <v>0.9850189261109026</v>
+        <v>0.9989628501777736</v>
       </c>
       <c r="F23">
-        <v>0.9809631141291507</v>
+        <v>1.009551130151567</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036307365994314</v>
+        <v>1.03894617073126</v>
       </c>
       <c r="J23">
-        <v>1.001109372023306</v>
+        <v>1.010169710838852</v>
       </c>
       <c r="K23">
-        <v>1.010792951017488</v>
+        <v>1.021201845111144</v>
       </c>
       <c r="L23">
-        <v>1.000573273087583</v>
+        <v>1.014241592639631</v>
       </c>
       <c r="M23">
-        <v>0.9965995639838768</v>
+        <v>1.024627237588419</v>
       </c>
       <c r="N23">
-        <v>1.002531062160429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006574079501178</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.028063087724273</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026121102312473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9783260337881863</v>
+        <v>0.9866688607221622</v>
       </c>
       <c r="D24">
-        <v>1.001931542689769</v>
+        <v>1.010868266784177</v>
       </c>
       <c r="E24">
-        <v>0.9927149038255488</v>
+        <v>1.004858508897987</v>
       </c>
       <c r="F24">
-        <v>0.9903835738655655</v>
+        <v>1.01508381621265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038948337492422</v>
+        <v>1.040368525700308</v>
       </c>
       <c r="J24">
-        <v>1.006684711282902</v>
+        <v>1.014689918560496</v>
       </c>
       <c r="K24">
-        <v>1.015924822969587</v>
+        <v>1.024707174300825</v>
       </c>
       <c r="L24">
-        <v>1.006871173268184</v>
+        <v>1.018800837522667</v>
       </c>
       <c r="M24">
-        <v>1.004581695866076</v>
+        <v>1.028851121769614</v>
       </c>
       <c r="N24">
-        <v>1.008114319041274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008176907479806</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031406059783897</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028592005569579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9878917607443621</v>
+        <v>0.9950204758770868</v>
       </c>
       <c r="D25">
-        <v>1.009106015128453</v>
+        <v>1.016244034690187</v>
       </c>
       <c r="E25">
-        <v>1.00125640182966</v>
+        <v>1.011461057873148</v>
       </c>
       <c r="F25">
-        <v>1.000839639916707</v>
+        <v>1.021302171123722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0417983437287</v>
+        <v>1.041906798475527</v>
       </c>
       <c r="J25">
-        <v>1.012833601255043</v>
+        <v>1.01971659086012</v>
       </c>
       <c r="K25">
-        <v>1.021564597635964</v>
+        <v>1.028595309844467</v>
       </c>
       <c r="L25">
-        <v>1.013835245037709</v>
+        <v>1.023884023332643</v>
       </c>
       <c r="M25">
-        <v>1.013424935525299</v>
+        <v>1.033578559476134</v>
       </c>
       <c r="N25">
-        <v>1.014271941142463</v>
+        <v>1.009957215133117</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035147547767499</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031338272869656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001387994090044</v>
+        <v>1.001729662723521</v>
       </c>
       <c r="D2">
-        <v>1.020335636941561</v>
+        <v>1.02031469615129</v>
       </c>
       <c r="E2">
-        <v>1.016519401342418</v>
+        <v>1.016809696793619</v>
       </c>
       <c r="F2">
-        <v>1.026090801253684</v>
+        <v>1.026297105010288</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04302654707571</v>
+        <v>1.043048141405451</v>
       </c>
       <c r="J2">
-        <v>1.023527269599922</v>
+        <v>1.023858762666577</v>
       </c>
       <c r="K2">
-        <v>1.031518751223245</v>
+        <v>1.031498087766377</v>
       </c>
       <c r="L2">
-        <v>1.027753293668384</v>
+        <v>1.028039709686846</v>
       </c>
       <c r="M2">
-        <v>1.037198233430897</v>
+        <v>1.03740184397276</v>
       </c>
       <c r="N2">
-        <v>1.011299140033729</v>
+        <v>1.013207846726667</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03801229270757</v>
+        <v>1.038173437340283</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033356688034635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03335091124816</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020404647458714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005896687882796</v>
+        <v>1.005982432245632</v>
       </c>
       <c r="D3">
-        <v>1.023250131048171</v>
+        <v>1.022953551702092</v>
       </c>
       <c r="E3">
-        <v>1.020116464041323</v>
+        <v>1.020203932332562</v>
       </c>
       <c r="F3">
-        <v>1.029501546827674</v>
+        <v>1.029563641927326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043804470526546</v>
+        <v>1.043707750402263</v>
       </c>
       <c r="J3">
-        <v>1.02622788389005</v>
+        <v>1.026311328139674</v>
       </c>
       <c r="K3">
-        <v>1.033593919942797</v>
+        <v>1.033300925481861</v>
       </c>
       <c r="L3">
-        <v>1.030498261853739</v>
+        <v>1.03058466528689</v>
       </c>
       <c r="M3">
-        <v>1.039770367945741</v>
+        <v>1.039831724053629</v>
       </c>
       <c r="N3">
-        <v>1.012252311290424</v>
+        <v>1.013894017170576</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040047968883562</v>
+        <v>1.040096528157987</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034821352189877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034622729616691</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020792236018165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00875505048321</v>
+        <v>1.008680948020428</v>
       </c>
       <c r="D4">
-        <v>1.025100577733822</v>
+        <v>1.024630836550619</v>
       </c>
       <c r="E4">
-        <v>1.022403135635575</v>
+        <v>1.022363853114335</v>
       </c>
       <c r="F4">
-        <v>1.031674094717935</v>
+        <v>1.031646226013333</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044286818310134</v>
+        <v>1.044115711049285</v>
       </c>
       <c r="J4">
-        <v>1.027937421970771</v>
+        <v>1.02786517113167</v>
       </c>
       <c r="K4">
-        <v>1.034905213049079</v>
+        <v>1.034440806919673</v>
       </c>
       <c r="L4">
-        <v>1.032238489324414</v>
+        <v>1.032199655628594</v>
       </c>
       <c r="M4">
-        <v>1.04140469920009</v>
+        <v>1.041377141901157</v>
       </c>
       <c r="N4">
-        <v>1.012855135160534</v>
+        <v>1.01432847228217</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041341432143838</v>
+        <v>1.041319622414488</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035749463120157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035429715169548</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02103470851405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009947282456832</v>
+        <v>1.009806942914902</v>
       </c>
       <c r="D5">
-        <v>1.025875322040791</v>
+        <v>1.02533368026262</v>
       </c>
       <c r="E5">
-        <v>1.023358538283031</v>
+        <v>1.023266707651724</v>
       </c>
       <c r="F5">
-        <v>1.032581986148761</v>
+        <v>1.032516855508694</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044487064634621</v>
+        <v>1.044285027985163</v>
       </c>
       <c r="J5">
-        <v>1.028651419068106</v>
+        <v>1.028514480193885</v>
       </c>
       <c r="K5">
-        <v>1.035454140896821</v>
+        <v>1.034918486760298</v>
       </c>
       <c r="L5">
-        <v>1.032965245262989</v>
+        <v>1.032874435384665</v>
       </c>
       <c r="M5">
-        <v>1.042087304122774</v>
+        <v>1.042022881639789</v>
       </c>
       <c r="N5">
-        <v>1.013107367323346</v>
+        <v>1.014510401282552</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041881667341427</v>
+        <v>1.04183068136124</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036144814348723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035775396798597</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021136220336988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010151823653087</v>
+        <v>1.010000016523771</v>
       </c>
       <c r="D6">
-        <v>1.026011084332193</v>
+        <v>1.025457077280642</v>
       </c>
       <c r="E6">
-        <v>1.023522737231631</v>
+        <v>1.023421790854458</v>
       </c>
       <c r="F6">
-        <v>1.032737035620893</v>
+        <v>1.032665442959195</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044523340615618</v>
+        <v>1.044315947644459</v>
       </c>
       <c r="J6">
-        <v>1.02877581623624</v>
+        <v>1.028627668496574</v>
       </c>
       <c r="K6">
-        <v>1.035551971689322</v>
+        <v>1.035004060852357</v>
       </c>
       <c r="L6">
-        <v>1.03309106961993</v>
+        <v>1.032991240086034</v>
       </c>
       <c r="M6">
-        <v>1.042204551534194</v>
+        <v>1.042133733683413</v>
       </c>
       <c r="N6">
-        <v>1.013152034531331</v>
+        <v>1.014542661556329</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041974460622989</v>
+        <v>1.04191841315447</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036222779150407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035845563141094</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021155014991708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008784916801287</v>
+        <v>1.00871961997479</v>
       </c>
       <c r="D7">
-        <v>1.025127523504624</v>
+        <v>1.024663707374111</v>
       </c>
       <c r="E7">
-        <v>1.022427628448444</v>
+        <v>1.022395682376173</v>
       </c>
       <c r="F7">
-        <v>1.031694550240061</v>
+        <v>1.031671886416464</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044297441741609</v>
+        <v>1.044129064297991</v>
       </c>
       <c r="J7">
-        <v>1.027960532636699</v>
+        <v>1.027896866659074</v>
       </c>
       <c r="K7">
-        <v>1.034928950033996</v>
+        <v>1.034470399526071</v>
       </c>
       <c r="L7">
-        <v>1.032259789112014</v>
+        <v>1.032228207895255</v>
       </c>
       <c r="M7">
-        <v>1.041422047900047</v>
+        <v>1.041399637224307</v>
       </c>
       <c r="N7">
-        <v>1.012865296332914</v>
+        <v>1.014365308846721</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041355162460524</v>
+        <v>1.04133742593406</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035786467557849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035472857355174</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021043560278025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002941792002648</v>
+        <v>1.003227850996497</v>
       </c>
       <c r="D8">
-        <v>1.021348817040681</v>
+        <v>1.021256969360154</v>
       </c>
       <c r="E8">
-        <v>1.017758520647887</v>
+        <v>1.018006070941199</v>
       </c>
       <c r="F8">
-        <v>1.027261304584379</v>
+        <v>1.027437166900089</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043303837986108</v>
+        <v>1.043295815697074</v>
       </c>
       <c r="J8">
-        <v>1.024465001929175</v>
+        <v>1.024742832710232</v>
       </c>
       <c r="K8">
-        <v>1.032247166277273</v>
+        <v>1.032156498661703</v>
       </c>
       <c r="L8">
-        <v>1.028703196682557</v>
+        <v>1.028947539625461</v>
       </c>
       <c r="M8">
-        <v>1.038084244118301</v>
+        <v>1.038257880023252</v>
       </c>
       <c r="N8">
-        <v>1.011632866299892</v>
+        <v>1.013537874350439</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038713512848588</v>
+        <v>1.038850934353931</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033894804651856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033841789180229</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020551461571521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9921472192686558</v>
+        <v>0.9930672640756861</v>
       </c>
       <c r="D9">
-        <v>1.014380815191586</v>
+        <v>1.01496327106095</v>
       </c>
       <c r="E9">
-        <v>1.009183883930606</v>
+        <v>1.009933687829827</v>
       </c>
       <c r="F9">
-        <v>1.01915906665602</v>
+        <v>1.019693104327589</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041375100955294</v>
+        <v>1.041656431975935</v>
       </c>
       <c r="J9">
-        <v>1.017980359894857</v>
+        <v>1.018867232982758</v>
       </c>
       <c r="K9">
-        <v>1.027244804247541</v>
+        <v>1.027818156437842</v>
       </c>
       <c r="L9">
-        <v>1.022129695812004</v>
+        <v>1.022867627899414</v>
       </c>
       <c r="M9">
-        <v>1.031948765179892</v>
+        <v>1.032474555059907</v>
       </c>
       <c r="N9">
-        <v>1.00933902490882</v>
+        <v>1.011901111831988</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033857664005249</v>
+        <v>1.034273795200731</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03035454232279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030770780841142</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01960277212919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9847177930118015</v>
+        <v>0.986135571355282</v>
       </c>
       <c r="D10">
-        <v>1.009619027224621</v>
+        <v>1.010708613724911</v>
       </c>
       <c r="E10">
-        <v>1.003383711877987</v>
+        <v>1.004528651956823</v>
       </c>
       <c r="F10">
-        <v>1.013768204887778</v>
+        <v>1.01458498334119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040013608727638</v>
+        <v>1.040512979202876</v>
       </c>
       <c r="J10">
-        <v>1.013551140331697</v>
+        <v>1.014910274832181</v>
       </c>
       <c r="K10">
-        <v>1.023816752226774</v>
+        <v>1.024887175675565</v>
       </c>
       <c r="L10">
-        <v>1.017692139942599</v>
+        <v>1.018816618783296</v>
       </c>
       <c r="M10">
-        <v>1.027893241584558</v>
+        <v>1.028695801781059</v>
       </c>
       <c r="N10">
-        <v>1.007780027563304</v>
+        <v>1.010919349270484</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030699880213576</v>
+        <v>1.031335020978043</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027947614339615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028717007305678</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018958994403952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9823896831113537</v>
+        <v>0.9840092543379195</v>
       </c>
       <c r="D11">
-        <v>1.008231277933473</v>
+        <v>1.009506345348979</v>
       </c>
       <c r="E11">
-        <v>1.00208637642159</v>
+        <v>1.003389245578557</v>
       </c>
       <c r="F11">
-        <v>1.013101701769313</v>
+        <v>1.014030197811251</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039725698278182</v>
+        <v>1.040301695541522</v>
       </c>
       <c r="J11">
-        <v>1.012513876953474</v>
+        <v>1.014062737103059</v>
       </c>
       <c r="K11">
-        <v>1.02299961613965</v>
+        <v>1.024251185388655</v>
       </c>
       <c r="L11">
-        <v>1.016969053706013</v>
+        <v>1.018247527487507</v>
       </c>
       <c r="M11">
-        <v>1.027780697698668</v>
+        <v>1.028692288290639</v>
       </c>
       <c r="N11">
-        <v>1.007497737367118</v>
+        <v>1.010977571235497</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031050793897917</v>
+        <v>1.031771851511085</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027403031462329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028303704459256</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018873324753576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.981886399039857</v>
+        <v>0.9835476911580457</v>
       </c>
       <c r="D12">
-        <v>1.0079838367614</v>
+        <v>1.00929268648137</v>
       </c>
       <c r="E12">
-        <v>1.002074010177443</v>
+        <v>1.003406576786019</v>
       </c>
       <c r="F12">
-        <v>1.013478374564886</v>
+        <v>1.014427114590531</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039740268841072</v>
+        <v>1.040327250353037</v>
       </c>
       <c r="J12">
-        <v>1.012477646955867</v>
+        <v>1.014065040439405</v>
       </c>
       <c r="K12">
-        <v>1.022959661023126</v>
+        <v>1.024243992829781</v>
       </c>
       <c r="L12">
-        <v>1.017161583004409</v>
+        <v>1.018468801887077</v>
       </c>
       <c r="M12">
-        <v>1.028351827053317</v>
+        <v>1.029283036909142</v>
       </c>
       <c r="N12">
-        <v>1.00755195593156</v>
+        <v>1.011129551578925</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031831309681487</v>
+        <v>1.032567633064998</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027374781359338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028298619109918</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018910996938637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9827686373459131</v>
+        <v>0.9843331112794858</v>
       </c>
       <c r="D13">
-        <v>1.008614019813451</v>
+        <v>1.00982835745872</v>
       </c>
       <c r="E13">
-        <v>1.003062842608881</v>
+        <v>1.00431385145019</v>
       </c>
       <c r="F13">
-        <v>1.014706530962725</v>
+        <v>1.015596294322266</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040001305527539</v>
+        <v>1.040543221918304</v>
       </c>
       <c r="J13">
-        <v>1.013225234163589</v>
+        <v>1.014720540048073</v>
       </c>
       <c r="K13">
-        <v>1.023534542763392</v>
+        <v>1.024726243360551</v>
       </c>
       <c r="L13">
-        <v>1.018087760144886</v>
+        <v>1.019315111073338</v>
       </c>
       <c r="M13">
-        <v>1.029514191783041</v>
+        <v>1.030387620099658</v>
       </c>
       <c r="N13">
-        <v>1.007876799050585</v>
+        <v>1.011330758814546</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033028663563217</v>
+        <v>1.033719122840047</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027778731832238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028636826027876</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019049406468599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9840083693725448</v>
+        <v>0.9854440030721547</v>
       </c>
       <c r="D14">
-        <v>1.009450615971025</v>
+        <v>1.010542359226022</v>
       </c>
       <c r="E14">
-        <v>1.004200021511972</v>
+        <v>1.00534529486293</v>
       </c>
       <c r="F14">
-        <v>1.015942965085482</v>
+        <v>1.016756934890347</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040294636311555</v>
+        <v>1.040780564803405</v>
       </c>
       <c r="J14">
-        <v>1.01409851984275</v>
+        <v>1.015471660970968</v>
       </c>
       <c r="K14">
-        <v>1.024213219493074</v>
+        <v>1.025284875285269</v>
       </c>
       <c r="L14">
-        <v>1.01906002937813</v>
+        <v>1.020183943446422</v>
       </c>
       <c r="M14">
-        <v>1.030586938919263</v>
+        <v>1.031386174651963</v>
       </c>
       <c r="N14">
-        <v>1.008225178398143</v>
+        <v>1.011494526233166</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034050772121251</v>
+        <v>1.034682495248454</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028260025894116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029033371503096</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019192030308062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.984620275325115</v>
+        <v>0.9859952016911744</v>
       </c>
       <c r="D15">
-        <v>1.009853475209403</v>
+        <v>1.010888056226174</v>
       </c>
       <c r="E15">
-        <v>1.004710096995045</v>
+        <v>1.005806251709435</v>
       </c>
       <c r="F15">
-        <v>1.016454640160736</v>
+        <v>1.017233527421828</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040423565201865</v>
+        <v>1.040884024922003</v>
       </c>
       <c r="J15">
-        <v>1.014492110352553</v>
+        <v>1.015807735797256</v>
       </c>
       <c r="K15">
-        <v>1.024521022599285</v>
+        <v>1.025536716432935</v>
       </c>
       <c r="L15">
-        <v>1.019472294113947</v>
+        <v>1.020548171314011</v>
       </c>
       <c r="M15">
-        <v>1.031002535053348</v>
+        <v>1.031767437291857</v>
       </c>
       <c r="N15">
-        <v>1.008373115324408</v>
+        <v>1.011551630861795</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034416943331845</v>
+        <v>1.035021513041806</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028483582404085</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.02921792441657</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019251678928431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9875863268774998</v>
+        <v>0.9886945737663553</v>
       </c>
       <c r="D16">
-        <v>1.011740220441676</v>
+        <v>1.01252357857641</v>
       </c>
       <c r="E16">
-        <v>1.006969885681016</v>
+        <v>1.007853779076749</v>
       </c>
       <c r="F16">
-        <v>1.018533358184897</v>
+        <v>1.019161074702972</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040960465965928</v>
+        <v>1.041312549376669</v>
       </c>
       <c r="J16">
-        <v>1.016222876759571</v>
+        <v>1.01728578605608</v>
       </c>
       <c r="K16">
-        <v>1.025864623463193</v>
+        <v>1.026634313810603</v>
       </c>
       <c r="L16">
-        <v>1.021178115360268</v>
+        <v>1.02204639888861</v>
       </c>
       <c r="M16">
-        <v>1.032540140622766</v>
+        <v>1.03315709074238</v>
       </c>
       <c r="N16">
-        <v>1.008970212063426</v>
+        <v>1.011742583482065</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035593394552859</v>
+        <v>1.036081038835619</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029436764234865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02999746184954</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019484915899818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9892167818793199</v>
+        <v>0.990200555098921</v>
       </c>
       <c r="D17">
-        <v>1.01275351273176</v>
+        <v>1.013417411287572</v>
       </c>
       <c r="E17">
-        <v>1.008112562331027</v>
+        <v>1.008899006000282</v>
       </c>
       <c r="F17">
-        <v>1.019477724473366</v>
+        <v>1.020036215452428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041217375635076</v>
+        <v>1.04151956355332</v>
       </c>
       <c r="J17">
-        <v>1.017095744390917</v>
+        <v>1.01804059076005</v>
       </c>
       <c r="K17">
-        <v>1.026541561770481</v>
+        <v>1.027194204683283</v>
       </c>
       <c r="L17">
-        <v>1.021979828568529</v>
+        <v>1.022752782015403</v>
       </c>
       <c r="M17">
-        <v>1.033152645263231</v>
+        <v>1.033701826594373</v>
       </c>
       <c r="N17">
-        <v>1.009246577534823</v>
+        <v>1.011834793818621</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035947992723144</v>
+        <v>1.036382115351539</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029918001302243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030396184731178</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019591542599306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9898249810612149</v>
+        <v>0.9907800378230505</v>
       </c>
       <c r="D18">
-        <v>1.013084983980488</v>
+        <v>1.013720973409905</v>
       </c>
       <c r="E18">
-        <v>1.008347588062496</v>
+        <v>1.009113883214626</v>
       </c>
       <c r="F18">
-        <v>1.019448714948822</v>
+        <v>1.019993178969818</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041247410347752</v>
+        <v>1.041540508412786</v>
       </c>
       <c r="J18">
-        <v>1.017277977154039</v>
+        <v>1.018195947041346</v>
       </c>
       <c r="K18">
-        <v>1.026681612363642</v>
+        <v>1.027306994711491</v>
       </c>
       <c r="L18">
-        <v>1.022023770317669</v>
+        <v>1.022777131952749</v>
       </c>
       <c r="M18">
-        <v>1.032939975428222</v>
+        <v>1.033475502959013</v>
       </c>
       <c r="N18">
-        <v>1.009258525284967</v>
+        <v>1.011799352466267</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035541093855633</v>
+        <v>1.035964512208061</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030005287729032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030463066098402</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019587939519556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9895313098935183</v>
+        <v>0.9905316537848358</v>
       </c>
       <c r="D19">
-        <v>1.012830196502112</v>
+        <v>1.013511282957661</v>
       </c>
       <c r="E19">
-        <v>1.007769919780107</v>
+        <v>1.008575560476002</v>
       </c>
       <c r="F19">
-        <v>1.018531177131053</v>
+        <v>1.019104212304804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041089842443313</v>
+        <v>1.041405964512284</v>
       </c>
       <c r="J19">
-        <v>1.016858751938026</v>
+        <v>1.017820448289469</v>
       </c>
       <c r="K19">
-        <v>1.026367703168637</v>
+        <v>1.027037484492862</v>
       </c>
       <c r="L19">
-        <v>1.021392037418597</v>
+        <v>1.022184134035308</v>
       </c>
       <c r="M19">
-        <v>1.031974654673397</v>
+        <v>1.032538313283362</v>
       </c>
       <c r="N19">
-        <v>1.009048033133487</v>
+        <v>1.011638558093851</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034450448956907</v>
+        <v>1.034896256492414</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029789791518182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030279586899525</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019493088759513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9866873687960278</v>
+        <v>0.9879393003097426</v>
       </c>
       <c r="D20">
-        <v>1.010899261203947</v>
+        <v>1.011829370446028</v>
       </c>
       <c r="E20">
-        <v>1.004923805751472</v>
+        <v>1.005935477258023</v>
       </c>
       <c r="F20">
-        <v>1.015194522993604</v>
+        <v>1.015915920280743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040393214724057</v>
+        <v>1.040822651292564</v>
       </c>
       <c r="J20">
-        <v>1.01474129430967</v>
+        <v>1.015943191064322</v>
       </c>
       <c r="K20">
-        <v>1.024753129934608</v>
+        <v>1.025667355678031</v>
       </c>
       <c r="L20">
-        <v>1.018880625007049</v>
+        <v>1.01987475524469</v>
       </c>
       <c r="M20">
-        <v>1.028975355170586</v>
+        <v>1.029684563976091</v>
       </c>
       <c r="N20">
-        <v>1.008205671532766</v>
+        <v>1.011110354397466</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031545618649206</v>
+        <v>1.032106888434307</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028652172143424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029315199633267</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019133687856009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9809044466338872</v>
+        <v>0.9827105643740298</v>
       </c>
       <c r="D21">
-        <v>1.007180464921333</v>
+        <v>1.008632243232243</v>
       </c>
       <c r="E21">
-        <v>1.000325034221065</v>
+        <v>1.001785173721389</v>
       </c>
       <c r="F21">
-        <v>1.010823902309503</v>
+        <v>1.011866717087275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039285887040477</v>
+        <v>1.039945527360082</v>
       </c>
       <c r="J21">
-        <v>1.011222823945616</v>
+        <v>1.012949367256104</v>
       </c>
       <c r="K21">
-        <v>1.022027066278666</v>
+        <v>1.023451900054376</v>
       </c>
       <c r="L21">
-        <v>1.015300251345185</v>
+        <v>1.016732804183494</v>
       </c>
       <c r="M21">
-        <v>1.025603073695976</v>
+        <v>1.026626705283863</v>
       </c>
       <c r="N21">
-        <v>1.006951136974969</v>
+        <v>1.010698100665437</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028835409776823</v>
+        <v>1.029645558465868</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026727979180958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02775237168214</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018644942146656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9772250834872576</v>
+        <v>0.9793869440778417</v>
       </c>
       <c r="D22">
-        <v>1.004818047276636</v>
+        <v>1.00660503476179</v>
       </c>
       <c r="E22">
-        <v>0.9974388566474846</v>
+        <v>0.999187346296269</v>
       </c>
       <c r="F22">
-        <v>1.008122734981099</v>
+        <v>1.009372609871962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038573812975714</v>
+        <v>1.039381703402326</v>
       </c>
       <c r="J22">
-        <v>1.008998489598934</v>
+        <v>1.011059304025298</v>
       </c>
       <c r="K22">
-        <v>1.020294658159509</v>
+        <v>1.022046770461923</v>
       </c>
       <c r="L22">
-        <v>1.013061221601083</v>
+        <v>1.014774919223463</v>
       </c>
       <c r="M22">
-        <v>1.023534978225735</v>
+        <v>1.024760652388105</v>
       </c>
       <c r="N22">
-        <v>1.006159567898451</v>
+        <v>1.010435056605784</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027198621868739</v>
+        <v>1.028168678448949</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025489415242907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026743930704373</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018334113650111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9791702722184178</v>
+        <v>0.9811252291013565</v>
       </c>
       <c r="D23">
-        <v>1.006059533188155</v>
+        <v>1.007654579177175</v>
       </c>
       <c r="E23">
-        <v>0.9989628501777736</v>
+        <v>1.00054288653955</v>
       </c>
       <c r="F23">
-        <v>1.009551130151567</v>
+        <v>1.010680048449563</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03894617073126</v>
+        <v>1.039668800686598</v>
       </c>
       <c r="J23">
-        <v>1.010169710838852</v>
+        <v>1.012036088056506</v>
       </c>
       <c r="K23">
-        <v>1.021201845111144</v>
+        <v>1.022766572864871</v>
       </c>
       <c r="L23">
-        <v>1.014241592639631</v>
+        <v>1.015791034075101</v>
       </c>
       <c r="M23">
-        <v>1.024627237588419</v>
+        <v>1.025734878193391</v>
       </c>
       <c r="N23">
-        <v>1.006574079501178</v>
+        <v>1.010524394897241</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028063087724273</v>
+        <v>1.028939725916108</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026121102312473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027242185502547</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01849032041778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9866688607221622</v>
+        <v>0.9879250959315614</v>
       </c>
       <c r="D24">
-        <v>1.010868266784177</v>
+        <v>1.011802493055193</v>
       </c>
       <c r="E24">
-        <v>1.004858508897987</v>
+        <v>1.005874122202412</v>
       </c>
       <c r="F24">
-        <v>1.01508381621265</v>
+        <v>1.015808134494712</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040368525700308</v>
+        <v>1.040800381261758</v>
       </c>
       <c r="J24">
-        <v>1.014689918560496</v>
+        <v>1.015896015422856</v>
       </c>
       <c r="K24">
-        <v>1.024707174300825</v>
+        <v>1.025625466091908</v>
       </c>
       <c r="L24">
-        <v>1.018800837522667</v>
+        <v>1.0197988610155</v>
       </c>
       <c r="M24">
-        <v>1.028851121769614</v>
+        <v>1.02956321453322</v>
       </c>
       <c r="N24">
-        <v>1.008176907479806</v>
+        <v>1.011085479055427</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031406059783897</v>
+        <v>1.031969640464168</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028592005569579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029255248706408</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019117313059576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9950204758770868</v>
+        <v>0.9957548290644118</v>
       </c>
       <c r="D25">
-        <v>1.016244034690187</v>
+        <v>1.016634931897144</v>
       </c>
       <c r="E25">
-        <v>1.011461057873148</v>
+        <v>1.012063170559455</v>
       </c>
       <c r="F25">
-        <v>1.021302171123722</v>
+        <v>1.021730724629502</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041906798475527</v>
+        <v>1.042105378517435</v>
       </c>
       <c r="J25">
-        <v>1.01971659086012</v>
+        <v>1.020425909639715</v>
       </c>
       <c r="K25">
-        <v>1.028595309844467</v>
+        <v>1.028980385951208</v>
       </c>
       <c r="L25">
-        <v>1.023884023332643</v>
+        <v>1.024477063702916</v>
       </c>
       <c r="M25">
-        <v>1.033578559476134</v>
+        <v>1.034000811417353</v>
       </c>
       <c r="N25">
-        <v>1.009957215133117</v>
+        <v>1.012306886941601</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035147547767499</v>
+        <v>1.035481734294814</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031338272869656</v>
+        <v>1.031624174923685</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019861019810709</v>
       </c>
     </row>
   </sheetData>
